--- a/Load dataset.xlsx
+++ b/Load dataset.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="365" documentId="11_5A440047DFECBC58903F4DEA860302072BED40F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38FD0E2D-5D79-414D-A2EA-3CCE25AC7D9C}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Opti in modern power systems\code\optimization_code\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1C5213-9D9F-4E84-BB7E-9A915FA647B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Load profile" sheetId="1" r:id="rId1"/>
-    <sheet name="Load distribution" sheetId="2" r:id="rId2"/>
-    <sheet name="Demand prices" sheetId="5" r:id="rId3"/>
+    <sheet name="Demand prices" sheetId="5" r:id="rId2"/>
+    <sheet name="Load distribution" sheetId="2" r:id="rId3"/>
     <sheet name="Demand prices - raw data" sheetId="3" r:id="rId4"/>
     <sheet name="DP - calculations" sheetId="4" r:id="rId5"/>
   </sheets>
@@ -38,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="158">
   <si>
     <t>Hour</t>
   </si>
@@ -518,7 +523,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -570,12 +575,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -914,17 +918,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -932,7 +936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -940,7 +944,7 @@
         <v>1775.835</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -948,7 +952,7 @@
         <v>1669.8150000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -956,7 +960,7 @@
         <v>1590.3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -964,7 +968,7 @@
         <v>1563.7950000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -972,7 +976,7 @@
         <v>1563.7950000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -980,7 +984,7 @@
         <v>1590.3</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -988,7 +992,7 @@
         <v>1961.37</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -996,7 +1000,7 @@
         <v>2279.4299999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1004,7 +1008,7 @@
         <v>2517.9749999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1012,7 +1016,7 @@
         <v>2544.48</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1020,7 +1024,7 @@
         <v>2544.48</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1028,7 +1032,7 @@
         <v>2517.9749999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1036,7 +1040,7 @@
         <v>2517.9749999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1044,7 +1048,7 @@
         <v>2517.9749999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1052,7 +1056,7 @@
         <v>2464.9650000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1060,7 +1064,7 @@
         <v>2464.9650000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1068,7 +1072,7 @@
         <v>2623.9949999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1076,7 +1080,7 @@
         <v>2650.5</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1084,7 +1088,7 @@
         <v>2650.5</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1092,7 +1096,7 @@
         <v>2544.48</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1100,7 +1104,7 @@
         <v>2411.9549999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1108,7 +1112,7 @@
         <v>2199.915</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1116,7 +1120,7 @@
         <v>1934.865</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1130,6 +1134,221 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE9AD59-411E-4291-875A-DE2F5FAB8CE2}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>26.851422320000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>26.355485759999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>26.001245359999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>25.717853039999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>21.509477087999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>25.859549199999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>32.30672448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>39.674924799999992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>44.988530799999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>43.217328799999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>41.871215279999987</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>39.745772880000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>39.037292079999993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>38.541355519999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>41.021038320000009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>43.146480719999985</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>45.342771199999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>49.239415599999994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>47.043125119999992</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>42.579696079999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>39.533228639999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>34.857255359999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>34.857255359999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>31.456547519999987</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E7BCCE-5357-4236-B0ED-DE4B9006FBAE}">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -1137,12 +1356,12 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1153,7 +1372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1164,7 +1383,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1175,7 +1394,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1186,7 +1405,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1197,7 +1416,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1208,7 +1427,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1219,7 +1438,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1230,7 +1449,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1241,7 +1460,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1252,7 +1471,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1263,7 +1482,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1274,7 +1493,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1285,7 +1504,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1296,7 +1515,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1307,7 +1526,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1318,7 +1537,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1329,7 +1548,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1338,221 +1557,6 @@
       </c>
       <c r="C18">
         <v>4.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE9AD59-411E-4291-875A-DE2F5FAB8CE2}">
-  <dimension ref="A1:B25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2.6497181919999996E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2.6379101786666657E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>2.6284637679999996E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>2.4881845695999999E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>2.6331869733333329E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>3.25901168E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>3.5046183573333333E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>3.6817385573333327E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>3.6226984906666672E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>3.57782804E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>3.5069799599999994E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>3.4833639333333333E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>3.4668327146666667E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>3.5494888080000005E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>3.620336888E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>3.6935465706666666E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>5.0420216933333331E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>4.9688120106666659E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>4.8200310426666664E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>4.7184821280000003E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>3.344029376E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>3.3440293759999995E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>3.2306724479999995E-4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>2.6662494106666662E-4</v>
       </c>
     </row>
   </sheetData>
@@ -1564,19 +1568,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711E96C0-72E0-40D0-B5C5-2356C5C3C468}">
   <dimension ref="A1:M151"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1595,7 +1599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1609,7 +1613,7 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1623,7 +1627,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1637,7 +1641,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1651,7 +1655,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1665,7 +1669,7 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1679,7 +1683,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1693,7 +1697,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1707,7 +1711,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1721,7 +1725,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1735,7 +1739,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1749,7 +1753,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -1763,7 +1767,7 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -1777,7 +1781,7 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -1791,7 +1795,7 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
@@ -1805,7 +1809,7 @@
         <v>3.18</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
@@ -1819,7 +1823,7 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
@@ -1833,7 +1837,7 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
@@ -1847,7 +1851,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
@@ -1861,7 +1865,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
@@ -1875,7 +1879,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>30</v>
       </c>
@@ -1889,7 +1893,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>31</v>
       </c>
@@ -1903,7 +1907,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
@@ -1917,7 +1921,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>33</v>
       </c>
@@ -1931,7 +1935,7 @@
         <v>2.41</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
@@ -1945,7 +1949,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
@@ -1959,7 +1963,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>36</v>
       </c>
@@ -1973,7 +1977,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>37</v>
       </c>
@@ -1987,7 +1991,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>38</v>
       </c>
@@ -2001,7 +2005,7 @@
         <v>3.97</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>39</v>
       </c>
@@ -2015,7 +2019,7 @@
         <v>4.07</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>40</v>
       </c>
@@ -2029,7 +2033,7 @@
         <v>4.04</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>41</v>
       </c>
@@ -2043,7 +2047,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>42</v>
       </c>
@@ -2057,7 +2061,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>43</v>
       </c>
@@ -2071,7 +2075,7 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>44</v>
       </c>
@@ -2085,7 +2089,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>45</v>
       </c>
@@ -2099,7 +2103,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>46</v>
       </c>
@@ -2113,7 +2117,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>47</v>
       </c>
@@ -2127,7 +2131,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>48</v>
       </c>
@@ -2141,7 +2145,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>49</v>
       </c>
@@ -2155,7 +2159,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>50</v>
       </c>
@@ -2169,7 +2173,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>51</v>
       </c>
@@ -2183,7 +2187,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>52</v>
       </c>
@@ -2197,7 +2201,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>53</v>
       </c>
@@ -2211,7 +2215,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>54</v>
       </c>
@@ -2225,7 +2229,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>55</v>
       </c>
@@ -2239,7 +2243,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>56</v>
       </c>
@@ -2253,7 +2257,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>57</v>
       </c>
@@ -2267,7 +2271,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>58</v>
       </c>
@@ -2281,7 +2285,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>59</v>
       </c>
@@ -2295,7 +2299,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>60</v>
       </c>
@@ -2309,7 +2313,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>61</v>
       </c>
@@ -2323,7 +2327,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>62</v>
       </c>
@@ -2337,7 +2341,7 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>63</v>
       </c>
@@ -2351,7 +2355,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>64</v>
       </c>
@@ -2365,7 +2369,7 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>65</v>
       </c>
@@ -2379,7 +2383,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>66</v>
       </c>
@@ -2393,7 +2397,7 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>67</v>
       </c>
@@ -2407,7 +2411,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>68</v>
       </c>
@@ -2421,7 +2425,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>69</v>
       </c>
@@ -2435,7 +2439,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>70</v>
       </c>
@@ -2449,7 +2453,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>71</v>
       </c>
@@ -2463,7 +2467,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>72</v>
       </c>
@@ -2477,7 +2481,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>73</v>
       </c>
@@ -2491,7 +2495,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>74</v>
       </c>
@@ -2505,7 +2509,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>75</v>
       </c>
@@ -2519,7 +2523,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>76</v>
       </c>
@@ -2533,7 +2537,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>77</v>
       </c>
@@ -2547,7 +2551,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>78</v>
       </c>
@@ -2561,7 +2565,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>79</v>
       </c>
@@ -2575,7 +2579,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>80</v>
       </c>
@@ -2589,7 +2593,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>81</v>
       </c>
@@ -2603,7 +2607,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>82</v>
       </c>
@@ -2617,7 +2621,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>83</v>
       </c>
@@ -2631,7 +2635,7 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>84</v>
       </c>
@@ -2645,7 +2649,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>85</v>
       </c>
@@ -2659,7 +2663,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>86</v>
       </c>
@@ -2673,7 +2677,7 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>87</v>
       </c>
@@ -2687,7 +2691,7 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>88</v>
       </c>
@@ -2701,7 +2705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>89</v>
       </c>
@@ -2715,7 +2719,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>90</v>
       </c>
@@ -2729,7 +2733,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>91</v>
       </c>
@@ -2743,7 +2747,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>92</v>
       </c>
@@ -2757,7 +2761,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>93</v>
       </c>
@@ -2771,7 +2775,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>94</v>
       </c>
@@ -2785,7 +2789,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>95</v>
       </c>
@@ -2799,7 +2803,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>96</v>
       </c>
@@ -2813,7 +2817,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>97</v>
       </c>
@@ -2827,7 +2831,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>98</v>
       </c>
@@ -2841,7 +2845,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>99</v>
       </c>
@@ -2855,7 +2859,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>100</v>
       </c>
@@ -2869,7 +2873,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>101</v>
       </c>
@@ -2883,7 +2887,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>102</v>
       </c>
@@ -2897,7 +2901,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>103</v>
       </c>
@@ -2911,7 +2915,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>104</v>
       </c>
@@ -2925,7 +2929,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>105</v>
       </c>
@@ -2939,7 +2943,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>106</v>
       </c>
@@ -2953,7 +2957,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>107</v>
       </c>
@@ -2967,7 +2971,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>108</v>
       </c>
@@ -2981,7 +2985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>109</v>
       </c>
@@ -2995,7 +2999,7 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>110</v>
       </c>
@@ -3009,7 +3013,7 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>111</v>
       </c>
@@ -3023,7 +3027,7 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>112</v>
       </c>
@@ -3037,7 +3041,7 @@
         <v>3.49</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>113</v>
       </c>
@@ -3051,7 +3055,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>114</v>
       </c>
@@ -3065,7 +3069,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>115</v>
       </c>
@@ -3079,7 +3083,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>116</v>
       </c>
@@ -3093,7 +3097,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>117</v>
       </c>
@@ -3107,7 +3111,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>118</v>
       </c>
@@ -3121,7 +3125,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>119</v>
       </c>
@@ -3135,7 +3139,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>120</v>
       </c>
@@ -3149,7 +3153,7 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>121</v>
       </c>
@@ -3163,7 +3167,7 @@
         <v>3.07</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>122</v>
       </c>
@@ -3177,7 +3181,7 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>123</v>
       </c>
@@ -3191,7 +3195,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>124</v>
       </c>
@@ -3205,7 +3209,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>125</v>
       </c>
@@ -3219,7 +3223,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>126</v>
       </c>
@@ -3233,7 +3237,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>127</v>
       </c>
@@ -3247,7 +3251,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>128</v>
       </c>
@@ -3261,7 +3265,7 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>129</v>
       </c>
@@ -3275,7 +3279,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>130</v>
       </c>
@@ -3289,7 +3293,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>131</v>
       </c>
@@ -3303,7 +3307,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>132</v>
       </c>
@@ -3317,7 +3321,7 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>133</v>
       </c>
@@ -3331,7 +3335,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>134</v>
       </c>
@@ -3345,7 +3349,7 @@
         <v>3.94</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>135</v>
       </c>
@@ -3359,7 +3363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>136</v>
       </c>
@@ -3373,7 +3377,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>137</v>
       </c>
@@ -3387,7 +3391,7 @@
         <v>3.07</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>138</v>
       </c>
@@ -3401,7 +3405,7 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>139</v>
       </c>
@@ -3415,7 +3419,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>140</v>
       </c>
@@ -3429,7 +3433,7 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>141</v>
       </c>
@@ -3443,7 +3447,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>142</v>
       </c>
@@ -3457,7 +3461,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>143</v>
       </c>
@@ -3471,7 +3475,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>144</v>
       </c>
@@ -3485,7 +3489,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>145</v>
       </c>
@@ -3499,7 +3503,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>146</v>
       </c>
@@ -3513,7 +3517,7 @@
         <v>2.64</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>147</v>
       </c>
@@ -3527,7 +3531,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>148</v>
       </c>
@@ -3541,7 +3545,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
         <v>149</v>
       </c>
@@ -3555,7 +3559,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>150</v>
       </c>
@@ -3569,7 +3573,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>151</v>
       </c>
@@ -3583,7 +3587,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>152</v>
       </c>
@@ -3597,7 +3601,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
         <v>153</v>
       </c>
@@ -3611,31 +3615,31 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -3651,18 +3655,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E378C839-089A-4F4A-A203-014E3B2188F1}">
   <dimension ref="A2:L168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6:L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.54296875" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" customWidth="1"/>
+    <col min="10" max="10" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -3685,7 +3689,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
@@ -3693,16 +3697,18 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="C3" s="2">
-        <v>1.25</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>2.41</v>
-      </c>
-      <c r="J3" s="5" t="s">
+        <f>B3</f>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>57</v>
       </c>
@@ -3710,13 +3716,14 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="C4" s="2">
-        <v>1.25</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D4" s="2">
         <v>1.53</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>81</v>
       </c>
@@ -3724,10 +3731,11 @@
         <v>0.31</v>
       </c>
       <c r="C5" s="2">
-        <v>1.25</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="I5" t="s">
         <v>0</v>
@@ -3738,9 +3746,11 @@
       <c r="K5" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="L5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>105</v>
       </c>
@@ -3748,23 +3758,29 @@
         <v>0.27</v>
       </c>
       <c r="C6" s="2">
-        <v>1.25</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D6" s="2">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.8699999999999999</v>
+        <f>B9</f>
+        <v>0.63166666666666671</v>
       </c>
       <c r="K6">
-        <f>J6*$J$2/1000</f>
-        <v>2.6497181919999996E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <f>J6*$J$2*1000</f>
+        <v>89.504741066666668</v>
+      </c>
+      <c r="L6">
+        <f>0.3*K6</f>
+        <v>26.851422320000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>129</v>
       </c>
@@ -3772,23 +3788,29 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="C7" s="2">
-        <v>1.25</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D7" s="2">
-        <v>2.38</v>
+        <v>1.53</v>
       </c>
       <c r="I7">
         <v>2</v>
       </c>
-      <c r="J7" s="4">
-        <v>1.8616666666666664</v>
+      <c r="J7">
+        <f>B16</f>
+        <v>0.62</v>
       </c>
       <c r="K7">
-        <f t="shared" ref="K7:K29" si="0">J7*$J$2/1000</f>
-        <v>2.6379101786666657E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <f t="shared" ref="K7:K29" si="0">J7*$J$2*1000</f>
+        <v>87.851619199999988</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ref="L7:L29" si="1">0.3*K7</f>
+        <v>26.355485759999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>153</v>
       </c>
@@ -3796,47 +3818,57 @@
         <v>0.64</v>
       </c>
       <c r="C8" s="2">
-        <v>1.25</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D8" s="2">
-        <v>1.89</v>
+        <v>1.53</v>
       </c>
       <c r="I8">
         <v>3</v>
       </c>
       <c r="J8">
-        <v>1.8549999999999998</v>
+        <f>B23</f>
+        <v>0.61166666666666669</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>2.6284637679999996E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>86.670817866666667</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>26.001245359999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
         <f>AVERAGE(B3:B8)</f>
         <v>0.63166666666666671</v>
       </c>
-      <c r="C9" s="3">
-        <f t="shared" ref="C9:D9" si="1">AVERAGE(C3:C8)</f>
-        <v>1.25</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="1"/>
-        <v>1.8816666666666666</v>
+      <c r="C9" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.53</v>
       </c>
       <c r="I9">
         <v>4</v>
       </c>
       <c r="J9">
-        <v>1.7560000000000002</v>
+        <f>B30</f>
+        <v>0.60499999999999998</v>
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>2.4881845695999999E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>85.72617679999999</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>25.717853039999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
@@ -3844,23 +3876,29 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C10" s="2">
-        <v>1.25</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D10" s="2">
-        <v>2.35</v>
+        <v>1.53</v>
       </c>
       <c r="I10">
         <v>5</v>
       </c>
       <c r="J10">
-        <v>1.8583333333333332</v>
+        <f>B36</f>
+        <v>0.50600000000000001</v>
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>2.6331869733333329E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>71.698256959999995</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>21.509477087999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>56</v>
       </c>
@@ -3868,7 +3906,8 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="C11" s="2">
-        <v>1.25</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D11" s="2">
         <v>1.53</v>
@@ -3877,14 +3916,19 @@
         <v>6</v>
       </c>
       <c r="J11">
-        <v>2.3000000000000003</v>
+        <f>B43</f>
+        <v>0.60833333333333328</v>
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>3.25901168E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>86.198497333333322</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>25.859549199999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>80</v>
       </c>
@@ -3892,23 +3936,29 @@
         <v>0.37</v>
       </c>
       <c r="C12" s="2">
-        <v>1.25</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D12" s="2">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="I12">
         <v>7</v>
       </c>
       <c r="J12">
-        <v>2.4733333333333336</v>
+        <f>B50</f>
+        <v>0.76000000000000012</v>
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>3.5046183573333333E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>107.68908160000001</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>32.30672448</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>104</v>
       </c>
@@ -3916,23 +3966,29 @@
         <v>0.25</v>
       </c>
       <c r="C13" s="2">
-        <v>1.25</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D13" s="2">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="I13">
         <v>8</v>
       </c>
       <c r="J13">
-        <v>2.5983333333333332</v>
+        <f>B57</f>
+        <v>0.93333333333333324</v>
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>3.6817385573333327E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>132.24974933333331</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>39.674924799999992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>128</v>
       </c>
@@ -3940,23 +3996,29 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="C14" s="2">
-        <v>1.25</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D14" s="2">
-        <v>2.36</v>
+        <v>1.53</v>
       </c>
       <c r="I14">
         <v>9</v>
       </c>
       <c r="J14">
-        <v>2.5566666666666671</v>
+        <f>B64</f>
+        <v>1.0583333333333333</v>
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>3.6226984906666672E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>149.96176933333334</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>44.988530799999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>152</v>
       </c>
@@ -3964,47 +4026,57 @@
         <v>0.61</v>
       </c>
       <c r="C15" s="2">
-        <v>1.25</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D15" s="2">
-        <v>1.86</v>
+        <v>1.53</v>
       </c>
       <c r="I15">
         <v>10</v>
       </c>
       <c r="J15">
-        <v>2.5250000000000004</v>
+        <f>B71</f>
+        <v>1.0166666666666668</v>
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>3.57782804E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>144.05776266666666</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>43.217328799999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B16" s="3">
         <f>AVERAGE(B10:B15)</f>
         <v>0.62</v>
       </c>
-      <c r="C16" s="3">
-        <f t="shared" ref="C16:D16" si="2">AVERAGE(C10:C15)</f>
-        <v>1.25</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" si="2"/>
-        <v>1.8699999999999999</v>
+      <c r="C16" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1.53</v>
       </c>
       <c r="I16">
         <v>11</v>
       </c>
       <c r="J16">
-        <v>2.4750000000000001</v>
+        <f>B78</f>
+        <v>0.98499999999999999</v>
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>3.5069799599999994E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>139.57071759999997</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>41.871215279999987</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
@@ -4012,23 +4084,29 @@
         <v>1.05</v>
       </c>
       <c r="C17" s="2">
-        <v>1.25</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D17" s="2">
-        <v>2.2999999999999998</v>
+        <v>1.53</v>
       </c>
       <c r="I17">
         <v>12</v>
       </c>
       <c r="J17">
-        <v>2.4583333333333335</v>
+        <f>B85</f>
+        <v>0.93500000000000005</v>
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>3.4833639333333333E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>132.48590960000001</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>39.745772880000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>55</v>
       </c>
@@ -4036,23 +4114,29 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="C18" s="2">
-        <v>1.25</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D18" s="2">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="I18">
         <v>13</v>
       </c>
       <c r="J18">
-        <v>2.4466666666666668</v>
+        <f>B92</f>
+        <v>0.91833333333333333</v>
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>3.4668327146666667E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>130.12430693333332</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>39.037292079999993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>79</v>
       </c>
@@ -4060,23 +4144,29 @@
         <v>0.44</v>
       </c>
       <c r="C19" s="2">
-        <v>1.25</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D19" s="2">
-        <v>1.69</v>
+        <v>1.53</v>
       </c>
       <c r="I19">
         <v>14</v>
       </c>
       <c r="J19">
-        <v>2.5050000000000003</v>
+        <f>B99</f>
+        <v>0.90666666666666662</v>
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>3.5494888080000005E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>128.47118506666666</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>38.541355519999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>103</v>
       </c>
@@ -4084,23 +4174,29 @@
         <v>0.19</v>
       </c>
       <c r="C20" s="2">
-        <v>1.25</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D20" s="2">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="I20">
         <v>15</v>
       </c>
       <c r="J20">
-        <v>2.5550000000000002</v>
+        <f>B106</f>
+        <v>0.96500000000000019</v>
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>3.620336888E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>136.73679440000004</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>41.021038320000009</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>127</v>
       </c>
@@ -4108,23 +4204,29 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="C21" s="2">
-        <v>1.25</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D21" s="2">
-        <v>2.34</v>
+        <v>1.53</v>
       </c>
       <c r="I21">
         <v>16</v>
       </c>
       <c r="J21">
-        <v>2.6066666666666669</v>
+        <f>B113</f>
+        <v>1.0149999999999999</v>
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>3.6935465706666666E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>143.82160239999996</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>43.146480719999985</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>151</v>
       </c>
@@ -4132,47 +4234,57 @@
         <v>0.61</v>
       </c>
       <c r="C22" s="2">
-        <v>1.25</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D22" s="2">
-        <v>1.86</v>
+        <v>1.53</v>
       </c>
       <c r="I22">
         <v>17</v>
       </c>
       <c r="J22">
-        <v>3.5583333333333336</v>
+        <f>B120</f>
+        <v>1.0666666666666667</v>
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>5.0420216933333331E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>151.14257066666664</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>45.342771199999994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B23" s="3">
         <f>AVERAGE(B17:B22)</f>
         <v>0.61166666666666669</v>
       </c>
-      <c r="C23" s="3">
-        <f t="shared" ref="C23:D23" si="3">AVERAGE(C17:C22)</f>
-        <v>1.25</v>
-      </c>
-      <c r="D23" s="3">
-        <f t="shared" si="3"/>
-        <v>1.8616666666666664</v>
+      <c r="C23" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1.53</v>
       </c>
       <c r="I23">
         <v>18</v>
       </c>
       <c r="J23">
-        <v>3.5066666666666664</v>
+        <f>B127</f>
+        <v>1.1583333333333334</v>
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>4.9688120106666659E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>164.13138533333333</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>49.239415599999994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>30</v>
       </c>
@@ -4180,23 +4292,29 @@
         <v>1.01</v>
       </c>
       <c r="C24" s="2">
-        <v>1.25</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D24" s="2">
-        <v>2.2599999999999998</v>
+        <v>1.53</v>
       </c>
       <c r="I24">
         <v>19</v>
       </c>
       <c r="J24">
-        <v>3.4016666666666668</v>
+        <f>B134</f>
+        <v>1.1066666666666667</v>
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>4.8200310426666664E-4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>156.81041706666664</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>47.043125119999992</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>54</v>
       </c>
@@ -4204,23 +4322,29 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="C25" s="2">
-        <v>1.25</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D25" s="2">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="I25">
         <v>20</v>
       </c>
       <c r="J25">
-        <v>3.3300000000000005</v>
+        <f>B141</f>
+        <v>1.0016666666666667</v>
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>4.7184821280000003E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>141.93232026666666</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>42.579696079999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>78</v>
       </c>
@@ -4228,23 +4352,29 @@
         <v>0.43</v>
       </c>
       <c r="C26" s="2">
-        <v>1.25</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D26" s="2">
-        <v>1.68</v>
+        <v>1.53</v>
       </c>
       <c r="I26">
         <v>21</v>
       </c>
       <c r="J26">
-        <v>2.3600000000000003</v>
+        <f>B148</f>
+        <v>0.93</v>
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>3.344029376E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>131.7774288</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>39.533228639999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>102</v>
       </c>
@@ -4252,23 +4382,29 @@
         <v>0.19</v>
       </c>
       <c r="C27" s="2">
-        <v>1.25</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D27" s="2">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="I27">
         <v>22</v>
       </c>
       <c r="J27">
-        <v>2.36</v>
+        <f>B154</f>
+        <v>0.82</v>
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>3.3440293759999995E-4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>116.19085119999998</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="1"/>
+        <v>34.857255359999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>126</v>
       </c>
@@ -4276,23 +4412,29 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="C28" s="2">
-        <v>1.25</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D28" s="2">
-        <v>2.34</v>
+        <v>1.53</v>
       </c>
       <c r="I28">
         <v>23</v>
       </c>
       <c r="J28">
-        <v>2.2799999999999998</v>
+        <f>B161</f>
+        <v>0.82</v>
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>3.2306724479999995E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>116.19085119999998</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="1"/>
+        <v>34.857255359999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>150</v>
       </c>
@@ -4300,37 +4442,42 @@
         <v>0.62</v>
       </c>
       <c r="C29" s="2">
-        <v>1.25</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D29" s="2">
-        <v>1.87</v>
+        <v>1.53</v>
       </c>
       <c r="I29">
         <v>24</v>
       </c>
       <c r="J29">
-        <v>1.8816666666666666</v>
+        <f>B168</f>
+        <v>0.73999999999999988</v>
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
-        <v>2.6662494106666662E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>104.85515839999997</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="1"/>
+        <v>31.456547519999987</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B30" s="3">
         <f>AVERAGE(B24:B29)</f>
         <v>0.60499999999999998</v>
       </c>
-      <c r="C30" s="3">
-        <f t="shared" ref="C30:D30" si="4">AVERAGE(C24:C29)</f>
-        <v>1.25</v>
-      </c>
-      <c r="D30" s="3">
-        <f t="shared" si="4"/>
-        <v>1.8549999999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="C30" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>53</v>
       </c>
@@ -4338,13 +4485,14 @@
         <v>0.4</v>
       </c>
       <c r="C31" s="2">
-        <v>1.25</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D31" s="2">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>77</v>
       </c>
@@ -4352,13 +4500,14 @@
         <v>0.39</v>
       </c>
       <c r="C32" s="2">
-        <v>1.25</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D32" s="2">
-        <v>1.64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>101</v>
       </c>
@@ -4366,13 +4515,14 @@
         <v>0.19</v>
       </c>
       <c r="C33" s="2">
-        <v>1.25</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D33" s="2">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>125</v>
       </c>
@@ -4380,13 +4530,14 @@
         <v>0.99</v>
       </c>
       <c r="C34" s="2">
-        <v>1.25</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D34" s="2">
-        <v>2.2400000000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>149</v>
       </c>
@@ -4394,27 +4545,27 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="C35" s="2">
-        <v>1.25</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D35" s="2">
-        <v>1.81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B36" s="3">
         <f>AVERAGE(B31:B35)</f>
         <v>0.50600000000000001</v>
       </c>
-      <c r="C36" s="3">
-        <f t="shared" ref="C36:D36" si="5">AVERAGE(C31:C35)</f>
-        <v>1.25</v>
-      </c>
-      <c r="D36" s="3">
-        <f t="shared" si="5"/>
-        <v>1.7560000000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="C36" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>28</v>
       </c>
@@ -4422,13 +4573,14 @@
         <v>1.05</v>
       </c>
       <c r="C37" s="2">
-        <v>1.25</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D37" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>52</v>
       </c>
@@ -4436,13 +4588,14 @@
         <v>0.44</v>
       </c>
       <c r="C38" s="2">
-        <v>1.25</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D38" s="2">
-        <v>1.69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>76</v>
       </c>
@@ -4450,13 +4603,14 @@
         <v>0.35</v>
       </c>
       <c r="C39" s="2">
-        <v>1.25</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D39" s="2">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>100</v>
       </c>
@@ -4464,13 +4618,14 @@
         <v>0.19</v>
       </c>
       <c r="C40" s="2">
-        <v>1.25</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D40" s="2">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>124</v>
       </c>
@@ -4478,13 +4633,14 @@
         <v>0.99</v>
       </c>
       <c r="C41" s="2">
-        <v>1.25</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D41" s="2">
-        <v>2.2400000000000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>148</v>
       </c>
@@ -4492,27 +4648,27 @@
         <v>0.63</v>
       </c>
       <c r="C42" s="2">
-        <v>1.25</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D42" s="2">
-        <v>1.88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B43" s="3">
         <f>AVERAGE(B37:B42)</f>
         <v>0.60833333333333328</v>
       </c>
-      <c r="C43" s="3">
-        <f t="shared" ref="C43:D43" si="6">AVERAGE(C37:C42)</f>
-        <v>1.25</v>
-      </c>
-      <c r="D43" s="3">
-        <f t="shared" si="6"/>
-        <v>1.8583333333333332</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="C43" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>27</v>
       </c>
@@ -4520,13 +4676,14 @@
         <v>1.26</v>
       </c>
       <c r="C44" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D44" s="2">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>51</v>
       </c>
@@ -4534,13 +4691,14 @@
         <v>0.74</v>
       </c>
       <c r="C45" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D45" s="2">
-        <v>2.2799999999999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>75</v>
       </c>
@@ -4548,13 +4706,14 @@
         <v>0.41</v>
       </c>
       <c r="C46" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D46" s="2">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>99</v>
       </c>
@@ -4562,13 +4721,14 @@
         <v>0.19</v>
       </c>
       <c r="C47" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D47" s="2">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>123</v>
       </c>
@@ -4576,13 +4736,14 @@
         <v>1.04</v>
       </c>
       <c r="C48" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D48" s="2">
-        <v>2.58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>147</v>
       </c>
@@ -4590,27 +4751,27 @@
         <v>0.92</v>
       </c>
       <c r="C49" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D49" s="2">
-        <v>2.46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B50" s="3">
         <f>AVERAGE(B44:B49)</f>
         <v>0.76000000000000012</v>
       </c>
-      <c r="C50" s="3">
-        <f t="shared" ref="C50:D50" si="7">AVERAGE(C44:C49)</f>
-        <v>1.54</v>
-      </c>
-      <c r="D50" s="3">
-        <f t="shared" si="7"/>
-        <v>2.3000000000000003</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="C50" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>26</v>
       </c>
@@ -4618,13 +4779,14 @@
         <v>1.42</v>
       </c>
       <c r="C51" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D51" s="2">
-        <v>2.96</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
@@ -4632,13 +4794,14 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="C52" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D52" s="2">
-        <v>2.63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>74</v>
       </c>
@@ -4646,13 +4809,14 @@
         <v>0.45</v>
       </c>
       <c r="C53" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D53" s="2">
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>98</v>
       </c>
@@ -4660,13 +4824,14 @@
         <v>0.19</v>
       </c>
       <c r="C54" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D54" s="2">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>122</v>
       </c>
@@ -4674,13 +4839,14 @@
         <v>1.35</v>
       </c>
       <c r="C55" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D55" s="2">
-        <v>2.89</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>146</v>
       </c>
@@ -4688,27 +4854,27 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C56" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D56" s="2">
-        <v>2.64</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B57" s="3">
         <f>AVERAGE(B51:B56)</f>
         <v>0.93333333333333324</v>
       </c>
-      <c r="C57" s="3">
-        <f t="shared" ref="C57:D57" si="8">AVERAGE(C51:C56)</f>
-        <v>1.54</v>
-      </c>
-      <c r="D57" s="3">
-        <f t="shared" si="8"/>
-        <v>2.4733333333333336</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="C57" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>25</v>
       </c>
@@ -4716,13 +4882,14 @@
         <v>1.62</v>
       </c>
       <c r="C58" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D58" s="2">
-        <v>3.16</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>49</v>
       </c>
@@ -4730,13 +4897,14 @@
         <v>1.26</v>
       </c>
       <c r="C59" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D59" s="2">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>73</v>
       </c>
@@ -4744,13 +4912,14 @@
         <v>0.43</v>
       </c>
       <c r="C60" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D60" s="2">
-        <v>1.97</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>97</v>
       </c>
@@ -4758,13 +4927,14 @@
         <v>0.26</v>
       </c>
       <c r="C61" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D61" s="2">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>121</v>
       </c>
@@ -4772,13 +4942,14 @@
         <v>1.53</v>
       </c>
       <c r="C62" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D62" s="2">
-        <v>3.07</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>145</v>
       </c>
@@ -4786,27 +4957,27 @@
         <v>1.25</v>
       </c>
       <c r="C63" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D63" s="2">
-        <v>2.79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B64" s="3">
         <f>AVERAGE(B58:B63)</f>
         <v>1.0583333333333333</v>
       </c>
-      <c r="C64" s="3">
-        <f t="shared" ref="C64:D64" si="9">AVERAGE(C58:C63)</f>
-        <v>1.54</v>
-      </c>
-      <c r="D64" s="3">
-        <f t="shared" si="9"/>
-        <v>2.5983333333333332</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="C64" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>24</v>
       </c>
@@ -4814,13 +4985,14 @@
         <v>1.64</v>
       </c>
       <c r="C65" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D65" s="2">
-        <v>3.18</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>48</v>
       </c>
@@ -4828,13 +5000,14 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="C66" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D66" s="2">
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>72</v>
       </c>
@@ -4842,13 +5015,14 @@
         <v>0.44</v>
       </c>
       <c r="C67" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D67" s="2">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>96</v>
       </c>
@@ -4856,13 +5030,14 @@
         <v>0.27</v>
       </c>
       <c r="C68" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D68" s="2">
-        <v>1.81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>120</v>
       </c>
@@ -4870,13 +5045,14 @@
         <v>1.44</v>
       </c>
       <c r="C69" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D69" s="2">
-        <v>2.98</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>144</v>
       </c>
@@ -4884,27 +5060,27 @@
         <v>1.2</v>
       </c>
       <c r="C70" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D70" s="2">
-        <v>2.74</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B71" s="3">
         <f>AVERAGE(B65:B70)</f>
         <v>1.0166666666666668</v>
       </c>
-      <c r="C71" s="3">
-        <f>AVERAGE(C65:C70)</f>
-        <v>1.54</v>
-      </c>
-      <c r="D71" s="3">
-        <f>AVERAGE(D65:D70)</f>
-        <v>2.5566666666666671</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="C71" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>23</v>
       </c>
@@ -4912,13 +5088,14 @@
         <v>1.62</v>
       </c>
       <c r="C72" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D72" s="2">
-        <v>3.16</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>47</v>
       </c>
@@ -4926,13 +5103,14 @@
         <v>0.96</v>
       </c>
       <c r="C73" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D73" s="2">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>71</v>
       </c>
@@ -4940,13 +5118,14 @@
         <v>0.38</v>
       </c>
       <c r="C74" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D74" s="2">
-        <v>1.92</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>95</v>
       </c>
@@ -4954,13 +5133,14 @@
         <v>0.37</v>
       </c>
       <c r="C75" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D75" s="2">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>119</v>
       </c>
@@ -4968,13 +5148,14 @@
         <v>1.41</v>
       </c>
       <c r="C76" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D76" s="2">
-        <v>2.95</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>143</v>
       </c>
@@ -4982,27 +5163,27 @@
         <v>1.17</v>
       </c>
       <c r="C77" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D77" s="2">
-        <v>2.71</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B78" s="3">
         <f>AVERAGE(B72:B77)</f>
         <v>0.98499999999999999</v>
       </c>
-      <c r="C78" s="3">
-        <f>AVERAGE(C72:C77)</f>
-        <v>1.54</v>
-      </c>
-      <c r="D78" s="3">
-        <f>AVERAGE(D72:D77)</f>
-        <v>2.5250000000000004</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="C78" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D78" s="2">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>22</v>
       </c>
@@ -5010,13 +5191,14 @@
         <v>1.58</v>
       </c>
       <c r="C79" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D79" s="2">
-        <v>3.12</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>46</v>
       </c>
@@ -5024,13 +5206,14 @@
         <v>0.92</v>
       </c>
       <c r="C80" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D80" s="2">
-        <v>2.46</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>70</v>
       </c>
@@ -5038,13 +5221,14 @@
         <v>0.34</v>
       </c>
       <c r="C81" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D81" s="2">
-        <v>1.88</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>94</v>
       </c>
@@ -5052,13 +5236,14 @@
         <v>0.41</v>
       </c>
       <c r="C82" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D82" s="2">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>118</v>
       </c>
@@ -5066,13 +5251,14 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="C83" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D83" s="2">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>142</v>
       </c>
@@ -5080,27 +5266,27 @@
         <v>1.2</v>
       </c>
       <c r="C84" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D84" s="2">
-        <v>2.74</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B85" s="3">
         <f>AVERAGE(B79:B84)</f>
         <v>0.93500000000000005</v>
       </c>
-      <c r="C85" s="3">
-        <f>AVERAGE(C79:C84)</f>
-        <v>1.54</v>
-      </c>
-      <c r="D85" s="3">
-        <f>AVERAGE(D79:D84)</f>
-        <v>2.4750000000000001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="C85" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D85" s="2">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>21</v>
       </c>
@@ -5108,13 +5294,14 @@
         <v>1.54</v>
       </c>
       <c r="C86" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D86" s="2">
-        <v>3.08</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>45</v>
       </c>
@@ -5122,13 +5309,14 @@
         <v>0.88</v>
       </c>
       <c r="C87" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D87" s="2">
-        <v>2.42</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>69</v>
       </c>
@@ -5136,13 +5324,14 @@
         <v>0.34</v>
       </c>
       <c r="C88" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D88" s="2">
-        <v>1.88</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>93</v>
       </c>
@@ -5150,13 +5339,14 @@
         <v>0.42</v>
       </c>
       <c r="C89" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D89" s="2">
-        <v>1.96</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>117</v>
       </c>
@@ -5164,13 +5354,14 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="C90" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D90" s="2">
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>141</v>
       </c>
@@ -5178,27 +5369,27 @@
         <v>1.22</v>
       </c>
       <c r="C91" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D91" s="2">
-        <v>2.76</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B92" s="3">
         <f>AVERAGE(B86:B91)</f>
         <v>0.91833333333333333</v>
       </c>
-      <c r="C92" s="3">
-        <f t="shared" ref="C92:D92" si="10">AVERAGE(C86:C91)</f>
-        <v>1.54</v>
-      </c>
-      <c r="D92" s="3">
-        <f t="shared" si="10"/>
-        <v>2.4583333333333335</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="C92" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D92" s="2">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>20</v>
       </c>
@@ -5206,13 +5397,14 @@
         <v>1.51</v>
       </c>
       <c r="C93" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D93" s="2">
-        <v>3.05</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>44</v>
       </c>
@@ -5220,13 +5412,14 @@
         <v>0.81</v>
       </c>
       <c r="C94" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D94" s="2">
-        <v>2.35</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>68</v>
       </c>
@@ -5234,13 +5427,14 @@
         <v>0.3</v>
       </c>
       <c r="C95" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D95" s="2">
-        <v>1.84</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>92</v>
       </c>
@@ -5248,13 +5442,14 @@
         <v>0.41</v>
       </c>
       <c r="C96" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D96" s="2">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>116</v>
       </c>
@@ -5262,13 +5457,14 @@
         <v>1.06</v>
       </c>
       <c r="C97" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D97" s="2">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>140</v>
       </c>
@@ -5276,27 +5472,27 @@
         <v>1.35</v>
       </c>
       <c r="C98" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D98" s="2">
-        <v>2.89</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B99" s="3">
         <f>AVERAGE(B93:B98)</f>
         <v>0.90666666666666662</v>
       </c>
-      <c r="C99" s="3">
-        <f t="shared" ref="C99:D99" si="11">AVERAGE(C93:C98)</f>
-        <v>1.54</v>
-      </c>
-      <c r="D99" s="3">
-        <f t="shared" si="11"/>
-        <v>2.4466666666666668</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="C99" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D99" s="2">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>19</v>
       </c>
@@ -5304,13 +5500,14 @@
         <v>1.47</v>
       </c>
       <c r="C100" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D100" s="2">
-        <v>3.01</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>43</v>
       </c>
@@ -5318,13 +5515,14 @@
         <v>0.93</v>
       </c>
       <c r="C101" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D101" s="2">
-        <v>2.4700000000000002</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>67</v>
       </c>
@@ -5332,13 +5530,14 @@
         <v>0.51</v>
       </c>
       <c r="C102" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D102" s="2">
-        <v>2.0499999999999998</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>91</v>
       </c>
@@ -5346,13 +5545,14 @@
         <v>0.43</v>
       </c>
       <c r="C103" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D103" s="2">
-        <v>1.97</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>115</v>
       </c>
@@ -5360,13 +5560,14 @@
         <v>1.04</v>
       </c>
       <c r="C104" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D104" s="2">
-        <v>2.58</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>139</v>
       </c>
@@ -5374,27 +5575,27 @@
         <v>1.41</v>
       </c>
       <c r="C105" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D105" s="2">
-        <v>2.95</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B106" s="3">
         <f>AVERAGE(B100:B105)</f>
         <v>0.96500000000000019</v>
       </c>
-      <c r="C106" s="3">
-        <f t="shared" ref="C106:D106" si="12">AVERAGE(C100:C105)</f>
-        <v>1.54</v>
-      </c>
-      <c r="D106" s="3">
-        <f t="shared" si="12"/>
-        <v>2.5050000000000003</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+      <c r="C106" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D106" s="2">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>18</v>
       </c>
@@ -5402,13 +5603,14 @@
         <v>1.38</v>
       </c>
       <c r="C107" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D107" s="2">
-        <v>2.92</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>42</v>
       </c>
@@ -5416,13 +5618,14 @@
         <v>1.22</v>
       </c>
       <c r="C108" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D108" s="2">
-        <v>2.76</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>66</v>
       </c>
@@ -5430,13 +5633,14 @@
         <v>0.47</v>
       </c>
       <c r="C109" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D109" s="2">
-        <v>2.0099999999999998</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>90</v>
       </c>
@@ -5444,13 +5648,14 @@
         <v>0.5</v>
       </c>
       <c r="C110" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D110" s="2">
-        <v>2.04</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>114</v>
       </c>
@@ -5458,13 +5663,14 @@
         <v>1.04</v>
       </c>
       <c r="C111" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D111" s="2">
-        <v>2.58</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>138</v>
       </c>
@@ -5472,27 +5678,27 @@
         <v>1.48</v>
       </c>
       <c r="C112" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D112" s="2">
-        <v>3.02</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B113" s="3">
         <f>AVERAGE(B107:B112)</f>
         <v>1.0149999999999999</v>
       </c>
-      <c r="C113" s="3">
-        <f t="shared" ref="C113:D113" si="13">AVERAGE(C107:C112)</f>
-        <v>1.54</v>
-      </c>
-      <c r="D113" s="3">
-        <f t="shared" si="13"/>
-        <v>2.5550000000000002</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+      <c r="C113" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D113" s="2">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>17</v>
       </c>
@@ -5500,13 +5706,14 @@
         <v>1.4</v>
       </c>
       <c r="C114" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D114" s="2">
-        <v>2.94</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>41</v>
       </c>
@@ -5514,13 +5721,14 @@
         <v>1.38</v>
       </c>
       <c r="C115" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D115" s="2">
-        <v>2.92</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>65</v>
       </c>
@@ -5528,13 +5736,14 @@
         <v>0.52</v>
       </c>
       <c r="C116" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D116" s="2">
-        <v>2.06</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>89</v>
       </c>
@@ -5542,13 +5751,14 @@
         <v>0.52</v>
       </c>
       <c r="C117" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D117" s="2">
-        <v>2.06</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>113</v>
       </c>
@@ -5556,13 +5766,14 @@
         <v>1.05</v>
       </c>
       <c r="C118" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D118" s="2">
-        <v>2.59</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>137</v>
       </c>
@@ -5570,27 +5781,27 @@
         <v>1.53</v>
       </c>
       <c r="C119" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D119" s="2">
-        <v>3.07</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B120" s="3">
         <f>AVERAGE(B114:B119)</f>
         <v>1.0666666666666667</v>
       </c>
-      <c r="C120" s="3">
-        <f t="shared" ref="C120:D120" si="14">AVERAGE(C114:C119)</f>
-        <v>1.54</v>
-      </c>
-      <c r="D120" s="3">
-        <f t="shared" si="14"/>
-        <v>2.6066666666666669</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+      <c r="C120" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D120" s="2">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>16</v>
       </c>
@@ -5598,13 +5809,14 @@
         <v>1.48</v>
       </c>
       <c r="C121" s="2">
-        <v>2.4</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D121" s="2">
-        <v>3.88</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>40</v>
       </c>
@@ -5612,13 +5824,14 @@
         <v>1.64</v>
       </c>
       <c r="C122" s="2">
-        <v>2.4</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D122" s="2">
-        <v>4.04</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>64</v>
       </c>
@@ -5626,13 +5839,14 @@
         <v>0.53</v>
       </c>
       <c r="C123" s="2">
-        <v>2.4</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D123" s="2">
-        <v>2.93</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>88</v>
       </c>
@@ -5640,13 +5854,14 @@
         <v>0.6</v>
       </c>
       <c r="C124" s="2">
-        <v>2.4</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D124" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>112</v>
       </c>
@@ -5654,13 +5869,14 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="C125" s="2">
-        <v>2.4</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D125" s="2">
-        <v>3.49</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>136</v>
       </c>
@@ -5668,27 +5884,27 @@
         <v>1.61</v>
       </c>
       <c r="C126" s="2">
-        <v>2.4</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D126" s="2">
-        <v>4.01</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B127" s="3">
         <f>AVERAGE(B121:B126)</f>
         <v>1.1583333333333334</v>
       </c>
-      <c r="C127" s="3">
-        <f t="shared" ref="C127:D127" si="15">AVERAGE(C121:C126)</f>
-        <v>2.4</v>
-      </c>
-      <c r="D127" s="3">
-        <f t="shared" si="15"/>
-        <v>3.5583333333333336</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+      <c r="C127" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D127" s="2">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>15</v>
       </c>
@@ -5696,13 +5912,14 @@
         <v>1.4</v>
       </c>
       <c r="C128" s="2">
-        <v>2.4</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D128" s="2">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>39</v>
       </c>
@@ -5710,13 +5927,14 @@
         <v>1.67</v>
       </c>
       <c r="C129" s="2">
-        <v>2.4</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D129" s="2">
-        <v>4.07</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>63</v>
       </c>
@@ -5724,13 +5942,14 @@
         <v>0.52</v>
       </c>
       <c r="C130" s="2">
-        <v>2.4</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D130" s="2">
-        <v>2.92</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>87</v>
       </c>
@@ -5738,13 +5957,14 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="C131" s="2">
-        <v>2.4</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D131" s="2">
-        <v>2.98</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>111</v>
       </c>
@@ -5752,13 +5972,14 @@
         <v>0.87</v>
       </c>
       <c r="C132" s="2">
-        <v>2.4</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D132" s="2">
-        <v>3.27</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>135</v>
       </c>
@@ -5766,27 +5987,27 @@
         <v>1.6</v>
       </c>
       <c r="C133" s="2">
-        <v>2.4</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D133" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B134" s="3">
         <f>AVERAGE(B128:B133)</f>
         <v>1.1066666666666667</v>
       </c>
-      <c r="C134" s="3">
-        <f t="shared" ref="C134:D134" si="16">AVERAGE(C128:C133)</f>
-        <v>2.4</v>
-      </c>
-      <c r="D134" s="3">
-        <f t="shared" si="16"/>
-        <v>3.5066666666666664</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
+      <c r="C134" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D134" s="2">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>14</v>
       </c>
@@ -5794,13 +6015,14 @@
         <v>1.33</v>
       </c>
       <c r="C135" s="2">
-        <v>2.4</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D135" s="2">
-        <v>3.73</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>38</v>
       </c>
@@ -5808,13 +6030,14 @@
         <v>1.57</v>
       </c>
       <c r="C136" s="2">
-        <v>2.4</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D136" s="2">
-        <v>3.97</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>62</v>
       </c>
@@ -5822,13 +6045,14 @@
         <v>0.51</v>
       </c>
       <c r="C137" s="2">
-        <v>2.4</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D137" s="2">
-        <v>2.91</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>86</v>
       </c>
@@ -5836,13 +6060,14 @@
         <v>0.53</v>
       </c>
       <c r="C138" s="2">
-        <v>2.4</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D138" s="2">
-        <v>2.93</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>110</v>
       </c>
@@ -5850,13 +6075,14 @@
         <v>0.53</v>
       </c>
       <c r="C139" s="2">
-        <v>2.4</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D139" s="2">
-        <v>2.93</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>134</v>
       </c>
@@ -5864,27 +6090,27 @@
         <v>1.54</v>
       </c>
       <c r="C140" s="2">
-        <v>2.4</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D140" s="2">
-        <v>3.94</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B141" s="3">
         <f>AVERAGE(B135:B140)</f>
         <v>1.0016666666666667</v>
       </c>
-      <c r="C141" s="3">
-        <f t="shared" ref="C141:D141" si="17">AVERAGE(C135:C140)</f>
-        <v>2.4</v>
-      </c>
-      <c r="D141" s="3">
-        <f t="shared" si="17"/>
-        <v>3.4016666666666668</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
+      <c r="C141" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D141" s="2">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>13</v>
       </c>
@@ -5892,13 +6118,14 @@
         <v>1.25</v>
       </c>
       <c r="C142" s="2">
-        <v>2.4</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D142" s="2">
-        <v>3.65</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>37</v>
       </c>
@@ -5906,13 +6133,14 @@
         <v>1.35</v>
       </c>
       <c r="C143" s="2">
-        <v>2.4</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D143" s="2">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>61</v>
       </c>
@@ -5920,13 +6148,14 @@
         <v>0.5</v>
       </c>
       <c r="C144" s="2">
-        <v>2.4</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D144" s="2">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
         <v>85</v>
       </c>
@@ -5934,13 +6163,14 @@
         <v>0.5</v>
       </c>
       <c r="C145" s="2">
-        <v>2.4</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D145" s="2">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>109</v>
       </c>
@@ -5948,13 +6178,14 @@
         <v>0.53</v>
       </c>
       <c r="C146" s="2">
-        <v>2.4</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D146" s="2">
-        <v>2.93</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
         <v>133</v>
       </c>
@@ -5962,27 +6193,27 @@
         <v>1.45</v>
       </c>
       <c r="C147" s="2">
-        <v>2.4</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D147" s="2">
-        <v>3.85</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B148" s="3">
         <f>AVERAGE(B142:B147)</f>
         <v>0.93</v>
       </c>
-      <c r="C148" s="3">
-        <f t="shared" ref="C148:D148" si="18">AVERAGE(C142:C147)</f>
-        <v>2.4</v>
-      </c>
-      <c r="D148" s="3">
-        <f t="shared" si="18"/>
-        <v>3.3300000000000005</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
+      <c r="C148" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D148" s="2">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>36</v>
       </c>
@@ -5990,13 +6221,14 @@
         <v>1.26</v>
       </c>
       <c r="C149" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D149" s="2">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
         <v>60</v>
       </c>
@@ -6004,13 +6236,14 @@
         <v>0.49</v>
       </c>
       <c r="C150" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D150" s="2">
-        <v>2.0299999999999998</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
         <v>84</v>
       </c>
@@ -6018,13 +6251,14 @@
         <v>0.52</v>
       </c>
       <c r="C151" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D151" s="2">
-        <v>2.06</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>108</v>
       </c>
@@ -6032,13 +6266,14 @@
         <v>0.46</v>
       </c>
       <c r="C152" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D152" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
         <v>132</v>
       </c>
@@ -6046,27 +6281,27 @@
         <v>1.37</v>
       </c>
       <c r="C153" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D153" s="2">
-        <v>2.91</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B154" s="3">
         <f>AVERAGE(B149:B153)</f>
         <v>0.82</v>
       </c>
-      <c r="C154" s="3">
-        <f t="shared" ref="C154:D154" si="19">AVERAGE(C149:C153)</f>
-        <v>1.54</v>
-      </c>
-      <c r="D154" s="3">
-        <f t="shared" si="19"/>
-        <v>2.3600000000000003</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
+      <c r="C154" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D154" s="2">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
         <v>11</v>
       </c>
@@ -6074,13 +6309,14 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="C155" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D155" s="2">
-        <v>2.68</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
         <v>35</v>
       </c>
@@ -6088,13 +6324,14 @@
         <v>1.25</v>
       </c>
       <c r="C156" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D156" s="2">
-        <v>2.79</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
         <v>59</v>
       </c>
@@ -6102,13 +6339,14 @@
         <v>0.45</v>
       </c>
       <c r="C157" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D157" s="2">
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>83</v>
       </c>
@@ -6116,13 +6354,14 @@
         <v>0.47</v>
       </c>
       <c r="C158" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D158" s="2">
-        <v>2.0099999999999998</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
         <v>107</v>
       </c>
@@ -6130,13 +6369,14 @@
         <v>0.31</v>
       </c>
       <c r="C159" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D159" s="2">
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
         <v>131</v>
       </c>
@@ -6144,27 +6384,27 @@
         <v>1.3</v>
       </c>
       <c r="C160" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D160" s="2">
-        <v>2.84</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B161" s="3">
         <f>AVERAGE(B155:B160)</f>
         <v>0.82</v>
       </c>
-      <c r="C161" s="3">
-        <f t="shared" ref="C161:D161" si="20">AVERAGE(C155:C160)</f>
-        <v>1.54</v>
-      </c>
-      <c r="D161" s="3">
-        <f t="shared" si="20"/>
-        <v>2.36</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
+      <c r="C161" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D161" s="2">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>10</v>
       </c>
@@ -6172,13 +6412,14 @@
         <v>1</v>
       </c>
       <c r="C162" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D162" s="2">
-        <v>2.54</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
         <v>34</v>
       </c>
@@ -6186,13 +6427,14 @@
         <v>1.17</v>
       </c>
       <c r="C163" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D163" s="2">
-        <v>2.71</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
         <v>58</v>
       </c>
@@ -6200,13 +6442,14 @@
         <v>0.38</v>
       </c>
       <c r="C164" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D164" s="2">
-        <v>1.92</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
         <v>82</v>
       </c>
@@ -6214,13 +6457,14 @@
         <v>0.41</v>
       </c>
       <c r="C165" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D165" s="2">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
         <v>106</v>
       </c>
@@ -6228,13 +6472,14 @@
         <v>0.27</v>
       </c>
       <c r="C166" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D166" s="2">
-        <v>1.81</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
         <v>130</v>
       </c>
@@ -6242,24 +6487,25 @@
         <v>1.21</v>
       </c>
       <c r="C167" s="2">
-        <v>1.54</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D167" s="2">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B168" s="3">
         <f>AVERAGE(B162:B167)</f>
         <v>0.73999999999999988</v>
       </c>
       <c r="C168" s="3">
-        <f t="shared" ref="C168:D168" si="21">AVERAGE(C162:C167)</f>
-        <v>1.54</v>
+        <f t="shared" ref="C168:D168" si="2">AVERAGE(C162:C167)</f>
+        <v>0</v>
       </c>
       <c r="D168" s="3">
-        <f t="shared" si="21"/>
-        <v>2.2799999999999998</v>
+        <f t="shared" si="2"/>
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>
@@ -6271,18 +6517,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6430,13 +6676,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{540BE6A0-27F9-419F-8224-019FE94C5CBE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B71B140-D529-43D3-80C5-DF1F266F3D83}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B71B140-D529-43D3-80C5-DF1F266F3D83}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{540BE6A0-27F9-419F-8224-019FE94C5CBE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80DA1591-5D0E-493F-827A-BF7F96FE3311}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80DA1591-5D0E-493F-827A-BF7F96FE3311}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="59a1f2c9-9aa0-4700-bb29-973d29195b9e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Load dataset.xlsx
+++ b/Load dataset.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28317"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="365" documentId="11_5A440047DFECBC58903F4DEA860302072BED40F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38FD0E2D-5D79-414D-A2EA-3CCE25AC7D9C}"/>
+  <xr:revisionPtr revIDLastSave="384" documentId="11_5A440047DFECBC58903F4DEA860302072BED40F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5080DC3-7F96-4F99-9314-3B1F5E7FB518}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Load profile" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="160">
   <si>
     <t>Hour</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data from (november 18th 2024): </t>
+  </si>
+  <si>
+    <t>https://andelenergi.dk/el/timeenergi/</t>
   </si>
   <si>
     <t>19.11.2024 - 23:00</t>
@@ -570,17 +576,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1350,7 +1355,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1564,8 +1569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711E96C0-72E0-40D0-B5C5-2356C5C3C468}">
   <dimension ref="A1:M151"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1574,6 +1579,7 @@
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1589,15 +1595,19 @@
       <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="M1" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -1611,7 +1621,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2">
         <v>1.1399999999999999</v>
@@ -1625,7 +1635,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2">
         <v>1.18</v>
@@ -1639,7 +1649,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2">
         <v>1.25</v>
@@ -1653,7 +1663,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2">
         <v>1.33</v>
@@ -1667,7 +1677,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2">
         <v>1.4</v>
@@ -1681,7 +1691,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2">
         <v>1.48</v>
@@ -1695,7 +1705,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2">
         <v>1.4</v>
@@ -1709,7 +1719,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2">
         <v>1.38</v>
@@ -1723,7 +1733,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2">
         <v>1.47</v>
@@ -1737,7 +1747,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2">
         <v>1.51</v>
@@ -1751,7 +1761,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2">
         <v>1.54</v>
@@ -1765,7 +1775,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2">
         <v>1.58</v>
@@ -1779,7 +1789,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2">
         <v>1.62</v>
@@ -1793,7 +1803,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2">
         <v>1.64</v>
@@ -1807,7 +1817,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2">
         <v>1.62</v>
@@ -1821,7 +1831,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2">
         <v>1.42</v>
@@ -1835,7 +1845,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2">
         <v>1.26</v>
@@ -1849,7 +1859,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2">
         <v>1.05</v>
@@ -1863,7 +1873,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2">
         <v>1.05</v>
@@ -1877,7 +1887,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2">
         <v>1.01</v>
@@ -1891,7 +1901,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2">
         <v>1.05</v>
@@ -1905,7 +1915,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2">
         <v>1.1000000000000001</v>
@@ -1919,7 +1929,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2">
         <v>1.1599999999999999</v>
@@ -1933,7 +1943,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B26" s="2">
         <v>1.17</v>
@@ -1947,7 +1957,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2">
         <v>1.25</v>
@@ -1961,7 +1971,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2">
         <v>1.26</v>
@@ -1975,7 +1985,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2">
         <v>1.35</v>
@@ -1989,7 +1999,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2">
         <v>1.57</v>
@@ -2003,7 +2013,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2">
         <v>1.67</v>
@@ -2017,7 +2027,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B32" s="2">
         <v>1.64</v>
@@ -2031,7 +2041,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B33" s="2">
         <v>1.38</v>
@@ -2045,7 +2055,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B34" s="2">
         <v>1.22</v>
@@ -2059,7 +2069,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B35" s="2">
         <v>0.93</v>
@@ -2073,7 +2083,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B36" s="2">
         <v>0.81</v>
@@ -2087,7 +2097,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B37" s="2">
         <v>0.88</v>
@@ -2101,7 +2111,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B38" s="2">
         <v>0.92</v>
@@ -2115,7 +2125,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B39" s="2">
         <v>0.96</v>
@@ -2129,7 +2139,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B40" s="2">
         <v>1.1100000000000001</v>
@@ -2143,7 +2153,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B41" s="2">
         <v>1.26</v>
@@ -2157,7 +2167,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B42" s="2">
         <v>1.0900000000000001</v>
@@ -2171,7 +2181,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B43" s="2">
         <v>0.74</v>
@@ -2185,7 +2195,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B44" s="2">
         <v>0.44</v>
@@ -2199,7 +2209,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B45" s="2">
         <v>0.4</v>
@@ -2213,7 +2223,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B46" s="2">
         <v>0.28999999999999998</v>
@@ -2227,7 +2237,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B47" s="2">
         <v>0.28999999999999998</v>
@@ -2241,7 +2251,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B48" s="2">
         <v>0.28000000000000003</v>
@@ -2255,7 +2265,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B49" s="2">
         <v>0.28000000000000003</v>
@@ -2269,7 +2279,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B50" s="2">
         <v>0.38</v>
@@ -2283,7 +2293,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B51" s="2">
         <v>0.45</v>
@@ -2297,7 +2307,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B52" s="2">
         <v>0.49</v>
@@ -2311,7 +2321,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B53" s="2">
         <v>0.5</v>
@@ -2325,7 +2335,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B54" s="2">
         <v>0.51</v>
@@ -2339,7 +2349,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B55" s="2">
         <v>0.52</v>
@@ -2353,7 +2363,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B56" s="2">
         <v>0.53</v>
@@ -2367,7 +2377,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B57" s="2">
         <v>0.52</v>
@@ -2381,7 +2391,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B58" s="2">
         <v>0.47</v>
@@ -2395,7 +2405,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B59" s="2">
         <v>0.51</v>
@@ -2409,7 +2419,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B60" s="2">
         <v>0.3</v>
@@ -2423,7 +2433,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B61" s="2">
         <v>0.34</v>
@@ -2437,7 +2447,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B62" s="2">
         <v>0.34</v>
@@ -2451,7 +2461,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B63" s="2">
         <v>0.38</v>
@@ -2465,7 +2475,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B64" s="2">
         <v>0.44</v>
@@ -2479,7 +2489,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B65" s="2">
         <v>0.43</v>
@@ -2493,7 +2503,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B66" s="2">
         <v>0.45</v>
@@ -2507,7 +2517,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B67" s="2">
         <v>0.41</v>
@@ -2521,7 +2531,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B68" s="2">
         <v>0.35</v>
@@ -2535,7 +2545,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B69" s="2">
         <v>0.39</v>
@@ -2549,7 +2559,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B70" s="2">
         <v>0.43</v>
@@ -2563,7 +2573,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B71" s="2">
         <v>0.44</v>
@@ -2577,7 +2587,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B72" s="2">
         <v>0.37</v>
@@ -2591,7 +2601,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B73" s="2">
         <v>0.31</v>
@@ -2605,7 +2615,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B74" s="2">
         <v>0.41</v>
@@ -2619,7 +2629,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B75" s="2">
         <v>0.47</v>
@@ -2633,7 +2643,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B76" s="2">
         <v>0.52</v>
@@ -2647,7 +2657,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B77" s="2">
         <v>0.5</v>
@@ -2661,7 +2671,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B78" s="2">
         <v>0.53</v>
@@ -2675,7 +2685,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B79" s="2">
         <v>0.57999999999999996</v>
@@ -2689,7 +2699,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B80" s="2">
         <v>0.6</v>
@@ -2703,7 +2713,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B81" s="2">
         <v>0.52</v>
@@ -2717,7 +2727,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B82" s="2">
         <v>0.5</v>
@@ -2731,7 +2741,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B83" s="2">
         <v>0.43</v>
@@ -2745,7 +2755,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B84" s="2">
         <v>0.41</v>
@@ -2759,7 +2769,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B85" s="2">
         <v>0.42</v>
@@ -2773,7 +2783,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B86" s="2">
         <v>0.41</v>
@@ -2787,7 +2797,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B87" s="2">
         <v>0.37</v>
@@ -2801,7 +2811,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B88" s="2">
         <v>0.27</v>
@@ -2815,7 +2825,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B89" s="2">
         <v>0.26</v>
@@ -2829,7 +2839,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B90" s="2">
         <v>0.19</v>
@@ -2843,7 +2853,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B91" s="2">
         <v>0.19</v>
@@ -2857,7 +2867,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B92" s="2">
         <v>0.19</v>
@@ -2871,7 +2881,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B93" s="2">
         <v>0.19</v>
@@ -2885,7 +2895,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B94" s="2">
         <v>0.19</v>
@@ -2899,7 +2909,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B95" s="2">
         <v>0.19</v>
@@ -2913,7 +2923,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B96" s="2">
         <v>0.25</v>
@@ -2927,7 +2937,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B97" s="2">
         <v>0.27</v>
@@ -2941,7 +2951,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B98" s="2">
         <v>0.27</v>
@@ -2955,7 +2965,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B99" s="2">
         <v>0.31</v>
@@ -2969,7 +2979,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B100" s="2">
         <v>0.46</v>
@@ -2983,7 +2993,7 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B101" s="2">
         <v>0.53</v>
@@ -2997,7 +3007,7 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B102" s="2">
         <v>0.53</v>
@@ -3011,7 +3021,7 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B103" s="2">
         <v>0.87</v>
@@ -3025,7 +3035,7 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B104" s="2">
         <v>1.0900000000000001</v>
@@ -3039,7 +3049,7 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B105" s="2">
         <v>1.05</v>
@@ -3053,7 +3063,7 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B106" s="2">
         <v>1.04</v>
@@ -3067,7 +3077,7 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B107" s="2">
         <v>1.04</v>
@@ -3081,7 +3091,7 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B108" s="2">
         <v>1.06</v>
@@ -3095,7 +3105,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B109" s="2">
         <v>1.1100000000000001</v>
@@ -3109,7 +3119,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B110" s="2">
         <v>1.1599999999999999</v>
@@ -3123,7 +3133,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B111" s="2">
         <v>1.41</v>
@@ -3137,7 +3147,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B112" s="2">
         <v>1.44</v>
@@ -3151,7 +3161,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B113" s="2">
         <v>1.53</v>
@@ -3165,7 +3175,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B114" s="2">
         <v>1.35</v>
@@ -3179,7 +3189,7 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B115" s="2">
         <v>1.04</v>
@@ -3193,7 +3203,7 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B116" s="2">
         <v>0.99</v>
@@ -3207,7 +3217,7 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B117" s="2">
         <v>0.99</v>
@@ -3221,7 +3231,7 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B118" s="2">
         <v>1.0900000000000001</v>
@@ -3235,7 +3245,7 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B119" s="2">
         <v>1.0900000000000001</v>
@@ -3249,7 +3259,7 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B120" s="2">
         <v>1.1100000000000001</v>
@@ -3263,7 +3273,7 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B121" s="2">
         <v>1.1299999999999999</v>
@@ -3277,7 +3287,7 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B122" s="2">
         <v>1.21</v>
@@ -3291,7 +3301,7 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B123" s="2">
         <v>1.3</v>
@@ -3305,7 +3315,7 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B124" s="2">
         <v>1.37</v>
@@ -3319,7 +3329,7 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B125" s="2">
         <v>1.45</v>
@@ -3333,7 +3343,7 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B126" s="2">
         <v>1.54</v>
@@ -3347,7 +3357,7 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B127" s="2">
         <v>1.6</v>
@@ -3361,7 +3371,7 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B128" s="2">
         <v>1.61</v>
@@ -3375,7 +3385,7 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B129" s="2">
         <v>1.53</v>
@@ -3389,7 +3399,7 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B130" s="2">
         <v>1.48</v>
@@ -3403,7 +3413,7 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B131" s="2">
         <v>1.41</v>
@@ -3417,7 +3427,7 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B132" s="2">
         <v>1.35</v>
@@ -3431,7 +3441,7 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B133" s="2">
         <v>1.22</v>
@@ -3445,7 +3455,7 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B134" s="2">
         <v>1.2</v>
@@ -3459,7 +3469,7 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B135" s="2">
         <v>1.17</v>
@@ -3473,7 +3483,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B136" s="2">
         <v>1.2</v>
@@ -3487,7 +3497,7 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B137" s="2">
         <v>1.25</v>
@@ -3501,7 +3511,7 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B138" s="2">
         <v>1.1000000000000001</v>
@@ -3515,7 +3525,7 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B139" s="2">
         <v>0.92</v>
@@ -3529,7 +3539,7 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B140" s="2">
         <v>0.63</v>
@@ -3543,7 +3553,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B141" s="2">
         <v>0.56000000000000005</v>
@@ -3557,7 +3567,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B142" s="2">
         <v>0.62</v>
@@ -3571,7 +3581,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B143" s="2">
         <v>0.61</v>
@@ -3585,7 +3595,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B144" s="2">
         <v>0.61</v>
@@ -3599,7 +3609,7 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B145" s="2">
         <v>0.64</v>
@@ -3643,6 +3653,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D145" xr:uid="{711E96C0-72E0-40D0-B5C5-2356C5C3C468}"/>
+  <hyperlinks>
+    <hyperlink ref="H1" r:id="rId1" xr:uid="{B7E78482-F2B8-495B-B18E-FCD1220C6932}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3652,7 +3665,7 @@
   <dimension ref="A2:L168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3676,41 +3689,41 @@
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J2">
         <v>0.14169615999999999</v>
       </c>
       <c r="K2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2">
         <v>1.1599999999999999</v>
       </c>
       <c r="C3" s="2">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
         <v>2.41</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>156</v>
+      <c r="J3" s="4" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2">
         <v>0.28000000000000003</v>
       </c>
       <c r="C4" s="2">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2">
         <v>1.53</v>
@@ -3718,13 +3731,13 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B5" s="2">
         <v>0.31</v>
       </c>
       <c r="C5" s="2">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
         <v>1.56</v>
@@ -3733,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K5" t="s">
         <v>5</v>
@@ -3742,13 +3755,13 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2">
         <v>0.27</v>
       </c>
       <c r="C6" s="2">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2">
         <v>1.52</v>
@@ -3757,22 +3770,23 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.8699999999999999</v>
+        <f>B9</f>
+        <v>0.63166666666666671</v>
       </c>
       <c r="K6">
         <f>J6*$J$2/1000</f>
-        <v>2.6497181919999996E-4</v>
+        <v>8.9504741066666666E-5</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B7" s="2">
         <v>1.1299999999999999</v>
       </c>
       <c r="C7" s="2">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2">
         <v>2.38</v>
@@ -3780,23 +3794,24 @@
       <c r="I7">
         <v>2</v>
       </c>
-      <c r="J7" s="4">
-        <v>1.8616666666666664</v>
+      <c r="J7">
+        <f>B16</f>
+        <v>0.62</v>
       </c>
       <c r="K7">
         <f t="shared" ref="K7:K29" si="0">J7*$J$2/1000</f>
-        <v>2.6379101786666657E-4</v>
+        <v>8.7851619199999999E-5</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B8" s="2">
         <v>0.64</v>
       </c>
       <c r="C8" s="2">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2">
         <v>1.89</v>
@@ -3805,11 +3820,12 @@
         <v>3</v>
       </c>
       <c r="J8">
-        <v>1.8549999999999998</v>
+        <f>B23</f>
+        <v>0.61166666666666669</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>2.6284637679999996E-4</v>
+        <v>8.6670817866666666E-5</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -3817,34 +3833,34 @@
         <f>AVERAGE(B3:B8)</f>
         <v>0.63166666666666671</v>
       </c>
-      <c r="C9" s="3">
-        <f t="shared" ref="C9:D9" si="1">AVERAGE(C3:C8)</f>
-        <v>1.25</v>
+      <c r="C9" s="2">
+        <v>0</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C9:D9" si="1">AVERAGE(D3:D8)</f>
         <v>1.8816666666666666</v>
       </c>
       <c r="I9">
         <v>4</v>
       </c>
       <c r="J9">
-        <v>1.7560000000000002</v>
+        <f>B30</f>
+        <v>0.60499999999999998</v>
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>2.4881845695999999E-4</v>
+        <v>8.5726176799999986E-5</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B10" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="C10" s="2">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2">
         <v>2.35</v>
@@ -3862,13 +3878,13 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B11" s="2">
         <v>0.28000000000000003</v>
       </c>
       <c r="C11" s="2">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2">
         <v>1.53</v>
@@ -3886,13 +3902,13 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B12" s="2">
         <v>0.37</v>
       </c>
       <c r="C12" s="2">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2">
         <v>1.62</v>
@@ -3910,13 +3926,13 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B13" s="2">
         <v>0.25</v>
       </c>
       <c r="C13" s="2">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2">
         <v>1.5</v>
@@ -3934,13 +3950,13 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B14" s="2">
         <v>1.1100000000000001</v>
       </c>
       <c r="C14" s="2">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2">
         <v>2.36</v>
@@ -3958,13 +3974,13 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B15" s="2">
         <v>0.61</v>
       </c>
       <c r="C15" s="2">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2">
         <v>1.86</v>
@@ -3985,12 +4001,11 @@
         <f>AVERAGE(B10:B15)</f>
         <v>0.62</v>
       </c>
-      <c r="C16" s="3">
-        <f t="shared" ref="C16:D16" si="2">AVERAGE(C10:C15)</f>
-        <v>1.25</v>
+      <c r="C16" s="2">
+        <v>0</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="C16:D16" si="2">AVERAGE(D10:D15)</f>
         <v>1.8699999999999999</v>
       </c>
       <c r="I16">
@@ -4006,13 +4021,13 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2">
         <v>1.05</v>
       </c>
       <c r="C17" s="2">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2">
         <v>2.2999999999999998</v>
@@ -4030,13 +4045,13 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18" s="2">
         <v>0.28999999999999998</v>
       </c>
       <c r="C18" s="2">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="D18" s="2">
         <v>1.54</v>
@@ -4054,13 +4069,13 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B19" s="2">
         <v>0.44</v>
       </c>
       <c r="C19" s="2">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="D19" s="2">
         <v>1.69</v>
@@ -4078,13 +4093,13 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B20" s="2">
         <v>0.19</v>
       </c>
       <c r="C20" s="2">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="D20" s="2">
         <v>1.44</v>
@@ -4102,13 +4117,13 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B21" s="2">
         <v>1.0900000000000001</v>
       </c>
       <c r="C21" s="2">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="D21" s="2">
         <v>2.34</v>
@@ -4126,13 +4141,13 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B22" s="2">
         <v>0.61</v>
       </c>
       <c r="C22" s="2">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="D22" s="2">
         <v>1.86</v>
@@ -4153,12 +4168,11 @@
         <f>AVERAGE(B17:B22)</f>
         <v>0.61166666666666669</v>
       </c>
-      <c r="C23" s="3">
-        <f t="shared" ref="C23:D23" si="3">AVERAGE(C17:C22)</f>
-        <v>1.25</v>
+      <c r="C23" s="2">
+        <v>0</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="C23:D23" si="3">AVERAGE(D17:D22)</f>
         <v>1.8616666666666664</v>
       </c>
       <c r="I23">
@@ -4174,13 +4188,13 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B24" s="2">
         <v>1.01</v>
       </c>
       <c r="C24" s="2">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="D24" s="2">
         <v>2.2599999999999998</v>
@@ -4198,13 +4212,13 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B25" s="2">
         <v>0.28999999999999998</v>
       </c>
       <c r="C25" s="2">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="D25" s="2">
         <v>1.54</v>
@@ -4222,13 +4236,13 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B26" s="2">
         <v>0.43</v>
       </c>
       <c r="C26" s="2">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="D26" s="2">
         <v>1.68</v>
@@ -4246,13 +4260,13 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B27" s="2">
         <v>0.19</v>
       </c>
       <c r="C27" s="2">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="D27" s="2">
         <v>1.44</v>
@@ -4270,13 +4284,13 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B28" s="2">
         <v>1.0900000000000001</v>
       </c>
       <c r="C28" s="2">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="D28" s="2">
         <v>2.34</v>
@@ -4294,13 +4308,13 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B29" s="2">
         <v>0.62</v>
       </c>
       <c r="C29" s="2">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="D29" s="2">
         <v>1.87</v>
@@ -4321,24 +4335,23 @@
         <f>AVERAGE(B24:B29)</f>
         <v>0.60499999999999998</v>
       </c>
-      <c r="C30" s="3">
-        <f t="shared" ref="C30:D30" si="4">AVERAGE(C24:C29)</f>
-        <v>1.25</v>
+      <c r="C30" s="2">
+        <v>0</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="C30:D30" si="4">AVERAGE(D24:D29)</f>
         <v>1.8549999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B31" s="2">
         <v>0.4</v>
       </c>
       <c r="C31" s="2">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="D31" s="2">
         <v>1.65</v>
@@ -4346,13 +4359,13 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B32" s="2">
         <v>0.39</v>
       </c>
       <c r="C32" s="2">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="D32" s="2">
         <v>1.64</v>
@@ -4360,13 +4373,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B33" s="2">
         <v>0.19</v>
       </c>
       <c r="C33" s="2">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="D33" s="2">
         <v>1.44</v>
@@ -4374,13 +4387,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B34" s="2">
         <v>0.99</v>
       </c>
       <c r="C34" s="2">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="D34" s="2">
         <v>2.2400000000000002</v>
@@ -4388,13 +4401,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B35" s="2">
         <v>0.56000000000000005</v>
       </c>
       <c r="C35" s="2">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="D35" s="2">
         <v>1.81</v>
@@ -4405,24 +4418,23 @@
         <f>AVERAGE(B31:B35)</f>
         <v>0.50600000000000001</v>
       </c>
-      <c r="C36" s="3">
-        <f t="shared" ref="C36:D36" si="5">AVERAGE(C31:C35)</f>
-        <v>1.25</v>
+      <c r="C36" s="2">
+        <v>0</v>
       </c>
       <c r="D36" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="C36:D36" si="5">AVERAGE(D31:D35)</f>
         <v>1.7560000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B37" s="2">
         <v>1.05</v>
       </c>
       <c r="C37" s="2">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="D37" s="2">
         <v>2.2999999999999998</v>
@@ -4430,13 +4442,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B38" s="2">
         <v>0.44</v>
       </c>
       <c r="C38" s="2">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="D38" s="2">
         <v>1.69</v>
@@ -4444,13 +4456,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B39" s="2">
         <v>0.35</v>
       </c>
       <c r="C39" s="2">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="D39" s="2">
         <v>1.6</v>
@@ -4458,13 +4470,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B40" s="2">
         <v>0.19</v>
       </c>
       <c r="C40" s="2">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="D40" s="2">
         <v>1.44</v>
@@ -4472,13 +4484,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B41" s="2">
         <v>0.99</v>
       </c>
       <c r="C41" s="2">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="D41" s="2">
         <v>2.2400000000000002</v>
@@ -4486,13 +4498,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B42" s="2">
         <v>0.63</v>
       </c>
       <c r="C42" s="2">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="D42" s="2">
         <v>1.88</v>
@@ -4503,24 +4515,23 @@
         <f>AVERAGE(B37:B42)</f>
         <v>0.60833333333333328</v>
       </c>
-      <c r="C43" s="3">
-        <f t="shared" ref="C43:D43" si="6">AVERAGE(C37:C42)</f>
-        <v>1.25</v>
+      <c r="C43" s="2">
+        <v>0</v>
       </c>
       <c r="D43" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="C43:D43" si="6">AVERAGE(D37:D42)</f>
         <v>1.8583333333333332</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B44" s="2">
         <v>1.26</v>
       </c>
       <c r="C44" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D44" s="2">
         <v>2.8</v>
@@ -4528,13 +4539,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B45" s="2">
         <v>0.74</v>
       </c>
       <c r="C45" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D45" s="2">
         <v>2.2799999999999998</v>
@@ -4542,13 +4553,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B46" s="2">
         <v>0.41</v>
       </c>
       <c r="C46" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D46" s="2">
         <v>1.95</v>
@@ -4556,13 +4567,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B47" s="2">
         <v>0.19</v>
       </c>
       <c r="C47" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D47" s="2">
         <v>1.73</v>
@@ -4570,13 +4581,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B48" s="2">
         <v>1.04</v>
       </c>
       <c r="C48" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D48" s="2">
         <v>2.58</v>
@@ -4584,13 +4595,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B49" s="2">
         <v>0.92</v>
       </c>
       <c r="C49" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D49" s="2">
         <v>2.46</v>
@@ -4601,24 +4612,23 @@
         <f>AVERAGE(B44:B49)</f>
         <v>0.76000000000000012</v>
       </c>
-      <c r="C50" s="3">
-        <f t="shared" ref="C50:D50" si="7">AVERAGE(C44:C49)</f>
-        <v>1.54</v>
+      <c r="C50" s="2">
+        <v>0</v>
       </c>
       <c r="D50" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="C50:D50" si="7">AVERAGE(D44:D49)</f>
         <v>2.3000000000000003</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B51" s="2">
         <v>1.42</v>
       </c>
       <c r="C51" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D51" s="2">
         <v>2.96</v>
@@ -4626,13 +4636,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B52" s="2">
         <v>1.0900000000000001</v>
       </c>
       <c r="C52" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D52" s="2">
         <v>2.63</v>
@@ -4640,13 +4650,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B53" s="2">
         <v>0.45</v>
       </c>
       <c r="C53" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D53" s="2">
         <v>1.99</v>
@@ -4654,13 +4664,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B54" s="2">
         <v>0.19</v>
       </c>
       <c r="C54" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D54" s="2">
         <v>1.73</v>
@@ -4668,13 +4678,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B55" s="2">
         <v>1.35</v>
       </c>
       <c r="C55" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D55" s="2">
         <v>2.89</v>
@@ -4682,13 +4692,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B56" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="C56" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D56" s="2">
         <v>2.64</v>
@@ -4699,24 +4709,23 @@
         <f>AVERAGE(B51:B56)</f>
         <v>0.93333333333333324</v>
       </c>
-      <c r="C57" s="3">
-        <f t="shared" ref="C57:D57" si="8">AVERAGE(C51:C56)</f>
-        <v>1.54</v>
+      <c r="C57" s="2">
+        <v>0</v>
       </c>
       <c r="D57" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="C57:D57" si="8">AVERAGE(D51:D56)</f>
         <v>2.4733333333333336</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B58" s="2">
         <v>1.62</v>
       </c>
       <c r="C58" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D58" s="2">
         <v>3.16</v>
@@ -4724,13 +4733,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B59" s="2">
         <v>1.26</v>
       </c>
       <c r="C59" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D59" s="2">
         <v>2.8</v>
@@ -4738,13 +4747,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B60" s="2">
         <v>0.43</v>
       </c>
       <c r="C60" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D60" s="2">
         <v>1.97</v>
@@ -4752,13 +4761,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B61" s="2">
         <v>0.26</v>
       </c>
       <c r="C61" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D61" s="2">
         <v>1.8</v>
@@ -4766,13 +4775,13 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B62" s="2">
         <v>1.53</v>
       </c>
       <c r="C62" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D62" s="2">
         <v>3.07</v>
@@ -4780,13 +4789,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B63" s="2">
         <v>1.25</v>
       </c>
       <c r="C63" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D63" s="2">
         <v>2.79</v>
@@ -4797,24 +4806,23 @@
         <f>AVERAGE(B58:B63)</f>
         <v>1.0583333333333333</v>
       </c>
-      <c r="C64" s="3">
-        <f t="shared" ref="C64:D64" si="9">AVERAGE(C58:C63)</f>
-        <v>1.54</v>
+      <c r="C64" s="2">
+        <v>0</v>
       </c>
       <c r="D64" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="C64:D64" si="9">AVERAGE(D58:D63)</f>
         <v>2.5983333333333332</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B65" s="2">
         <v>1.64</v>
       </c>
       <c r="C65" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D65" s="2">
         <v>3.18</v>
@@ -4822,13 +4830,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B66" s="2">
         <v>1.1100000000000001</v>
       </c>
       <c r="C66" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D66" s="2">
         <v>2.65</v>
@@ -4836,13 +4844,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B67" s="2">
         <v>0.44</v>
       </c>
       <c r="C67" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D67" s="2">
         <v>1.98</v>
@@ -4850,13 +4858,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B68" s="2">
         <v>0.27</v>
       </c>
       <c r="C68" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D68" s="2">
         <v>1.81</v>
@@ -4864,13 +4872,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B69" s="2">
         <v>1.44</v>
       </c>
       <c r="C69" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D69" s="2">
         <v>2.98</v>
@@ -4878,13 +4886,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B70" s="2">
         <v>1.2</v>
       </c>
       <c r="C70" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D70" s="2">
         <v>2.74</v>
@@ -4895,9 +4903,8 @@
         <f>AVERAGE(B65:B70)</f>
         <v>1.0166666666666668</v>
       </c>
-      <c r="C71" s="3">
-        <f>AVERAGE(C65:C70)</f>
-        <v>1.54</v>
+      <c r="C71" s="2">
+        <v>0</v>
       </c>
       <c r="D71" s="3">
         <f>AVERAGE(D65:D70)</f>
@@ -4906,13 +4913,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B72" s="2">
         <v>1.62</v>
       </c>
       <c r="C72" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D72" s="2">
         <v>3.16</v>
@@ -4920,13 +4927,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B73" s="2">
         <v>0.96</v>
       </c>
       <c r="C73" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D73" s="2">
         <v>2.5</v>
@@ -4934,13 +4941,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B74" s="2">
         <v>0.38</v>
       </c>
       <c r="C74" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D74" s="2">
         <v>1.92</v>
@@ -4948,13 +4955,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B75" s="2">
         <v>0.37</v>
       </c>
       <c r="C75" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D75" s="2">
         <v>1.91</v>
@@ -4962,13 +4969,13 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B76" s="2">
         <v>1.41</v>
       </c>
       <c r="C76" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D76" s="2">
         <v>2.95</v>
@@ -4976,13 +4983,13 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B77" s="2">
         <v>1.17</v>
       </c>
       <c r="C77" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D77" s="2">
         <v>2.71</v>
@@ -4993,9 +5000,8 @@
         <f>AVERAGE(B72:B77)</f>
         <v>0.98499999999999999</v>
       </c>
-      <c r="C78" s="3">
-        <f>AVERAGE(C72:C77)</f>
-        <v>1.54</v>
+      <c r="C78" s="2">
+        <v>0</v>
       </c>
       <c r="D78" s="3">
         <f>AVERAGE(D72:D77)</f>
@@ -5004,13 +5010,13 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B79" s="2">
         <v>1.58</v>
       </c>
       <c r="C79" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D79" s="2">
         <v>3.12</v>
@@ -5018,13 +5024,13 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B80" s="2">
         <v>0.92</v>
       </c>
       <c r="C80" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D80" s="2">
         <v>2.46</v>
@@ -5032,13 +5038,13 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B81" s="2">
         <v>0.34</v>
       </c>
       <c r="C81" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D81" s="2">
         <v>1.88</v>
@@ -5046,13 +5052,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B82" s="2">
         <v>0.41</v>
       </c>
       <c r="C82" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D82" s="2">
         <v>1.95</v>
@@ -5060,13 +5066,13 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B83" s="2">
         <v>1.1599999999999999</v>
       </c>
       <c r="C83" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D83" s="2">
         <v>2.7</v>
@@ -5074,13 +5080,13 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B84" s="2">
         <v>1.2</v>
       </c>
       <c r="C84" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D84" s="2">
         <v>2.74</v>
@@ -5091,9 +5097,8 @@
         <f>AVERAGE(B79:B84)</f>
         <v>0.93500000000000005</v>
       </c>
-      <c r="C85" s="3">
-        <f>AVERAGE(C79:C84)</f>
-        <v>1.54</v>
+      <c r="C85" s="2">
+        <v>0</v>
       </c>
       <c r="D85" s="3">
         <f>AVERAGE(D79:D84)</f>
@@ -5102,13 +5107,13 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B86" s="2">
         <v>1.54</v>
       </c>
       <c r="C86" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D86" s="2">
         <v>3.08</v>
@@ -5116,13 +5121,13 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B87" s="2">
         <v>0.88</v>
       </c>
       <c r="C87" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D87" s="2">
         <v>2.42</v>
@@ -5130,13 +5135,13 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B88" s="2">
         <v>0.34</v>
       </c>
       <c r="C88" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D88" s="2">
         <v>1.88</v>
@@ -5144,13 +5149,13 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B89" s="2">
         <v>0.42</v>
       </c>
       <c r="C89" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D89" s="2">
         <v>1.96</v>
@@ -5158,13 +5163,13 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B90" s="2">
         <v>1.1100000000000001</v>
       </c>
       <c r="C90" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D90" s="2">
         <v>2.65</v>
@@ -5172,13 +5177,13 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B91" s="2">
         <v>1.22</v>
       </c>
       <c r="C91" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D91" s="2">
         <v>2.76</v>
@@ -5189,24 +5194,23 @@
         <f>AVERAGE(B86:B91)</f>
         <v>0.91833333333333333</v>
       </c>
-      <c r="C92" s="3">
-        <f t="shared" ref="C92:D92" si="10">AVERAGE(C86:C91)</f>
-        <v>1.54</v>
+      <c r="C92" s="2">
+        <v>0</v>
       </c>
       <c r="D92" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="C92:D92" si="10">AVERAGE(D86:D91)</f>
         <v>2.4583333333333335</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B93" s="2">
         <v>1.51</v>
       </c>
       <c r="C93" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D93" s="2">
         <v>3.05</v>
@@ -5214,13 +5218,13 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B94" s="2">
         <v>0.81</v>
       </c>
       <c r="C94" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D94" s="2">
         <v>2.35</v>
@@ -5228,13 +5232,13 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B95" s="2">
         <v>0.3</v>
       </c>
       <c r="C95" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D95" s="2">
         <v>1.84</v>
@@ -5242,13 +5246,13 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B96" s="2">
         <v>0.41</v>
       </c>
       <c r="C96" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D96" s="2">
         <v>1.95</v>
@@ -5256,13 +5260,13 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B97" s="2">
         <v>1.06</v>
       </c>
       <c r="C97" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D97" s="2">
         <v>2.6</v>
@@ -5270,13 +5274,13 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B98" s="2">
         <v>1.35</v>
       </c>
       <c r="C98" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D98" s="2">
         <v>2.89</v>
@@ -5287,24 +5291,23 @@
         <f>AVERAGE(B93:B98)</f>
         <v>0.90666666666666662</v>
       </c>
-      <c r="C99" s="3">
-        <f t="shared" ref="C99:D99" si="11">AVERAGE(C93:C98)</f>
-        <v>1.54</v>
+      <c r="C99" s="2">
+        <v>0</v>
       </c>
       <c r="D99" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="C99:D99" si="11">AVERAGE(D93:D98)</f>
         <v>2.4466666666666668</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B100" s="2">
         <v>1.47</v>
       </c>
       <c r="C100" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D100" s="2">
         <v>3.01</v>
@@ -5312,13 +5315,13 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B101" s="2">
         <v>0.93</v>
       </c>
       <c r="C101" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D101" s="2">
         <v>2.4700000000000002</v>
@@ -5326,13 +5329,13 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B102" s="2">
         <v>0.51</v>
       </c>
       <c r="C102" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D102" s="2">
         <v>2.0499999999999998</v>
@@ -5340,13 +5343,13 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B103" s="2">
         <v>0.43</v>
       </c>
       <c r="C103" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D103" s="2">
         <v>1.97</v>
@@ -5354,13 +5357,13 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B104" s="2">
         <v>1.04</v>
       </c>
       <c r="C104" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D104" s="2">
         <v>2.58</v>
@@ -5368,13 +5371,13 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B105" s="2">
         <v>1.41</v>
       </c>
       <c r="C105" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D105" s="2">
         <v>2.95</v>
@@ -5385,24 +5388,23 @@
         <f>AVERAGE(B100:B105)</f>
         <v>0.96500000000000019</v>
       </c>
-      <c r="C106" s="3">
-        <f t="shared" ref="C106:D106" si="12">AVERAGE(C100:C105)</f>
-        <v>1.54</v>
+      <c r="C106" s="2">
+        <v>0</v>
       </c>
       <c r="D106" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="C106:D106" si="12">AVERAGE(D100:D105)</f>
         <v>2.5050000000000003</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B107" s="2">
         <v>1.38</v>
       </c>
       <c r="C107" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D107" s="2">
         <v>2.92</v>
@@ -5410,13 +5412,13 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B108" s="2">
         <v>1.22</v>
       </c>
       <c r="C108" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D108" s="2">
         <v>2.76</v>
@@ -5424,13 +5426,13 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B109" s="2">
         <v>0.47</v>
       </c>
       <c r="C109" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D109" s="2">
         <v>2.0099999999999998</v>
@@ -5438,13 +5440,13 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B110" s="2">
         <v>0.5</v>
       </c>
       <c r="C110" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D110" s="2">
         <v>2.04</v>
@@ -5452,13 +5454,13 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B111" s="2">
         <v>1.04</v>
       </c>
       <c r="C111" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D111" s="2">
         <v>2.58</v>
@@ -5466,13 +5468,13 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B112" s="2">
         <v>1.48</v>
       </c>
       <c r="C112" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D112" s="2">
         <v>3.02</v>
@@ -5483,24 +5485,23 @@
         <f>AVERAGE(B107:B112)</f>
         <v>1.0149999999999999</v>
       </c>
-      <c r="C113" s="3">
-        <f t="shared" ref="C113:D113" si="13">AVERAGE(C107:C112)</f>
-        <v>1.54</v>
+      <c r="C113" s="2">
+        <v>0</v>
       </c>
       <c r="D113" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="C113:D113" si="13">AVERAGE(D107:D112)</f>
         <v>2.5550000000000002</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B114" s="2">
         <v>1.4</v>
       </c>
       <c r="C114" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D114" s="2">
         <v>2.94</v>
@@ -5508,13 +5509,13 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B115" s="2">
         <v>1.38</v>
       </c>
       <c r="C115" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D115" s="2">
         <v>2.92</v>
@@ -5522,13 +5523,13 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B116" s="2">
         <v>0.52</v>
       </c>
       <c r="C116" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D116" s="2">
         <v>2.06</v>
@@ -5536,13 +5537,13 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B117" s="2">
         <v>0.52</v>
       </c>
       <c r="C117" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D117" s="2">
         <v>2.06</v>
@@ -5550,13 +5551,13 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B118" s="2">
         <v>1.05</v>
       </c>
       <c r="C118" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D118" s="2">
         <v>2.59</v>
@@ -5564,13 +5565,13 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B119" s="2">
         <v>1.53</v>
       </c>
       <c r="C119" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D119" s="2">
         <v>3.07</v>
@@ -5581,24 +5582,23 @@
         <f>AVERAGE(B114:B119)</f>
         <v>1.0666666666666667</v>
       </c>
-      <c r="C120" s="3">
-        <f t="shared" ref="C120:D120" si="14">AVERAGE(C114:C119)</f>
-        <v>1.54</v>
+      <c r="C120" s="2">
+        <v>0</v>
       </c>
       <c r="D120" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="C120:D120" si="14">AVERAGE(D114:D119)</f>
         <v>2.6066666666666669</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B121" s="2">
         <v>1.48</v>
       </c>
       <c r="C121" s="2">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="D121" s="2">
         <v>3.88</v>
@@ -5606,13 +5606,13 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B122" s="2">
         <v>1.64</v>
       </c>
       <c r="C122" s="2">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="D122" s="2">
         <v>4.04</v>
@@ -5620,13 +5620,13 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B123" s="2">
         <v>0.53</v>
       </c>
       <c r="C123" s="2">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="D123" s="2">
         <v>2.93</v>
@@ -5634,13 +5634,13 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B124" s="2">
         <v>0.6</v>
       </c>
       <c r="C124" s="2">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="D124" s="2">
         <v>3</v>
@@ -5648,13 +5648,13 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B125" s="2">
         <v>1.0900000000000001</v>
       </c>
       <c r="C125" s="2">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="D125" s="2">
         <v>3.49</v>
@@ -5662,13 +5662,13 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B126" s="2">
         <v>1.61</v>
       </c>
       <c r="C126" s="2">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="D126" s="2">
         <v>4.01</v>
@@ -5679,24 +5679,23 @@
         <f>AVERAGE(B121:B126)</f>
         <v>1.1583333333333334</v>
       </c>
-      <c r="C127" s="3">
-        <f t="shared" ref="C127:D127" si="15">AVERAGE(C121:C126)</f>
-        <v>2.4</v>
+      <c r="C127" s="2">
+        <v>0</v>
       </c>
       <c r="D127" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="C127:D127" si="15">AVERAGE(D121:D126)</f>
         <v>3.5583333333333336</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B128" s="2">
         <v>1.4</v>
       </c>
       <c r="C128" s="2">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="D128" s="2">
         <v>3.8</v>
@@ -5704,13 +5703,13 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B129" s="2">
         <v>1.67</v>
       </c>
       <c r="C129" s="2">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="D129" s="2">
         <v>4.07</v>
@@ -5718,13 +5717,13 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B130" s="2">
         <v>0.52</v>
       </c>
       <c r="C130" s="2">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="D130" s="2">
         <v>2.92</v>
@@ -5732,13 +5731,13 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B131" s="2">
         <v>0.57999999999999996</v>
       </c>
       <c r="C131" s="2">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="D131" s="2">
         <v>2.98</v>
@@ -5746,13 +5745,13 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B132" s="2">
         <v>0.87</v>
       </c>
       <c r="C132" s="2">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="D132" s="2">
         <v>3.27</v>
@@ -5760,13 +5759,13 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B133" s="2">
         <v>1.6</v>
       </c>
       <c r="C133" s="2">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="D133" s="2">
         <v>4</v>
@@ -5777,24 +5776,23 @@
         <f>AVERAGE(B128:B133)</f>
         <v>1.1066666666666667</v>
       </c>
-      <c r="C134" s="3">
-        <f t="shared" ref="C134:D134" si="16">AVERAGE(C128:C133)</f>
-        <v>2.4</v>
+      <c r="C134" s="2">
+        <v>0</v>
       </c>
       <c r="D134" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="C134:D134" si="16">AVERAGE(D128:D133)</f>
         <v>3.5066666666666664</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B135" s="2">
         <v>1.33</v>
       </c>
       <c r="C135" s="2">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="D135" s="2">
         <v>3.73</v>
@@ -5802,13 +5800,13 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B136" s="2">
         <v>1.57</v>
       </c>
       <c r="C136" s="2">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="D136" s="2">
         <v>3.97</v>
@@ -5816,13 +5814,13 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B137" s="2">
         <v>0.51</v>
       </c>
       <c r="C137" s="2">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="D137" s="2">
         <v>2.91</v>
@@ -5830,13 +5828,13 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B138" s="2">
         <v>0.53</v>
       </c>
       <c r="C138" s="2">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="D138" s="2">
         <v>2.93</v>
@@ -5844,13 +5842,13 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B139" s="2">
         <v>0.53</v>
       </c>
       <c r="C139" s="2">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="D139" s="2">
         <v>2.93</v>
@@ -5858,13 +5856,13 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B140" s="2">
         <v>1.54</v>
       </c>
       <c r="C140" s="2">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="D140" s="2">
         <v>3.94</v>
@@ -5875,24 +5873,23 @@
         <f>AVERAGE(B135:B140)</f>
         <v>1.0016666666666667</v>
       </c>
-      <c r="C141" s="3">
-        <f t="shared" ref="C141:D141" si="17">AVERAGE(C135:C140)</f>
-        <v>2.4</v>
+      <c r="C141" s="2">
+        <v>0</v>
       </c>
       <c r="D141" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="C141:D141" si="17">AVERAGE(D135:D140)</f>
         <v>3.4016666666666668</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B142" s="2">
         <v>1.25</v>
       </c>
       <c r="C142" s="2">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="D142" s="2">
         <v>3.65</v>
@@ -5900,13 +5897,13 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B143" s="2">
         <v>1.35</v>
       </c>
       <c r="C143" s="2">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="D143" s="2">
         <v>3.75</v>
@@ -5914,13 +5911,13 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B144" s="2">
         <v>0.5</v>
       </c>
       <c r="C144" s="2">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="D144" s="2">
         <v>2.9</v>
@@ -5928,13 +5925,13 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B145" s="2">
         <v>0.5</v>
       </c>
       <c r="C145" s="2">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="D145" s="2">
         <v>2.9</v>
@@ -5942,13 +5939,13 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B146" s="2">
         <v>0.53</v>
       </c>
       <c r="C146" s="2">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="D146" s="2">
         <v>2.93</v>
@@ -5956,13 +5953,13 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B147" s="2">
         <v>1.45</v>
       </c>
       <c r="C147" s="2">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="D147" s="2">
         <v>3.85</v>
@@ -5973,24 +5970,23 @@
         <f>AVERAGE(B142:B147)</f>
         <v>0.93</v>
       </c>
-      <c r="C148" s="3">
-        <f t="shared" ref="C148:D148" si="18">AVERAGE(C142:C147)</f>
-        <v>2.4</v>
+      <c r="C148" s="2">
+        <v>0</v>
       </c>
       <c r="D148" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="C148:D148" si="18">AVERAGE(D142:D147)</f>
         <v>3.3300000000000005</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B149" s="2">
         <v>1.26</v>
       </c>
       <c r="C149" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D149" s="2">
         <v>2.8</v>
@@ -5998,13 +5994,13 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B150" s="2">
         <v>0.49</v>
       </c>
       <c r="C150" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D150" s="2">
         <v>2.0299999999999998</v>
@@ -6012,13 +6008,13 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B151" s="2">
         <v>0.52</v>
       </c>
       <c r="C151" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D151" s="2">
         <v>2.06</v>
@@ -6026,13 +6022,13 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B152" s="2">
         <v>0.46</v>
       </c>
       <c r="C152" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D152" s="2">
         <v>2</v>
@@ -6040,13 +6036,13 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B153" s="2">
         <v>1.37</v>
       </c>
       <c r="C153" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D153" s="2">
         <v>2.91</v>
@@ -6057,24 +6053,23 @@
         <f>AVERAGE(B149:B153)</f>
         <v>0.82</v>
       </c>
-      <c r="C154" s="3">
-        <f t="shared" ref="C154:D154" si="19">AVERAGE(C149:C153)</f>
-        <v>1.54</v>
+      <c r="C154" s="2">
+        <v>0</v>
       </c>
       <c r="D154" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="C154:D154" si="19">AVERAGE(D149:D153)</f>
         <v>2.3600000000000003</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B155" s="2">
         <v>1.1399999999999999</v>
       </c>
       <c r="C155" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D155" s="2">
         <v>2.68</v>
@@ -6082,13 +6077,13 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B156" s="2">
         <v>1.25</v>
       </c>
       <c r="C156" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D156" s="2">
         <v>2.79</v>
@@ -6096,13 +6091,13 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B157" s="2">
         <v>0.45</v>
       </c>
       <c r="C157" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D157" s="2">
         <v>1.99</v>
@@ -6110,13 +6105,13 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B158" s="2">
         <v>0.47</v>
       </c>
       <c r="C158" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D158" s="2">
         <v>2.0099999999999998</v>
@@ -6124,13 +6119,13 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B159" s="2">
         <v>0.31</v>
       </c>
       <c r="C159" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D159" s="2">
         <v>1.85</v>
@@ -6138,13 +6133,13 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B160" s="2">
         <v>1.3</v>
       </c>
       <c r="C160" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D160" s="2">
         <v>2.84</v>
@@ -6155,24 +6150,23 @@
         <f>AVERAGE(B155:B160)</f>
         <v>0.82</v>
       </c>
-      <c r="C161" s="3">
-        <f t="shared" ref="C161:D161" si="20">AVERAGE(C155:C160)</f>
-        <v>1.54</v>
+      <c r="C161" s="2">
+        <v>0</v>
       </c>
       <c r="D161" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="C161:D161" si="20">AVERAGE(D155:D160)</f>
         <v>2.36</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B162" s="2">
         <v>1</v>
       </c>
       <c r="C162" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D162" s="2">
         <v>2.54</v>
@@ -6180,13 +6174,13 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B163" s="2">
         <v>1.17</v>
       </c>
       <c r="C163" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D163" s="2">
         <v>2.71</v>
@@ -6194,13 +6188,13 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B164" s="2">
         <v>0.38</v>
       </c>
       <c r="C164" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D164" s="2">
         <v>1.92</v>
@@ -6208,13 +6202,13 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B165" s="2">
         <v>0.41</v>
       </c>
       <c r="C165" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D165" s="2">
         <v>1.95</v>
@@ -6222,13 +6216,13 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B166" s="2">
         <v>0.27</v>
       </c>
       <c r="C166" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D166" s="2">
         <v>1.81</v>
@@ -6236,13 +6230,13 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B167" s="2">
         <v>1.21</v>
       </c>
       <c r="C167" s="2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D167" s="2">
         <v>2.75</v>
@@ -6255,7 +6249,7 @@
       </c>
       <c r="C168" s="3">
         <f t="shared" ref="C168:D168" si="21">AVERAGE(C162:C167)</f>
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D168" s="3">
         <f t="shared" si="21"/>
@@ -6271,21 +6265,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100AEDD2C58C424B74499DE9AAA38D1F837" ma:contentTypeVersion="4" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="702f087d0813d5dfa38d019e1cfe3dbe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="59a1f2c9-9aa0-4700-bb29-973d29195b9e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f1c68433e2c2319791049a96af9fb53" ns2:_="">
     <xsd:import namespace="59a1f2c9-9aa0-4700-bb29-973d29195b9e"/>
@@ -6429,14 +6408,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80DA1591-5D0E-493F-827A-BF7F96FE3311}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{540BE6A0-27F9-419F-8224-019FE94C5CBE}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B71B140-D529-43D3-80C5-DF1F266F3D83}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80DA1591-5D0E-493F-827A-BF7F96FE3311}"/>
 </file>
--- a/Load dataset.xlsx
+++ b/Load dataset.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28317"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="384" documentId="11_5A440047DFECBC58903F4DEA860302072BED40F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5080DC3-7F96-4F99-9314-3B1F5E7FB518}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Opti in modern power systems\code\optimization_code\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1C5213-9D9F-4E84-BB7E-9A915FA647B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Load profile" sheetId="1" r:id="rId1"/>
-    <sheet name="Load distribution" sheetId="2" r:id="rId2"/>
-    <sheet name="Demand prices" sheetId="5" r:id="rId3"/>
+    <sheet name="Demand prices" sheetId="5" r:id="rId2"/>
+    <sheet name="Load distribution" sheetId="2" r:id="rId3"/>
     <sheet name="Demand prices - raw data" sheetId="3" r:id="rId4"/>
     <sheet name="DP - calculations" sheetId="4" r:id="rId5"/>
   </sheets>
@@ -38,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="158">
   <si>
     <t>Hour</t>
   </si>
@@ -68,12 +73,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data from (november 18th 2024): </t>
-  </si>
-  <si>
-    <t>https://andelenergi.dk/el/timeenergi/</t>
   </si>
   <si>
     <t>19.11.2024 - 23:00</t>
@@ -524,7 +523,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -585,7 +584,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -919,17 +918,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -937,7 +936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -945,7 +944,7 @@
         <v>1775.835</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -953,7 +952,7 @@
         <v>1669.8150000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -961,7 +960,7 @@
         <v>1590.3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -969,7 +968,7 @@
         <v>1563.7950000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -977,7 +976,7 @@
         <v>1563.7950000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -985,7 +984,7 @@
         <v>1590.3</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -993,7 +992,7 @@
         <v>1961.37</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1001,7 +1000,7 @@
         <v>2279.4299999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1009,7 +1008,7 @@
         <v>2517.9749999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1017,7 +1016,7 @@
         <v>2544.48</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1025,7 +1024,7 @@
         <v>2544.48</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1033,7 +1032,7 @@
         <v>2517.9749999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1041,7 +1040,7 @@
         <v>2517.9749999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1049,7 +1048,7 @@
         <v>2517.9749999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1057,7 +1056,7 @@
         <v>2464.9650000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1065,7 +1064,7 @@
         <v>2464.9650000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1073,7 +1072,7 @@
         <v>2623.9949999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1081,7 +1080,7 @@
         <v>2650.5</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1089,7 +1088,7 @@
         <v>2650.5</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1097,7 +1096,7 @@
         <v>2544.48</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1105,7 +1104,7 @@
         <v>2411.9549999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1113,7 +1112,7 @@
         <v>2199.915</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1121,7 +1120,7 @@
         <v>1934.865</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1135,6 +1134,221 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE9AD59-411E-4291-875A-DE2F5FAB8CE2}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>26.851422320000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>26.355485759999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>26.001245359999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>25.717853039999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>21.509477087999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>25.859549199999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>32.30672448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>39.674924799999992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>44.988530799999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>43.217328799999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>41.871215279999987</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>39.745772880000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>39.037292079999993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>38.541355519999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>41.021038320000009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>43.146480719999985</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>45.342771199999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>49.239415599999994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>47.043125119999992</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>42.579696079999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>39.533228639999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>34.857255359999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>34.857255359999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>31.456547519999987</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E7BCCE-5357-4236-B0ED-DE4B9006FBAE}">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -1142,12 +1356,12 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1158,7 +1372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1169,7 +1383,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1180,7 +1394,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1191,7 +1405,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1202,7 +1416,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1213,7 +1427,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1224,7 +1438,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1235,7 +1449,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1246,7 +1460,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1257,7 +1471,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1268,7 +1482,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1279,7 +1493,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1290,7 +1504,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1301,7 +1515,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1312,7 +1526,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1323,7 +1537,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1334,7 +1548,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1343,221 +1557,6 @@
       </c>
       <c r="C18">
         <v>4.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE9AD59-411E-4291-875A-DE2F5FAB8CE2}">
-  <dimension ref="A1:B25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2.6497181919999996E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2.6379101786666657E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>2.6284637679999996E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>2.4881845695999999E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>2.6331869733333329E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>3.25901168E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>3.5046183573333333E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>3.6817385573333327E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>3.6226984906666672E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>3.57782804E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>3.5069799599999994E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>3.4833639333333333E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>3.4668327146666667E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>3.5494888080000005E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>3.620336888E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>3.6935465706666666E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>5.0420216933333331E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>4.9688120106666659E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>4.8200310426666664E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>4.7184821280000003E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>3.344029376E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>3.3440293759999995E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>3.2306724479999995E-4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>2.6662494106666662E-4</v>
       </c>
     </row>
   </sheetData>
@@ -1570,19 +1569,18 @@
   <dimension ref="A1:M151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="7" max="7" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1595,19 +1593,15 @@
       <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="M1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -1619,9 +1613,9 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2">
         <v>1.1399999999999999</v>
@@ -1633,9 +1627,9 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2">
         <v>1.18</v>
@@ -1647,9 +1641,9 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2">
         <v>1.25</v>
@@ -1661,9 +1655,9 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2">
         <v>1.33</v>
@@ -1675,9 +1669,9 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2">
         <v>1.4</v>
@@ -1689,9 +1683,9 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2">
         <v>1.48</v>
@@ -1703,9 +1697,9 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2">
         <v>1.4</v>
@@ -1717,9 +1711,9 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2">
         <v>1.38</v>
@@ -1731,9 +1725,9 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2">
         <v>1.47</v>
@@ -1745,9 +1739,9 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2">
         <v>1.51</v>
@@ -1759,9 +1753,9 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2">
         <v>1.54</v>
@@ -1773,9 +1767,9 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2">
         <v>1.58</v>
@@ -1787,9 +1781,9 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2">
         <v>1.62</v>
@@ -1801,9 +1795,9 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2">
         <v>1.64</v>
@@ -1815,9 +1809,9 @@
         <v>3.18</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2">
         <v>1.62</v>
@@ -1829,9 +1823,9 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2">
         <v>1.42</v>
@@ -1843,9 +1837,9 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2">
         <v>1.26</v>
@@ -1857,9 +1851,9 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2">
         <v>1.05</v>
@@ -1871,9 +1865,9 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2">
         <v>1.05</v>
@@ -1885,9 +1879,9 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2">
         <v>1.01</v>
@@ -1899,9 +1893,9 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2">
         <v>1.05</v>
@@ -1913,9 +1907,9 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B24" s="2">
         <v>1.1000000000000001</v>
@@ -1927,9 +1921,9 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B25" s="2">
         <v>1.1599999999999999</v>
@@ -1941,9 +1935,9 @@
         <v>2.41</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2">
         <v>1.17</v>
@@ -1955,9 +1949,9 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2">
         <v>1.25</v>
@@ -1969,9 +1963,9 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2">
         <v>1.26</v>
@@ -1983,9 +1977,9 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2">
         <v>1.35</v>
@@ -1997,9 +1991,9 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2">
         <v>1.57</v>
@@ -2011,9 +2005,9 @@
         <v>3.97</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2">
         <v>1.67</v>
@@ -2025,9 +2019,9 @@
         <v>4.07</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2">
         <v>1.64</v>
@@ -2039,9 +2033,9 @@
         <v>4.04</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2">
         <v>1.38</v>
@@ -2053,9 +2047,9 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2">
         <v>1.22</v>
@@ -2067,9 +2061,9 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B35" s="2">
         <v>0.93</v>
@@ -2081,9 +2075,9 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B36" s="2">
         <v>0.81</v>
@@ -2095,9 +2089,9 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B37" s="2">
         <v>0.88</v>
@@ -2109,9 +2103,9 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B38" s="2">
         <v>0.92</v>
@@ -2123,9 +2117,9 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B39" s="2">
         <v>0.96</v>
@@ -2137,9 +2131,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B40" s="2">
         <v>1.1100000000000001</v>
@@ -2151,9 +2145,9 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B41" s="2">
         <v>1.26</v>
@@ -2165,9 +2159,9 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B42" s="2">
         <v>1.0900000000000001</v>
@@ -2179,9 +2173,9 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B43" s="2">
         <v>0.74</v>
@@ -2193,9 +2187,9 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B44" s="2">
         <v>0.44</v>
@@ -2207,9 +2201,9 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B45" s="2">
         <v>0.4</v>
@@ -2221,9 +2215,9 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B46" s="2">
         <v>0.28999999999999998</v>
@@ -2235,9 +2229,9 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B47" s="2">
         <v>0.28999999999999998</v>
@@ -2249,9 +2243,9 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B48" s="2">
         <v>0.28000000000000003</v>
@@ -2263,9 +2257,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B49" s="2">
         <v>0.28000000000000003</v>
@@ -2277,9 +2271,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B50" s="2">
         <v>0.38</v>
@@ -2291,9 +2285,9 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B51" s="2">
         <v>0.45</v>
@@ -2305,9 +2299,9 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B52" s="2">
         <v>0.49</v>
@@ -2319,9 +2313,9 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B53" s="2">
         <v>0.5</v>
@@ -2333,9 +2327,9 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B54" s="2">
         <v>0.51</v>
@@ -2347,9 +2341,9 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B55" s="2">
         <v>0.52</v>
@@ -2361,9 +2355,9 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B56" s="2">
         <v>0.53</v>
@@ -2375,9 +2369,9 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B57" s="2">
         <v>0.52</v>
@@ -2389,9 +2383,9 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B58" s="2">
         <v>0.47</v>
@@ -2403,9 +2397,9 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B59" s="2">
         <v>0.51</v>
@@ -2417,9 +2411,9 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B60" s="2">
         <v>0.3</v>
@@ -2431,9 +2425,9 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B61" s="2">
         <v>0.34</v>
@@ -2445,9 +2439,9 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B62" s="2">
         <v>0.34</v>
@@ -2459,9 +2453,9 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B63" s="2">
         <v>0.38</v>
@@ -2473,9 +2467,9 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B64" s="2">
         <v>0.44</v>
@@ -2487,9 +2481,9 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B65" s="2">
         <v>0.43</v>
@@ -2501,9 +2495,9 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B66" s="2">
         <v>0.45</v>
@@ -2515,9 +2509,9 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B67" s="2">
         <v>0.41</v>
@@ -2529,9 +2523,9 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B68" s="2">
         <v>0.35</v>
@@ -2543,9 +2537,9 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B69" s="2">
         <v>0.39</v>
@@ -2557,9 +2551,9 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B70" s="2">
         <v>0.43</v>
@@ -2571,9 +2565,9 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B71" s="2">
         <v>0.44</v>
@@ -2585,9 +2579,9 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B72" s="2">
         <v>0.37</v>
@@ -2599,9 +2593,9 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B73" s="2">
         <v>0.31</v>
@@ -2613,9 +2607,9 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B74" s="2">
         <v>0.41</v>
@@ -2627,9 +2621,9 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B75" s="2">
         <v>0.47</v>
@@ -2641,9 +2635,9 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B76" s="2">
         <v>0.52</v>
@@ -2655,9 +2649,9 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B77" s="2">
         <v>0.5</v>
@@ -2669,9 +2663,9 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B78" s="2">
         <v>0.53</v>
@@ -2683,9 +2677,9 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B79" s="2">
         <v>0.57999999999999996</v>
@@ -2697,9 +2691,9 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B80" s="2">
         <v>0.6</v>
@@ -2711,9 +2705,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B81" s="2">
         <v>0.52</v>
@@ -2725,9 +2719,9 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B82" s="2">
         <v>0.5</v>
@@ -2739,9 +2733,9 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B83" s="2">
         <v>0.43</v>
@@ -2753,9 +2747,9 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B84" s="2">
         <v>0.41</v>
@@ -2767,9 +2761,9 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B85" s="2">
         <v>0.42</v>
@@ -2781,9 +2775,9 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B86" s="2">
         <v>0.41</v>
@@ -2795,9 +2789,9 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B87" s="2">
         <v>0.37</v>
@@ -2809,9 +2803,9 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B88" s="2">
         <v>0.27</v>
@@ -2823,9 +2817,9 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B89" s="2">
         <v>0.26</v>
@@ -2837,9 +2831,9 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B90" s="2">
         <v>0.19</v>
@@ -2851,9 +2845,9 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B91" s="2">
         <v>0.19</v>
@@ -2865,9 +2859,9 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B92" s="2">
         <v>0.19</v>
@@ -2879,9 +2873,9 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B93" s="2">
         <v>0.19</v>
@@ -2893,9 +2887,9 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B94" s="2">
         <v>0.19</v>
@@ -2907,9 +2901,9 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B95" s="2">
         <v>0.19</v>
@@ -2921,9 +2915,9 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B96" s="2">
         <v>0.25</v>
@@ -2935,9 +2929,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B97" s="2">
         <v>0.27</v>
@@ -2949,9 +2943,9 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B98" s="2">
         <v>0.27</v>
@@ -2963,9 +2957,9 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B99" s="2">
         <v>0.31</v>
@@ -2977,9 +2971,9 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B100" s="2">
         <v>0.46</v>
@@ -2991,9 +2985,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B101" s="2">
         <v>0.53</v>
@@ -3005,9 +2999,9 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B102" s="2">
         <v>0.53</v>
@@ -3019,9 +3013,9 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B103" s="2">
         <v>0.87</v>
@@ -3033,9 +3027,9 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B104" s="2">
         <v>1.0900000000000001</v>
@@ -3047,9 +3041,9 @@
         <v>3.49</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B105" s="2">
         <v>1.05</v>
@@ -3061,9 +3055,9 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B106" s="2">
         <v>1.04</v>
@@ -3075,9 +3069,9 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B107" s="2">
         <v>1.04</v>
@@ -3089,9 +3083,9 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B108" s="2">
         <v>1.06</v>
@@ -3103,9 +3097,9 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B109" s="2">
         <v>1.1100000000000001</v>
@@ -3117,9 +3111,9 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B110" s="2">
         <v>1.1599999999999999</v>
@@ -3131,9 +3125,9 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B111" s="2">
         <v>1.41</v>
@@ -3145,9 +3139,9 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B112" s="2">
         <v>1.44</v>
@@ -3159,9 +3153,9 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B113" s="2">
         <v>1.53</v>
@@ -3173,9 +3167,9 @@
         <v>3.07</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B114" s="2">
         <v>1.35</v>
@@ -3187,9 +3181,9 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B115" s="2">
         <v>1.04</v>
@@ -3201,9 +3195,9 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B116" s="2">
         <v>0.99</v>
@@ -3215,9 +3209,9 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B117" s="2">
         <v>0.99</v>
@@ -3229,9 +3223,9 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B118" s="2">
         <v>1.0900000000000001</v>
@@ -3243,9 +3237,9 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B119" s="2">
         <v>1.0900000000000001</v>
@@ -3257,9 +3251,9 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B120" s="2">
         <v>1.1100000000000001</v>
@@ -3271,9 +3265,9 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B121" s="2">
         <v>1.1299999999999999</v>
@@ -3285,9 +3279,9 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B122" s="2">
         <v>1.21</v>
@@ -3299,9 +3293,9 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B123" s="2">
         <v>1.3</v>
@@ -3313,9 +3307,9 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B124" s="2">
         <v>1.37</v>
@@ -3327,9 +3321,9 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B125" s="2">
         <v>1.45</v>
@@ -3341,9 +3335,9 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B126" s="2">
         <v>1.54</v>
@@ -3355,9 +3349,9 @@
         <v>3.94</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B127" s="2">
         <v>1.6</v>
@@ -3369,9 +3363,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B128" s="2">
         <v>1.61</v>
@@ -3383,9 +3377,9 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B129" s="2">
         <v>1.53</v>
@@ -3397,9 +3391,9 @@
         <v>3.07</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B130" s="2">
         <v>1.48</v>
@@ -3411,9 +3405,9 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B131" s="2">
         <v>1.41</v>
@@ -3425,9 +3419,9 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B132" s="2">
         <v>1.35</v>
@@ -3439,9 +3433,9 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B133" s="2">
         <v>1.22</v>
@@ -3453,9 +3447,9 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B134" s="2">
         <v>1.2</v>
@@ -3467,9 +3461,9 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B135" s="2">
         <v>1.17</v>
@@ -3481,9 +3475,9 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B136" s="2">
         <v>1.2</v>
@@ -3495,9 +3489,9 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B137" s="2">
         <v>1.25</v>
@@ -3509,9 +3503,9 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B138" s="2">
         <v>1.1000000000000001</v>
@@ -3523,9 +3517,9 @@
         <v>2.64</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B139" s="2">
         <v>0.92</v>
@@ -3537,9 +3531,9 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B140" s="2">
         <v>0.63</v>
@@ -3551,9 +3545,9 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B141" s="2">
         <v>0.56000000000000005</v>
@@ -3565,9 +3559,9 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B142" s="2">
         <v>0.62</v>
@@ -3579,9 +3573,9 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B143" s="2">
         <v>0.61</v>
@@ -3593,9 +3587,9 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B144" s="2">
         <v>0.61</v>
@@ -3607,9 +3601,9 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B145" s="2">
         <v>0.64</v>
@@ -3621,31 +3615,31 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -3653,9 +3647,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D145" xr:uid="{711E96C0-72E0-40D0-B5C5-2356C5C3C468}"/>
-  <hyperlinks>
-    <hyperlink ref="H1" r:id="rId1" xr:uid="{B7E78482-F2B8-495B-B18E-FCD1220C6932}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3664,18 +3655,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E378C839-089A-4F4A-A203-014E3B2188F1}">
   <dimension ref="A2:L168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6:L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.54296875" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" customWidth="1"/>
+    <col min="10" max="10" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -3689,82 +3680,89 @@
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J2">
         <v>0.14169615999999999</v>
       </c>
       <c r="K2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2">
         <v>1.1599999999999999</v>
       </c>
       <c r="C3" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>2.41</v>
+        <f>B3</f>
+        <v>1.1599999999999999</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B4" s="2">
         <v>0.28000000000000003</v>
       </c>
       <c r="C4" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D4" s="2">
         <v>1.53</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B5" s="2">
         <v>0.31</v>
       </c>
       <c r="C5" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D5" s="2">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="I5" t="s">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K5" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="L5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2">
         <v>0.27</v>
       </c>
       <c r="C6" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D6" s="2">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -3774,22 +3772,27 @@
         <v>0.63166666666666671</v>
       </c>
       <c r="K6">
-        <f>J6*$J$2/1000</f>
-        <v>8.9504741066666666E-5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <f>J6*$J$2*1000</f>
+        <v>89.504741066666668</v>
+      </c>
+      <c r="L6">
+        <f>0.3*K6</f>
+        <v>26.851422320000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B7" s="2">
         <v>1.1299999999999999</v>
       </c>
       <c r="C7" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D7" s="2">
-        <v>2.38</v>
+        <v>1.53</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -3799,22 +3802,27 @@
         <v>0.62</v>
       </c>
       <c r="K7">
-        <f t="shared" ref="K7:K29" si="0">J7*$J$2/1000</f>
-        <v>8.7851619199999999E-5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <f t="shared" ref="K7:K29" si="0">J7*$J$2*1000</f>
+        <v>87.851619199999988</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ref="L7:L29" si="1">0.3*K7</f>
+        <v>26.355485759999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B8" s="2">
         <v>0.64</v>
       </c>
       <c r="C8" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D8" s="2">
-        <v>1.89</v>
+        <v>1.53</v>
       </c>
       <c r="I8">
         <v>3</v>
@@ -3825,20 +3833,24 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>8.6670817866666666E-5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>86.670817866666667</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>26.001245359999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
         <f>AVERAGE(B3:B8)</f>
         <v>0.63166666666666671</v>
       </c>
       <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" ref="C9:D9" si="1">AVERAGE(D3:D8)</f>
-        <v>1.8816666666666666</v>
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.53</v>
       </c>
       <c r="I9">
         <v>4</v>
@@ -3849,41 +3861,52 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>8.5726176799999986E-5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>85.72617679999999</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>25.717853039999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="C10" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D10" s="2">
-        <v>2.35</v>
+        <v>1.53</v>
       </c>
       <c r="I10">
         <v>5</v>
       </c>
       <c r="J10">
-        <v>1.8583333333333332</v>
+        <f>B36</f>
+        <v>0.50600000000000001</v>
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>2.6331869733333329E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>71.698256959999995</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>21.509477087999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B11" s="2">
         <v>0.28000000000000003</v>
       </c>
       <c r="C11" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D11" s="2">
@@ -3893,2367 +3916,2596 @@
         <v>6</v>
       </c>
       <c r="J11">
-        <v>2.3000000000000003</v>
+        <f>B43</f>
+        <v>0.60833333333333328</v>
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>3.25901168E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>86.198497333333322</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>25.859549199999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B12" s="2">
         <v>0.37</v>
       </c>
       <c r="C12" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D12" s="2">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="I12">
         <v>7</v>
       </c>
       <c r="J12">
-        <v>2.4733333333333336</v>
+        <f>B50</f>
+        <v>0.76000000000000012</v>
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>3.5046183573333333E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>107.68908160000001</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>32.30672448</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B13" s="2">
         <v>0.25</v>
       </c>
       <c r="C13" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D13" s="2">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="I13">
         <v>8</v>
       </c>
       <c r="J13">
-        <v>2.5983333333333332</v>
+        <f>B57</f>
+        <v>0.93333333333333324</v>
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>3.6817385573333327E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>132.24974933333331</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>39.674924799999992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B14" s="2">
         <v>1.1100000000000001</v>
       </c>
       <c r="C14" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D14" s="2">
-        <v>2.36</v>
+        <v>1.53</v>
       </c>
       <c r="I14">
         <v>9</v>
       </c>
       <c r="J14">
-        <v>2.5566666666666671</v>
+        <f>B64</f>
+        <v>1.0583333333333333</v>
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>3.6226984906666672E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>149.96176933333334</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>44.988530799999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B15" s="2">
         <v>0.61</v>
       </c>
       <c r="C15" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D15" s="2">
-        <v>1.86</v>
+        <v>1.53</v>
       </c>
       <c r="I15">
         <v>10</v>
       </c>
       <c r="J15">
-        <v>2.5250000000000004</v>
+        <f>B71</f>
+        <v>1.0166666666666668</v>
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>3.57782804E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>144.05776266666666</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>43.217328799999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B16" s="3">
         <f>AVERAGE(B10:B15)</f>
         <v>0.62</v>
       </c>
       <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" ref="C16:D16" si="2">AVERAGE(D10:D15)</f>
-        <v>1.8699999999999999</v>
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1.53</v>
       </c>
       <c r="I16">
         <v>11</v>
       </c>
       <c r="J16">
-        <v>2.4750000000000001</v>
+        <f>B78</f>
+        <v>0.98499999999999999</v>
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>3.5069799599999994E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>139.57071759999997</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>41.871215279999987</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2">
         <v>1.05</v>
       </c>
       <c r="C17" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D17" s="2">
-        <v>2.2999999999999998</v>
+        <v>1.53</v>
       </c>
       <c r="I17">
         <v>12</v>
       </c>
       <c r="J17">
-        <v>2.4583333333333335</v>
+        <f>B85</f>
+        <v>0.93500000000000005</v>
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>3.4833639333333333E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>132.48590960000001</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>39.745772880000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B18" s="2">
         <v>0.28999999999999998</v>
       </c>
       <c r="C18" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D18" s="2">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="I18">
         <v>13</v>
       </c>
       <c r="J18">
-        <v>2.4466666666666668</v>
+        <f>B92</f>
+        <v>0.91833333333333333</v>
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>3.4668327146666667E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>130.12430693333332</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>39.037292079999993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B19" s="2">
         <v>0.44</v>
       </c>
       <c r="C19" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D19" s="2">
-        <v>1.69</v>
+        <v>1.53</v>
       </c>
       <c r="I19">
         <v>14</v>
       </c>
       <c r="J19">
-        <v>2.5050000000000003</v>
+        <f>B99</f>
+        <v>0.90666666666666662</v>
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>3.5494888080000005E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>128.47118506666666</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>38.541355519999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B20" s="2">
         <v>0.19</v>
       </c>
       <c r="C20" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D20" s="2">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="I20">
         <v>15</v>
       </c>
       <c r="J20">
-        <v>2.5550000000000002</v>
+        <f>B106</f>
+        <v>0.96500000000000019</v>
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>3.620336888E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>136.73679440000004</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>41.021038320000009</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B21" s="2">
         <v>1.0900000000000001</v>
       </c>
       <c r="C21" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D21" s="2">
-        <v>2.34</v>
+        <v>1.53</v>
       </c>
       <c r="I21">
         <v>16</v>
       </c>
       <c r="J21">
-        <v>2.6066666666666669</v>
+        <f>B113</f>
+        <v>1.0149999999999999</v>
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>3.6935465706666666E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>143.82160239999996</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>43.146480719999985</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B22" s="2">
         <v>0.61</v>
       </c>
       <c r="C22" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D22" s="2">
-        <v>1.86</v>
+        <v>1.53</v>
       </c>
       <c r="I22">
         <v>17</v>
       </c>
       <c r="J22">
-        <v>3.5583333333333336</v>
+        <f>B120</f>
+        <v>1.0666666666666667</v>
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>5.0420216933333331E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>151.14257066666664</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>45.342771199999994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B23" s="3">
         <f>AVERAGE(B17:B22)</f>
         <v>0.61166666666666669</v>
       </c>
       <c r="C23" s="2">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3">
-        <f t="shared" ref="C23:D23" si="3">AVERAGE(D17:D22)</f>
-        <v>1.8616666666666664</v>
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1.53</v>
       </c>
       <c r="I23">
         <v>18</v>
       </c>
       <c r="J23">
-        <v>3.5066666666666664</v>
+        <f>B127</f>
+        <v>1.1583333333333334</v>
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>4.9688120106666659E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>164.13138533333333</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>49.239415599999994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2">
         <v>1.01</v>
       </c>
       <c r="C24" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D24" s="2">
-        <v>2.2599999999999998</v>
+        <v>1.53</v>
       </c>
       <c r="I24">
         <v>19</v>
       </c>
       <c r="J24">
-        <v>3.4016666666666668</v>
+        <f>B134</f>
+        <v>1.1066666666666667</v>
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>4.8200310426666664E-4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>156.81041706666664</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>47.043125119999992</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B25" s="2">
         <v>0.28999999999999998</v>
       </c>
       <c r="C25" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D25" s="2">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="I25">
         <v>20</v>
       </c>
       <c r="J25">
-        <v>3.3300000000000005</v>
+        <f>B141</f>
+        <v>1.0016666666666667</v>
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>4.7184821280000003E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>141.93232026666666</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>42.579696079999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B26" s="2">
         <v>0.43</v>
       </c>
       <c r="C26" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D26" s="2">
-        <v>1.68</v>
+        <v>1.53</v>
       </c>
       <c r="I26">
         <v>21</v>
       </c>
       <c r="J26">
-        <v>2.3600000000000003</v>
+        <f>B148</f>
+        <v>0.93</v>
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>3.344029376E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>131.7774288</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>39.533228639999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B27" s="2">
         <v>0.19</v>
       </c>
       <c r="C27" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D27" s="2">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="I27">
         <v>22</v>
       </c>
       <c r="J27">
-        <v>2.36</v>
+        <f>B154</f>
+        <v>0.82</v>
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>3.3440293759999995E-4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>116.19085119999998</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="1"/>
+        <v>34.857255359999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B28" s="2">
         <v>1.0900000000000001</v>
       </c>
       <c r="C28" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D28" s="2">
-        <v>2.34</v>
+        <v>1.53</v>
       </c>
       <c r="I28">
         <v>23</v>
       </c>
       <c r="J28">
-        <v>2.2799999999999998</v>
+        <f>B161</f>
+        <v>0.82</v>
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>3.2306724479999995E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>116.19085119999998</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="1"/>
+        <v>34.857255359999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B29" s="2">
         <v>0.62</v>
       </c>
       <c r="C29" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D29" s="2">
-        <v>1.87</v>
+        <v>1.53</v>
       </c>
       <c r="I29">
         <v>24</v>
       </c>
       <c r="J29">
-        <v>1.8816666666666666</v>
+        <f>B168</f>
+        <v>0.73999999999999988</v>
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
-        <v>2.6662494106666662E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>104.85515839999997</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="1"/>
+        <v>31.456547519999987</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B30" s="3">
         <f>AVERAGE(B24:B29)</f>
         <v>0.60499999999999998</v>
       </c>
       <c r="C30" s="2">
-        <v>0</v>
-      </c>
-      <c r="D30" s="3">
-        <f t="shared" ref="C30:D30" si="4">AVERAGE(D24:D29)</f>
-        <v>1.8549999999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B31" s="2">
         <v>0.4</v>
       </c>
       <c r="C31" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D31" s="2">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B32" s="2">
         <v>0.39</v>
       </c>
       <c r="C32" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D32" s="2">
-        <v>1.64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B33" s="2">
         <v>0.19</v>
       </c>
       <c r="C33" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D33" s="2">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B34" s="2">
         <v>0.99</v>
       </c>
       <c r="C34" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D34" s="2">
-        <v>2.2400000000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B35" s="2">
         <v>0.56000000000000005</v>
       </c>
       <c r="C35" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D35" s="2">
-        <v>1.81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B36" s="3">
         <f>AVERAGE(B31:B35)</f>
         <v>0.50600000000000001</v>
       </c>
       <c r="C36" s="2">
-        <v>0</v>
-      </c>
-      <c r="D36" s="3">
-        <f t="shared" ref="C36:D36" si="5">AVERAGE(D31:D35)</f>
-        <v>1.7560000000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B37" s="2">
         <v>1.05</v>
       </c>
       <c r="C37" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D37" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B38" s="2">
         <v>0.44</v>
       </c>
       <c r="C38" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D38" s="2">
-        <v>1.69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B39" s="2">
         <v>0.35</v>
       </c>
       <c r="C39" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D39" s="2">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B40" s="2">
         <v>0.19</v>
       </c>
       <c r="C40" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D40" s="2">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B41" s="2">
         <v>0.99</v>
       </c>
       <c r="C41" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D41" s="2">
-        <v>2.2400000000000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B42" s="2">
         <v>0.63</v>
       </c>
       <c r="C42" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D42" s="2">
-        <v>1.88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B43" s="3">
         <f>AVERAGE(B37:B42)</f>
         <v>0.60833333333333328</v>
       </c>
       <c r="C43" s="2">
-        <v>0</v>
-      </c>
-      <c r="D43" s="3">
-        <f t="shared" ref="C43:D43" si="6">AVERAGE(D37:D42)</f>
-        <v>1.8583333333333332</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B44" s="2">
         <v>1.26</v>
       </c>
       <c r="C44" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D44" s="2">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B45" s="2">
         <v>0.74</v>
       </c>
       <c r="C45" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D45" s="2">
-        <v>2.2799999999999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B46" s="2">
         <v>0.41</v>
       </c>
       <c r="C46" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D46" s="2">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B47" s="2">
         <v>0.19</v>
       </c>
       <c r="C47" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D47" s="2">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B48" s="2">
         <v>1.04</v>
       </c>
       <c r="C48" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D48" s="2">
-        <v>2.58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B49" s="2">
         <v>0.92</v>
       </c>
       <c r="C49" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D49" s="2">
-        <v>2.46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B50" s="3">
         <f>AVERAGE(B44:B49)</f>
         <v>0.76000000000000012</v>
       </c>
       <c r="C50" s="2">
-        <v>0</v>
-      </c>
-      <c r="D50" s="3">
-        <f t="shared" ref="C50:D50" si="7">AVERAGE(D44:D49)</f>
-        <v>2.3000000000000003</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B51" s="2">
         <v>1.42</v>
       </c>
       <c r="C51" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D51" s="2">
-        <v>2.96</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B52" s="2">
         <v>1.0900000000000001</v>
       </c>
       <c r="C52" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D52" s="2">
-        <v>2.63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B53" s="2">
         <v>0.45</v>
       </c>
       <c r="C53" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D53" s="2">
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B54" s="2">
         <v>0.19</v>
       </c>
       <c r="C54" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D54" s="2">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B55" s="2">
         <v>1.35</v>
       </c>
       <c r="C55" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D55" s="2">
-        <v>2.89</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B56" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="C56" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D56" s="2">
-        <v>2.64</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B57" s="3">
         <f>AVERAGE(B51:B56)</f>
         <v>0.93333333333333324</v>
       </c>
       <c r="C57" s="2">
-        <v>0</v>
-      </c>
-      <c r="D57" s="3">
-        <f t="shared" ref="C57:D57" si="8">AVERAGE(D51:D56)</f>
-        <v>2.4733333333333336</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B58" s="2">
         <v>1.62</v>
       </c>
       <c r="C58" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D58" s="2">
-        <v>3.16</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B59" s="2">
         <v>1.26</v>
       </c>
       <c r="C59" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D59" s="2">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B60" s="2">
         <v>0.43</v>
       </c>
       <c r="C60" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D60" s="2">
-        <v>1.97</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B61" s="2">
         <v>0.26</v>
       </c>
       <c r="C61" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D61" s="2">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B62" s="2">
         <v>1.53</v>
       </c>
       <c r="C62" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D62" s="2">
-        <v>3.07</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B63" s="2">
         <v>1.25</v>
       </c>
       <c r="C63" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D63" s="2">
-        <v>2.79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B64" s="3">
         <f>AVERAGE(B58:B63)</f>
         <v>1.0583333333333333</v>
       </c>
       <c r="C64" s="2">
-        <v>0</v>
-      </c>
-      <c r="D64" s="3">
-        <f t="shared" ref="C64:D64" si="9">AVERAGE(D58:D63)</f>
-        <v>2.5983333333333332</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B65" s="2">
         <v>1.64</v>
       </c>
       <c r="C65" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D65" s="2">
-        <v>3.18</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B66" s="2">
         <v>1.1100000000000001</v>
       </c>
       <c r="C66" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D66" s="2">
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B67" s="2">
         <v>0.44</v>
       </c>
       <c r="C67" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D67" s="2">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B68" s="2">
         <v>0.27</v>
       </c>
       <c r="C68" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D68" s="2">
-        <v>1.81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B69" s="2">
         <v>1.44</v>
       </c>
       <c r="C69" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D69" s="2">
-        <v>2.98</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B70" s="2">
         <v>1.2</v>
       </c>
       <c r="C70" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D70" s="2">
-        <v>2.74</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B71" s="3">
         <f>AVERAGE(B65:B70)</f>
         <v>1.0166666666666668</v>
       </c>
       <c r="C71" s="2">
-        <v>0</v>
-      </c>
-      <c r="D71" s="3">
-        <f>AVERAGE(D65:D70)</f>
-        <v>2.5566666666666671</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B72" s="2">
         <v>1.62</v>
       </c>
       <c r="C72" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D72" s="2">
-        <v>3.16</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B73" s="2">
         <v>0.96</v>
       </c>
       <c r="C73" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D73" s="2">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B74" s="2">
         <v>0.38</v>
       </c>
       <c r="C74" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D74" s="2">
-        <v>1.92</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B75" s="2">
         <v>0.37</v>
       </c>
       <c r="C75" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D75" s="2">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B76" s="2">
         <v>1.41</v>
       </c>
       <c r="C76" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D76" s="2">
-        <v>2.95</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B77" s="2">
         <v>1.17</v>
       </c>
       <c r="C77" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D77" s="2">
-        <v>2.71</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B78" s="3">
         <f>AVERAGE(B72:B77)</f>
         <v>0.98499999999999999</v>
       </c>
       <c r="C78" s="2">
-        <v>0</v>
-      </c>
-      <c r="D78" s="3">
-        <f>AVERAGE(D72:D77)</f>
-        <v>2.5250000000000004</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D78" s="2">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B79" s="2">
         <v>1.58</v>
       </c>
       <c r="C79" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D79" s="2">
-        <v>3.12</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B80" s="2">
         <v>0.92</v>
       </c>
       <c r="C80" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D80" s="2">
-        <v>2.46</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B81" s="2">
         <v>0.34</v>
       </c>
       <c r="C81" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D81" s="2">
-        <v>1.88</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B82" s="2">
         <v>0.41</v>
       </c>
       <c r="C82" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D82" s="2">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B83" s="2">
         <v>1.1599999999999999</v>
       </c>
       <c r="C83" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D83" s="2">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B84" s="2">
         <v>1.2</v>
       </c>
       <c r="C84" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D84" s="2">
-        <v>2.74</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B85" s="3">
         <f>AVERAGE(B79:B84)</f>
         <v>0.93500000000000005</v>
       </c>
       <c r="C85" s="2">
-        <v>0</v>
-      </c>
-      <c r="D85" s="3">
-        <f>AVERAGE(D79:D84)</f>
-        <v>2.4750000000000001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D85" s="2">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B86" s="2">
         <v>1.54</v>
       </c>
       <c r="C86" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D86" s="2">
-        <v>3.08</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B87" s="2">
         <v>0.88</v>
       </c>
       <c r="C87" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D87" s="2">
-        <v>2.42</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B88" s="2">
         <v>0.34</v>
       </c>
       <c r="C88" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D88" s="2">
-        <v>1.88</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B89" s="2">
         <v>0.42</v>
       </c>
       <c r="C89" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D89" s="2">
-        <v>1.96</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B90" s="2">
         <v>1.1100000000000001</v>
       </c>
       <c r="C90" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D90" s="2">
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B91" s="2">
         <v>1.22</v>
       </c>
       <c r="C91" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D91" s="2">
-        <v>2.76</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B92" s="3">
         <f>AVERAGE(B86:B91)</f>
         <v>0.91833333333333333</v>
       </c>
       <c r="C92" s="2">
-        <v>0</v>
-      </c>
-      <c r="D92" s="3">
-        <f t="shared" ref="C92:D92" si="10">AVERAGE(D86:D91)</f>
-        <v>2.4583333333333335</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D92" s="2">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B93" s="2">
         <v>1.51</v>
       </c>
       <c r="C93" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D93" s="2">
-        <v>3.05</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B94" s="2">
         <v>0.81</v>
       </c>
       <c r="C94" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D94" s="2">
-        <v>2.35</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B95" s="2">
         <v>0.3</v>
       </c>
       <c r="C95" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D95" s="2">
-        <v>1.84</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B96" s="2">
         <v>0.41</v>
       </c>
       <c r="C96" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D96" s="2">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B97" s="2">
         <v>1.06</v>
       </c>
       <c r="C97" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D97" s="2">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B98" s="2">
         <v>1.35</v>
       </c>
       <c r="C98" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D98" s="2">
-        <v>2.89</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B99" s="3">
         <f>AVERAGE(B93:B98)</f>
         <v>0.90666666666666662</v>
       </c>
       <c r="C99" s="2">
-        <v>0</v>
-      </c>
-      <c r="D99" s="3">
-        <f t="shared" ref="C99:D99" si="11">AVERAGE(D93:D98)</f>
-        <v>2.4466666666666668</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D99" s="2">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B100" s="2">
         <v>1.47</v>
       </c>
       <c r="C100" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D100" s="2">
-        <v>3.01</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B101" s="2">
         <v>0.93</v>
       </c>
       <c r="C101" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D101" s="2">
-        <v>2.4700000000000002</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B102" s="2">
         <v>0.51</v>
       </c>
       <c r="C102" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D102" s="2">
-        <v>2.0499999999999998</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B103" s="2">
         <v>0.43</v>
       </c>
       <c r="C103" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D103" s="2">
-        <v>1.97</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B104" s="2">
         <v>1.04</v>
       </c>
       <c r="C104" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D104" s="2">
-        <v>2.58</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B105" s="2">
         <v>1.41</v>
       </c>
       <c r="C105" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D105" s="2">
-        <v>2.95</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B106" s="3">
         <f>AVERAGE(B100:B105)</f>
         <v>0.96500000000000019</v>
       </c>
       <c r="C106" s="2">
-        <v>0</v>
-      </c>
-      <c r="D106" s="3">
-        <f t="shared" ref="C106:D106" si="12">AVERAGE(D100:D105)</f>
-        <v>2.5050000000000003</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D106" s="2">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B107" s="2">
         <v>1.38</v>
       </c>
       <c r="C107" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D107" s="2">
-        <v>2.92</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B108" s="2">
         <v>1.22</v>
       </c>
       <c r="C108" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D108" s="2">
-        <v>2.76</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B109" s="2">
         <v>0.47</v>
       </c>
       <c r="C109" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D109" s="2">
-        <v>2.0099999999999998</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B110" s="2">
         <v>0.5</v>
       </c>
       <c r="C110" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D110" s="2">
-        <v>2.04</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B111" s="2">
         <v>1.04</v>
       </c>
       <c r="C111" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D111" s="2">
-        <v>2.58</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B112" s="2">
         <v>1.48</v>
       </c>
       <c r="C112" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D112" s="2">
-        <v>3.02</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B113" s="3">
         <f>AVERAGE(B107:B112)</f>
         <v>1.0149999999999999</v>
       </c>
       <c r="C113" s="2">
-        <v>0</v>
-      </c>
-      <c r="D113" s="3">
-        <f t="shared" ref="C113:D113" si="13">AVERAGE(D107:D112)</f>
-        <v>2.5550000000000002</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D113" s="2">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B114" s="2">
         <v>1.4</v>
       </c>
       <c r="C114" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D114" s="2">
-        <v>2.94</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B115" s="2">
         <v>1.38</v>
       </c>
       <c r="C115" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D115" s="2">
-        <v>2.92</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B116" s="2">
         <v>0.52</v>
       </c>
       <c r="C116" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D116" s="2">
-        <v>2.06</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B117" s="2">
         <v>0.52</v>
       </c>
       <c r="C117" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D117" s="2">
-        <v>2.06</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B118" s="2">
         <v>1.05</v>
       </c>
       <c r="C118" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D118" s="2">
-        <v>2.59</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B119" s="2">
         <v>1.53</v>
       </c>
       <c r="C119" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D119" s="2">
-        <v>3.07</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B120" s="3">
         <f>AVERAGE(B114:B119)</f>
         <v>1.0666666666666667</v>
       </c>
       <c r="C120" s="2">
-        <v>0</v>
-      </c>
-      <c r="D120" s="3">
-        <f t="shared" ref="C120:D120" si="14">AVERAGE(D114:D119)</f>
-        <v>2.6066666666666669</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D120" s="2">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B121" s="2">
         <v>1.48</v>
       </c>
       <c r="C121" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D121" s="2">
-        <v>3.88</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B122" s="2">
         <v>1.64</v>
       </c>
       <c r="C122" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D122" s="2">
-        <v>4.04</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B123" s="2">
         <v>0.53</v>
       </c>
       <c r="C123" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D123" s="2">
-        <v>2.93</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B124" s="2">
         <v>0.6</v>
       </c>
       <c r="C124" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D124" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B125" s="2">
         <v>1.0900000000000001</v>
       </c>
       <c r="C125" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D125" s="2">
-        <v>3.49</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B126" s="2">
         <v>1.61</v>
       </c>
       <c r="C126" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D126" s="2">
-        <v>4.01</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B127" s="3">
         <f>AVERAGE(B121:B126)</f>
         <v>1.1583333333333334</v>
       </c>
       <c r="C127" s="2">
-        <v>0</v>
-      </c>
-      <c r="D127" s="3">
-        <f t="shared" ref="C127:D127" si="15">AVERAGE(D121:D126)</f>
-        <v>3.5583333333333336</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D127" s="2">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B128" s="2">
         <v>1.4</v>
       </c>
       <c r="C128" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D128" s="2">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B129" s="2">
         <v>1.67</v>
       </c>
       <c r="C129" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D129" s="2">
-        <v>4.07</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B130" s="2">
         <v>0.52</v>
       </c>
       <c r="C130" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D130" s="2">
-        <v>2.92</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B131" s="2">
         <v>0.57999999999999996</v>
       </c>
       <c r="C131" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D131" s="2">
-        <v>2.98</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B132" s="2">
         <v>0.87</v>
       </c>
       <c r="C132" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D132" s="2">
-        <v>3.27</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B133" s="2">
         <v>1.6</v>
       </c>
       <c r="C133" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D133" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B134" s="3">
         <f>AVERAGE(B128:B133)</f>
         <v>1.1066666666666667</v>
       </c>
       <c r="C134" s="2">
-        <v>0</v>
-      </c>
-      <c r="D134" s="3">
-        <f t="shared" ref="C134:D134" si="16">AVERAGE(D128:D133)</f>
-        <v>3.5066666666666664</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D134" s="2">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B135" s="2">
         <v>1.33</v>
       </c>
       <c r="C135" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D135" s="2">
-        <v>3.73</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B136" s="2">
         <v>1.57</v>
       </c>
       <c r="C136" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D136" s="2">
-        <v>3.97</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B137" s="2">
         <v>0.51</v>
       </c>
       <c r="C137" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D137" s="2">
-        <v>2.91</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B138" s="2">
         <v>0.53</v>
       </c>
       <c r="C138" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D138" s="2">
-        <v>2.93</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B139" s="2">
         <v>0.53</v>
       </c>
       <c r="C139" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D139" s="2">
-        <v>2.93</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B140" s="2">
         <v>1.54</v>
       </c>
       <c r="C140" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D140" s="2">
-        <v>3.94</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B141" s="3">
         <f>AVERAGE(B135:B140)</f>
         <v>1.0016666666666667</v>
       </c>
       <c r="C141" s="2">
-        <v>0</v>
-      </c>
-      <c r="D141" s="3">
-        <f t="shared" ref="C141:D141" si="17">AVERAGE(D135:D140)</f>
-        <v>3.4016666666666668</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D141" s="2">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B142" s="2">
         <v>1.25</v>
       </c>
       <c r="C142" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D142" s="2">
-        <v>3.65</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B143" s="2">
         <v>1.35</v>
       </c>
       <c r="C143" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D143" s="2">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B144" s="2">
         <v>0.5</v>
       </c>
       <c r="C144" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D144" s="2">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B145" s="2">
         <v>0.5</v>
       </c>
       <c r="C145" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D145" s="2">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B146" s="2">
         <v>0.53</v>
       </c>
       <c r="C146" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D146" s="2">
-        <v>2.93</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B147" s="2">
         <v>1.45</v>
       </c>
       <c r="C147" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D147" s="2">
-        <v>3.85</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B148" s="3">
         <f>AVERAGE(B142:B147)</f>
         <v>0.93</v>
       </c>
       <c r="C148" s="2">
-        <v>0</v>
-      </c>
-      <c r="D148" s="3">
-        <f t="shared" ref="C148:D148" si="18">AVERAGE(D142:D147)</f>
-        <v>3.3300000000000005</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D148" s="2">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B149" s="2">
         <v>1.26</v>
       </c>
       <c r="C149" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D149" s="2">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B150" s="2">
         <v>0.49</v>
       </c>
       <c r="C150" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D150" s="2">
-        <v>2.0299999999999998</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B151" s="2">
         <v>0.52</v>
       </c>
       <c r="C151" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D151" s="2">
-        <v>2.06</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B152" s="2">
         <v>0.46</v>
       </c>
       <c r="C152" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D152" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B153" s="2">
         <v>1.37</v>
       </c>
       <c r="C153" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D153" s="2">
-        <v>2.91</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B154" s="3">
         <f>AVERAGE(B149:B153)</f>
         <v>0.82</v>
       </c>
       <c r="C154" s="2">
-        <v>0</v>
-      </c>
-      <c r="D154" s="3">
-        <f t="shared" ref="C154:D154" si="19">AVERAGE(D149:D153)</f>
-        <v>2.3600000000000003</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D154" s="2">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B155" s="2">
         <v>1.1399999999999999</v>
       </c>
       <c r="C155" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D155" s="2">
-        <v>2.68</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B156" s="2">
         <v>1.25</v>
       </c>
       <c r="C156" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D156" s="2">
-        <v>2.79</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B157" s="2">
         <v>0.45</v>
       </c>
       <c r="C157" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D157" s="2">
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B158" s="2">
         <v>0.47</v>
       </c>
       <c r="C158" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D158" s="2">
-        <v>2.0099999999999998</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B159" s="2">
         <v>0.31</v>
       </c>
       <c r="C159" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D159" s="2">
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B160" s="2">
         <v>1.3</v>
       </c>
       <c r="C160" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D160" s="2">
-        <v>2.84</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B161" s="3">
         <f>AVERAGE(B155:B160)</f>
         <v>0.82</v>
       </c>
       <c r="C161" s="2">
-        <v>0</v>
-      </c>
-      <c r="D161" s="3">
-        <f t="shared" ref="C161:D161" si="20">AVERAGE(D155:D160)</f>
-        <v>2.36</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D161" s="2">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B162" s="2">
         <v>1</v>
       </c>
       <c r="C162" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D162" s="2">
-        <v>2.54</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B163" s="2">
         <v>1.17</v>
       </c>
       <c r="C163" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D163" s="2">
-        <v>2.71</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B164" s="2">
         <v>0.38</v>
       </c>
       <c r="C164" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D164" s="2">
-        <v>1.92</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B165" s="2">
         <v>0.41</v>
       </c>
       <c r="C165" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D165" s="2">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B166" s="2">
         <v>0.27</v>
       </c>
       <c r="C166" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D166" s="2">
-        <v>1.81</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B167" s="2">
         <v>1.21</v>
       </c>
       <c r="C167" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D167" s="2">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B168" s="3">
         <f>AVERAGE(B162:B167)</f>
         <v>0.73999999999999988</v>
       </c>
       <c r="C168" s="3">
-        <f t="shared" ref="C168:D168" si="21">AVERAGE(C162:C167)</f>
+        <f t="shared" ref="C168:D168" si="2">AVERAGE(C162:C167)</f>
         <v>0</v>
       </c>
       <c r="D168" s="3">
-        <f t="shared" si="21"/>
-        <v>2.2799999999999998</v>
+        <f t="shared" si="2"/>
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>
@@ -6265,6 +6517,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100AEDD2C58C424B74499DE9AAA38D1F837" ma:contentTypeVersion="4" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="702f087d0813d5dfa38d019e1cfe3dbe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="59a1f2c9-9aa0-4700-bb29-973d29195b9e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f1c68433e2c2319791049a96af9fb53" ns2:_="">
     <xsd:import namespace="59a1f2c9-9aa0-4700-bb29-973d29195b9e"/>
@@ -6408,29 +6675,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80DA1591-5D0E-493F-827A-BF7F96FE3311}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B71B140-D529-43D3-80C5-DF1F266F3D83}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{540BE6A0-27F9-419F-8224-019FE94C5CBE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{540BE6A0-27F9-419F-8224-019FE94C5CBE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B71B140-D529-43D3-80C5-DF1F266F3D83}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80DA1591-5D0E-493F-827A-BF7F96FE3311}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="59a1f2c9-9aa0-4700-bb29-973d29195b9e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Load dataset.xlsx
+++ b/Load dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Opti in modern power systems\code\optimization_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1C5213-9D9F-4E84-BB7E-9A915FA647B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802C8543-EC60-4BE6-8899-15A21456E348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="159">
   <si>
     <t>Hour</t>
   </si>
@@ -517,6 +517,9 @@
   </si>
   <si>
     <t>Dkk/kWh</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
 </sst>
 </file>
@@ -1138,7 +1141,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1148,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -6517,21 +6520,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100AEDD2C58C424B74499DE9AAA38D1F837" ma:contentTypeVersion="4" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="702f087d0813d5dfa38d019e1cfe3dbe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="59a1f2c9-9aa0-4700-bb29-973d29195b9e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f1c68433e2c2319791049a96af9fb53" ns2:_="">
     <xsd:import namespace="59a1f2c9-9aa0-4700-bb29-973d29195b9e"/>
@@ -6675,24 +6663,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B71B140-D529-43D3-80C5-DF1F266F3D83}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{540BE6A0-27F9-419F-8224-019FE94C5CBE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80DA1591-5D0E-493F-827A-BF7F96FE3311}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6708,4 +6694,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{540BE6A0-27F9-419F-8224-019FE94C5CBE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B71B140-D529-43D3-80C5-DF1F266F3D83}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Load dataset.xlsx
+++ b/Load dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Opti in modern power systems\code\optimization_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1C5213-9D9F-4E84-BB7E-9A915FA647B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C4901E-BB22-4295-838B-F94F2FCE29A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Load profile" sheetId="1" r:id="rId1"/>
@@ -43,23 +43,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="159">
   <si>
     <t>Hour</t>
   </si>
   <si>
-    <t>System demand (MW)</t>
-  </si>
-  <si>
-    <t>Load #</t>
-  </si>
-  <si>
     <t>Node</t>
   </si>
   <si>
-    <t>% of system load</t>
-  </si>
-  <si>
     <t>$/MWh</t>
   </si>
   <si>
@@ -517,6 +508,18 @@
   </si>
   <si>
     <t>Dkk/kWh</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>Load</t>
+  </si>
+  <si>
+    <t>percent_sys_load</t>
+  </si>
+  <si>
+    <t>System_demand</t>
   </si>
 </sst>
 </file>
@@ -918,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -933,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -1137,8 +1140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE9AD59-411E-4291-875A-DE2F5FAB8CE2}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1148,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -1353,7 +1356,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1363,13 +1366,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -1582,26 +1585,26 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="M1" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -1615,7 +1618,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2">
         <v>1.1399999999999999</v>
@@ -1629,7 +1632,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2">
         <v>1.18</v>
@@ -1643,7 +1646,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2">
         <v>1.25</v>
@@ -1657,7 +1660,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2">
         <v>1.33</v>
@@ -1671,7 +1674,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2">
         <v>1.4</v>
@@ -1685,7 +1688,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2">
         <v>1.48</v>
@@ -1699,7 +1702,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2">
         <v>1.4</v>
@@ -1713,7 +1716,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2">
         <v>1.38</v>
@@ -1727,7 +1730,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2">
         <v>1.47</v>
@@ -1741,7 +1744,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2">
         <v>1.51</v>
@@ -1755,7 +1758,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2">
         <v>1.54</v>
@@ -1769,7 +1772,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2">
         <v>1.58</v>
@@ -1783,7 +1786,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2">
         <v>1.62</v>
@@ -1797,7 +1800,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B16" s="2">
         <v>1.64</v>
@@ -1811,7 +1814,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2">
         <v>1.62</v>
@@ -1825,7 +1828,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2">
         <v>1.42</v>
@@ -1839,7 +1842,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B19" s="2">
         <v>1.26</v>
@@ -1853,7 +1856,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B20" s="2">
         <v>1.05</v>
@@ -1867,7 +1870,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B21" s="2">
         <v>1.05</v>
@@ -1881,7 +1884,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B22" s="2">
         <v>1.01</v>
@@ -1895,7 +1898,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B23" s="2">
         <v>1.05</v>
@@ -1909,7 +1912,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B24" s="2">
         <v>1.1000000000000001</v>
@@ -1923,7 +1926,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B25" s="2">
         <v>1.1599999999999999</v>
@@ -1937,7 +1940,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B26" s="2">
         <v>1.17</v>
@@ -1951,7 +1954,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B27" s="2">
         <v>1.25</v>
@@ -1965,7 +1968,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B28" s="2">
         <v>1.26</v>
@@ -1979,7 +1982,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2">
         <v>1.35</v>
@@ -1993,7 +1996,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2">
         <v>1.57</v>
@@ -2007,7 +2010,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B31" s="2">
         <v>1.67</v>
@@ -2021,7 +2024,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B32" s="2">
         <v>1.64</v>
@@ -2035,7 +2038,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B33" s="2">
         <v>1.38</v>
@@ -2049,7 +2052,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2">
         <v>1.22</v>
@@ -2063,7 +2066,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B35" s="2">
         <v>0.93</v>
@@ -2077,7 +2080,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B36" s="2">
         <v>0.81</v>
@@ -2091,7 +2094,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B37" s="2">
         <v>0.88</v>
@@ -2105,7 +2108,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B38" s="2">
         <v>0.92</v>
@@ -2119,7 +2122,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2">
         <v>0.96</v>
@@ -2133,7 +2136,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B40" s="2">
         <v>1.1100000000000001</v>
@@ -2147,7 +2150,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B41" s="2">
         <v>1.26</v>
@@ -2161,7 +2164,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B42" s="2">
         <v>1.0900000000000001</v>
@@ -2175,7 +2178,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B43" s="2">
         <v>0.74</v>
@@ -2189,7 +2192,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B44" s="2">
         <v>0.44</v>
@@ -2203,7 +2206,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B45" s="2">
         <v>0.4</v>
@@ -2217,7 +2220,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B46" s="2">
         <v>0.28999999999999998</v>
@@ -2231,7 +2234,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B47" s="2">
         <v>0.28999999999999998</v>
@@ -2245,7 +2248,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B48" s="2">
         <v>0.28000000000000003</v>
@@ -2259,7 +2262,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B49" s="2">
         <v>0.28000000000000003</v>
@@ -2273,7 +2276,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B50" s="2">
         <v>0.38</v>
@@ -2287,7 +2290,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B51" s="2">
         <v>0.45</v>
@@ -2301,7 +2304,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B52" s="2">
         <v>0.49</v>
@@ -2315,7 +2318,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B53" s="2">
         <v>0.5</v>
@@ -2329,7 +2332,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B54" s="2">
         <v>0.51</v>
@@ -2343,7 +2346,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B55" s="2">
         <v>0.52</v>
@@ -2357,7 +2360,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B56" s="2">
         <v>0.53</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B57" s="2">
         <v>0.52</v>
@@ -2385,7 +2388,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B58" s="2">
         <v>0.47</v>
@@ -2399,7 +2402,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B59" s="2">
         <v>0.51</v>
@@ -2413,7 +2416,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B60" s="2">
         <v>0.3</v>
@@ -2427,7 +2430,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B61" s="2">
         <v>0.34</v>
@@ -2441,7 +2444,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B62" s="2">
         <v>0.34</v>
@@ -2455,7 +2458,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B63" s="2">
         <v>0.38</v>
@@ -2469,7 +2472,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B64" s="2">
         <v>0.44</v>
@@ -2483,7 +2486,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B65" s="2">
         <v>0.43</v>
@@ -2497,7 +2500,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B66" s="2">
         <v>0.45</v>
@@ -2511,7 +2514,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B67" s="2">
         <v>0.41</v>
@@ -2525,7 +2528,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B68" s="2">
         <v>0.35</v>
@@ -2539,7 +2542,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B69" s="2">
         <v>0.39</v>
@@ -2553,7 +2556,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B70" s="2">
         <v>0.43</v>
@@ -2567,7 +2570,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B71" s="2">
         <v>0.44</v>
@@ -2581,7 +2584,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B72" s="2">
         <v>0.37</v>
@@ -2595,7 +2598,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B73" s="2">
         <v>0.31</v>
@@ -2609,7 +2612,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B74" s="2">
         <v>0.41</v>
@@ -2623,7 +2626,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B75" s="2">
         <v>0.47</v>
@@ -2637,7 +2640,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B76" s="2">
         <v>0.52</v>
@@ -2651,7 +2654,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B77" s="2">
         <v>0.5</v>
@@ -2665,7 +2668,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B78" s="2">
         <v>0.53</v>
@@ -2679,7 +2682,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B79" s="2">
         <v>0.57999999999999996</v>
@@ -2693,7 +2696,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B80" s="2">
         <v>0.6</v>
@@ -2707,7 +2710,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B81" s="2">
         <v>0.52</v>
@@ -2721,7 +2724,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B82" s="2">
         <v>0.5</v>
@@ -2735,7 +2738,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B83" s="2">
         <v>0.43</v>
@@ -2749,7 +2752,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B84" s="2">
         <v>0.41</v>
@@ -2763,7 +2766,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B85" s="2">
         <v>0.42</v>
@@ -2777,7 +2780,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B86" s="2">
         <v>0.41</v>
@@ -2791,7 +2794,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B87" s="2">
         <v>0.37</v>
@@ -2805,7 +2808,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B88" s="2">
         <v>0.27</v>
@@ -2819,7 +2822,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B89" s="2">
         <v>0.26</v>
@@ -2833,7 +2836,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B90" s="2">
         <v>0.19</v>
@@ -2847,7 +2850,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B91" s="2">
         <v>0.19</v>
@@ -2861,7 +2864,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B92" s="2">
         <v>0.19</v>
@@ -2875,7 +2878,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B93" s="2">
         <v>0.19</v>
@@ -2889,7 +2892,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B94" s="2">
         <v>0.19</v>
@@ -2903,7 +2906,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B95" s="2">
         <v>0.19</v>
@@ -2917,7 +2920,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B96" s="2">
         <v>0.25</v>
@@ -2931,7 +2934,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B97" s="2">
         <v>0.27</v>
@@ -2945,7 +2948,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B98" s="2">
         <v>0.27</v>
@@ -2959,7 +2962,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B99" s="2">
         <v>0.31</v>
@@ -2973,7 +2976,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B100" s="2">
         <v>0.46</v>
@@ -2987,7 +2990,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B101" s="2">
         <v>0.53</v>
@@ -3001,7 +3004,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B102" s="2">
         <v>0.53</v>
@@ -3015,7 +3018,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B103" s="2">
         <v>0.87</v>
@@ -3029,7 +3032,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B104" s="2">
         <v>1.0900000000000001</v>
@@ -3043,7 +3046,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B105" s="2">
         <v>1.05</v>
@@ -3057,7 +3060,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B106" s="2">
         <v>1.04</v>
@@ -3071,7 +3074,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B107" s="2">
         <v>1.04</v>
@@ -3085,7 +3088,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B108" s="2">
         <v>1.06</v>
@@ -3099,7 +3102,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B109" s="2">
         <v>1.1100000000000001</v>
@@ -3113,7 +3116,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B110" s="2">
         <v>1.1599999999999999</v>
@@ -3127,7 +3130,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B111" s="2">
         <v>1.41</v>
@@ -3141,7 +3144,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B112" s="2">
         <v>1.44</v>
@@ -3155,7 +3158,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B113" s="2">
         <v>1.53</v>
@@ -3169,7 +3172,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B114" s="2">
         <v>1.35</v>
@@ -3183,7 +3186,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B115" s="2">
         <v>1.04</v>
@@ -3197,7 +3200,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B116" s="2">
         <v>0.99</v>
@@ -3211,7 +3214,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B117" s="2">
         <v>0.99</v>
@@ -3225,7 +3228,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B118" s="2">
         <v>1.0900000000000001</v>
@@ -3239,7 +3242,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B119" s="2">
         <v>1.0900000000000001</v>
@@ -3253,7 +3256,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B120" s="2">
         <v>1.1100000000000001</v>
@@ -3267,7 +3270,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B121" s="2">
         <v>1.1299999999999999</v>
@@ -3281,7 +3284,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B122" s="2">
         <v>1.21</v>
@@ -3295,7 +3298,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B123" s="2">
         <v>1.3</v>
@@ -3309,7 +3312,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B124" s="2">
         <v>1.37</v>
@@ -3323,7 +3326,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B125" s="2">
         <v>1.45</v>
@@ -3337,7 +3340,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B126" s="2">
         <v>1.54</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B127" s="2">
         <v>1.6</v>
@@ -3365,7 +3368,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B128" s="2">
         <v>1.61</v>
@@ -3379,7 +3382,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B129" s="2">
         <v>1.53</v>
@@ -3393,7 +3396,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B130" s="2">
         <v>1.48</v>
@@ -3407,7 +3410,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B131" s="2">
         <v>1.41</v>
@@ -3421,7 +3424,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B132" s="2">
         <v>1.35</v>
@@ -3435,7 +3438,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B133" s="2">
         <v>1.22</v>
@@ -3449,7 +3452,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B134" s="2">
         <v>1.2</v>
@@ -3463,7 +3466,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B135" s="2">
         <v>1.17</v>
@@ -3477,7 +3480,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B136" s="2">
         <v>1.2</v>
@@ -3491,7 +3494,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B137" s="2">
         <v>1.25</v>
@@ -3505,7 +3508,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B138" s="2">
         <v>1.1000000000000001</v>
@@ -3519,7 +3522,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B139" s="2">
         <v>0.92</v>
@@ -3533,7 +3536,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B140" s="2">
         <v>0.63</v>
@@ -3547,7 +3550,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B141" s="2">
         <v>0.56000000000000005</v>
@@ -3561,7 +3564,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B142" s="2">
         <v>0.62</v>
@@ -3575,7 +3578,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B143" s="2">
         <v>0.61</v>
@@ -3589,7 +3592,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B144" s="2">
         <v>0.61</v>
@@ -3603,7 +3606,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B145" s="2">
         <v>0.64</v>
@@ -3668,30 +3671,30 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="I2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J2">
         <v>0.14169615999999999</v>
       </c>
       <c r="K2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2">
         <v>1.1599999999999999</v>
@@ -3705,12 +3708,12 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2">
         <v>0.28000000000000003</v>
@@ -3725,7 +3728,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2">
         <v>0.31</v>
@@ -3741,18 +3744,18 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2">
         <v>0.27</v>
@@ -3782,7 +3785,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B7" s="2">
         <v>1.1299999999999999</v>
@@ -3812,7 +3815,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B8" s="2">
         <v>0.64</v>
@@ -3870,7 +3873,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B10" s="2">
         <v>1.1000000000000001</v>
@@ -3900,7 +3903,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B11" s="2">
         <v>0.28000000000000003</v>
@@ -3930,7 +3933,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B12" s="2">
         <v>0.37</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B13" s="2">
         <v>0.25</v>
@@ -3990,7 +3993,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B14" s="2">
         <v>1.1100000000000001</v>
@@ -4020,7 +4023,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B15" s="2">
         <v>0.61</v>
@@ -4078,7 +4081,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2">
         <v>1.05</v>
@@ -4108,7 +4111,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B18" s="2">
         <v>0.28999999999999998</v>
@@ -4138,7 +4141,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B19" s="2">
         <v>0.44</v>
@@ -4168,7 +4171,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B20" s="2">
         <v>0.19</v>
@@ -4198,7 +4201,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B21" s="2">
         <v>1.0900000000000001</v>
@@ -4228,7 +4231,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B22" s="2">
         <v>0.61</v>
@@ -4286,7 +4289,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B24" s="2">
         <v>1.01</v>
@@ -4316,7 +4319,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B25" s="2">
         <v>0.28999999999999998</v>
@@ -4346,7 +4349,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B26" s="2">
         <v>0.43</v>
@@ -4376,7 +4379,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B27" s="2">
         <v>0.19</v>
@@ -4406,7 +4409,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B28" s="2">
         <v>1.0900000000000001</v>
@@ -4436,7 +4439,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B29" s="2">
         <v>0.62</v>
@@ -4479,7 +4482,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B31" s="2">
         <v>0.4</v>
@@ -4494,7 +4497,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B32" s="2">
         <v>0.39</v>
@@ -4509,7 +4512,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B33" s="2">
         <v>0.19</v>
@@ -4524,7 +4527,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B34" s="2">
         <v>0.99</v>
@@ -4539,7 +4542,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B35" s="2">
         <v>0.56000000000000005</v>
@@ -4567,7 +4570,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B37" s="2">
         <v>1.05</v>
@@ -4582,7 +4585,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B38" s="2">
         <v>0.44</v>
@@ -4597,7 +4600,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B39" s="2">
         <v>0.35</v>
@@ -4612,7 +4615,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B40" s="2">
         <v>0.19</v>
@@ -4627,7 +4630,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B41" s="2">
         <v>0.99</v>
@@ -4642,7 +4645,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B42" s="2">
         <v>0.63</v>
@@ -4670,7 +4673,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B44" s="2">
         <v>1.26</v>
@@ -4685,7 +4688,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B45" s="2">
         <v>0.74</v>
@@ -4700,7 +4703,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B46" s="2">
         <v>0.41</v>
@@ -4715,7 +4718,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B47" s="2">
         <v>0.19</v>
@@ -4730,7 +4733,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B48" s="2">
         <v>1.04</v>
@@ -4745,7 +4748,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B49" s="2">
         <v>0.92</v>
@@ -4773,7 +4776,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B51" s="2">
         <v>1.42</v>
@@ -4788,7 +4791,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B52" s="2">
         <v>1.0900000000000001</v>
@@ -4803,7 +4806,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B53" s="2">
         <v>0.45</v>
@@ -4818,7 +4821,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2">
         <v>0.19</v>
@@ -4833,7 +4836,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B55" s="2">
         <v>1.35</v>
@@ -4848,7 +4851,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B56" s="2">
         <v>1.1000000000000001</v>
@@ -4876,7 +4879,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B58" s="2">
         <v>1.62</v>
@@ -4891,7 +4894,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B59" s="2">
         <v>1.26</v>
@@ -4906,7 +4909,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B60" s="2">
         <v>0.43</v>
@@ -4921,7 +4924,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2">
         <v>0.26</v>
@@ -4936,7 +4939,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B62" s="2">
         <v>1.53</v>
@@ -4951,7 +4954,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B63" s="2">
         <v>1.25</v>
@@ -4979,7 +4982,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B65" s="2">
         <v>1.64</v>
@@ -4994,7 +4997,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B66" s="2">
         <v>1.1100000000000001</v>
@@ -5009,7 +5012,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B67" s="2">
         <v>0.44</v>
@@ -5024,7 +5027,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2">
         <v>0.27</v>
@@ -5039,7 +5042,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B69" s="2">
         <v>1.44</v>
@@ -5054,7 +5057,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B70" s="2">
         <v>1.2</v>
@@ -5082,7 +5085,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B72" s="2">
         <v>1.62</v>
@@ -5097,7 +5100,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B73" s="2">
         <v>0.96</v>
@@ -5112,7 +5115,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B74" s="2">
         <v>0.38</v>
@@ -5127,7 +5130,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B75" s="2">
         <v>0.37</v>
@@ -5142,7 +5145,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B76" s="2">
         <v>1.41</v>
@@ -5157,7 +5160,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B77" s="2">
         <v>1.17</v>
@@ -5185,7 +5188,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B79" s="2">
         <v>1.58</v>
@@ -5200,7 +5203,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B80" s="2">
         <v>0.92</v>
@@ -5215,7 +5218,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B81" s="2">
         <v>0.34</v>
@@ -5230,7 +5233,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B82" s="2">
         <v>0.41</v>
@@ -5245,7 +5248,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B83" s="2">
         <v>1.1599999999999999</v>
@@ -5260,7 +5263,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B84" s="2">
         <v>1.2</v>
@@ -5288,7 +5291,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B86" s="2">
         <v>1.54</v>
@@ -5303,7 +5306,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B87" s="2">
         <v>0.88</v>
@@ -5318,7 +5321,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B88" s="2">
         <v>0.34</v>
@@ -5333,7 +5336,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B89" s="2">
         <v>0.42</v>
@@ -5348,7 +5351,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B90" s="2">
         <v>1.1100000000000001</v>
@@ -5363,7 +5366,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B91" s="2">
         <v>1.22</v>
@@ -5391,7 +5394,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B93" s="2">
         <v>1.51</v>
@@ -5406,7 +5409,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B94" s="2">
         <v>0.81</v>
@@ -5421,7 +5424,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B95" s="2">
         <v>0.3</v>
@@ -5436,7 +5439,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B96" s="2">
         <v>0.41</v>
@@ -5451,7 +5454,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B97" s="2">
         <v>1.06</v>
@@ -5466,7 +5469,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B98" s="2">
         <v>1.35</v>
@@ -5494,7 +5497,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B100" s="2">
         <v>1.47</v>
@@ -5509,7 +5512,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B101" s="2">
         <v>0.93</v>
@@ -5524,7 +5527,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B102" s="2">
         <v>0.51</v>
@@ -5539,7 +5542,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B103" s="2">
         <v>0.43</v>
@@ -5554,7 +5557,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B104" s="2">
         <v>1.04</v>
@@ -5569,7 +5572,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B105" s="2">
         <v>1.41</v>
@@ -5597,7 +5600,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B107" s="2">
         <v>1.38</v>
@@ -5612,7 +5615,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B108" s="2">
         <v>1.22</v>
@@ -5627,7 +5630,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B109" s="2">
         <v>0.47</v>
@@ -5642,7 +5645,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B110" s="2">
         <v>0.5</v>
@@ -5657,7 +5660,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B111" s="2">
         <v>1.04</v>
@@ -5672,7 +5675,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B112" s="2">
         <v>1.48</v>
@@ -5700,7 +5703,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B114" s="2">
         <v>1.4</v>
@@ -5715,7 +5718,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B115" s="2">
         <v>1.38</v>
@@ -5730,7 +5733,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B116" s="2">
         <v>0.52</v>
@@ -5745,7 +5748,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B117" s="2">
         <v>0.52</v>
@@ -5760,7 +5763,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B118" s="2">
         <v>1.05</v>
@@ -5775,7 +5778,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B119" s="2">
         <v>1.53</v>
@@ -5803,7 +5806,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B121" s="2">
         <v>1.48</v>
@@ -5818,7 +5821,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B122" s="2">
         <v>1.64</v>
@@ -5833,7 +5836,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B123" s="2">
         <v>0.53</v>
@@ -5848,7 +5851,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B124" s="2">
         <v>0.6</v>
@@ -5863,7 +5866,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B125" s="2">
         <v>1.0900000000000001</v>
@@ -5878,7 +5881,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B126" s="2">
         <v>1.61</v>
@@ -5906,7 +5909,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B128" s="2">
         <v>1.4</v>
@@ -5921,7 +5924,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B129" s="2">
         <v>1.67</v>
@@ -5936,7 +5939,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B130" s="2">
         <v>0.52</v>
@@ -5951,7 +5954,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B131" s="2">
         <v>0.57999999999999996</v>
@@ -5966,7 +5969,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B132" s="2">
         <v>0.87</v>
@@ -5981,7 +5984,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B133" s="2">
         <v>1.6</v>
@@ -6009,7 +6012,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B135" s="2">
         <v>1.33</v>
@@ -6024,7 +6027,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B136" s="2">
         <v>1.57</v>
@@ -6039,7 +6042,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B137" s="2">
         <v>0.51</v>
@@ -6054,7 +6057,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B138" s="2">
         <v>0.53</v>
@@ -6069,7 +6072,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B139" s="2">
         <v>0.53</v>
@@ -6084,7 +6087,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B140" s="2">
         <v>1.54</v>
@@ -6112,7 +6115,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B142" s="2">
         <v>1.25</v>
@@ -6127,7 +6130,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B143" s="2">
         <v>1.35</v>
@@ -6142,7 +6145,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B144" s="2">
         <v>0.5</v>
@@ -6157,7 +6160,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B145" s="2">
         <v>0.5</v>
@@ -6172,7 +6175,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B146" s="2">
         <v>0.53</v>
@@ -6187,7 +6190,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B147" s="2">
         <v>1.45</v>
@@ -6215,7 +6218,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B149" s="2">
         <v>1.26</v>
@@ -6230,7 +6233,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B150" s="2">
         <v>0.49</v>
@@ -6245,7 +6248,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B151" s="2">
         <v>0.52</v>
@@ -6260,7 +6263,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B152" s="2">
         <v>0.46</v>
@@ -6275,7 +6278,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B153" s="2">
         <v>1.37</v>
@@ -6303,7 +6306,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B155" s="2">
         <v>1.1399999999999999</v>
@@ -6318,7 +6321,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B156" s="2">
         <v>1.25</v>
@@ -6333,7 +6336,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B157" s="2">
         <v>0.45</v>
@@ -6348,7 +6351,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B158" s="2">
         <v>0.47</v>
@@ -6363,7 +6366,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B159" s="2">
         <v>0.31</v>
@@ -6378,7 +6381,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B160" s="2">
         <v>1.3</v>
@@ -6406,7 +6409,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B162" s="2">
         <v>1</v>
@@ -6421,7 +6424,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B163" s="2">
         <v>1.17</v>
@@ -6436,7 +6439,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B164" s="2">
         <v>0.38</v>
@@ -6451,7 +6454,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B165" s="2">
         <v>0.41</v>
@@ -6466,7 +6469,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B166" s="2">
         <v>0.27</v>
@@ -6481,7 +6484,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B167" s="2">
         <v>1.21</v>
@@ -6517,21 +6520,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100AEDD2C58C424B74499DE9AAA38D1F837" ma:contentTypeVersion="4" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="702f087d0813d5dfa38d019e1cfe3dbe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="59a1f2c9-9aa0-4700-bb29-973d29195b9e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f1c68433e2c2319791049a96af9fb53" ns2:_="">
     <xsd:import namespace="59a1f2c9-9aa0-4700-bb29-973d29195b9e"/>
@@ -6675,24 +6663,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B71B140-D529-43D3-80C5-DF1F266F3D83}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{540BE6A0-27F9-419F-8224-019FE94C5CBE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80DA1591-5D0E-493F-827A-BF7F96FE3311}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6708,4 +6694,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{540BE6A0-27F9-419F-8224-019FE94C5CBE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B71B140-D529-43D3-80C5-DF1F266F3D83}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Load dataset.xlsx
+++ b/Load dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Opti in modern power systems\code\optimization_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C4901E-BB22-4295-838B-F94F2FCE29A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4B5422-63CE-4CD4-B60A-CDA97764B5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Load profile" sheetId="1" r:id="rId1"/>
@@ -921,7 +921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1140,8 +1140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE9AD59-411E-4291-875A-DE2F5FAB8CE2}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1159,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>26.851422320000001</v>
+        <v>89.504741066666668</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1167,7 +1167,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>26.355485759999997</v>
+        <v>87.851619199999988</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -1175,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>26.001245359999999</v>
+        <v>86.670817866666667</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1183,7 +1183,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>25.717853039999998</v>
+        <v>85.72617679999999</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -1191,7 +1191,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>21.509477087999997</v>
+        <v>71.698256959999995</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -1199,7 +1199,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>25.859549199999996</v>
+        <v>86.198497333333322</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -1207,7 +1207,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>32.30672448</v>
+        <v>107.68908160000001</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -1215,7 +1215,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>39.674924799999992</v>
+        <v>132.24974933333331</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -1223,7 +1223,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>44.988530799999999</v>
+        <v>149.96176933333334</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -1231,7 +1231,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>43.217328799999997</v>
+        <v>144.05776266666666</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -1239,7 +1239,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>41.871215279999987</v>
+        <v>139.57071759999997</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -1247,7 +1247,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>39.745772880000004</v>
+        <v>132.48590960000001</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -1255,7 +1255,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>39.037292079999993</v>
+        <v>130.12430693333332</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -1263,7 +1263,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>38.541355519999996</v>
+        <v>128.47118506666666</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -1271,7 +1271,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>41.021038320000009</v>
+        <v>136.73679440000004</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -1279,7 +1279,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>43.146480719999985</v>
+        <v>143.82160239999996</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -1287,7 +1287,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>45.342771199999994</v>
+        <v>151.14257066666664</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -1295,7 +1295,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>49.239415599999994</v>
+        <v>164.13138533333333</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -1303,7 +1303,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>47.043125119999992</v>
+        <v>156.81041706666664</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -1311,7 +1311,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>42.579696079999998</v>
+        <v>141.93232026666666</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -1319,7 +1319,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>39.533228639999997</v>
+        <v>131.7774288</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -1327,7 +1327,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>34.857255359999996</v>
+        <v>116.19085119999998</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -1335,7 +1335,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>34.857255359999996</v>
+        <v>116.19085119999998</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -1343,7 +1343,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>31.456547519999987</v>
+        <v>104.85515839999997</v>
       </c>
     </row>
   </sheetData>
@@ -3658,7 +3658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E378C839-089A-4F4A-A203-014E3B2188F1}">
   <dimension ref="A2:L168"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="L6" sqref="L6:L29"/>
     </sheetView>
   </sheetViews>
@@ -3779,8 +3779,8 @@
         <v>89.504741066666668</v>
       </c>
       <c r="L6">
-        <f>0.3*K6</f>
-        <v>26.851422320000001</v>
+        <f>K6</f>
+        <v>89.504741066666668</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -3809,8 +3809,8 @@
         <v>87.851619199999988</v>
       </c>
       <c r="L7">
-        <f t="shared" ref="L7:L29" si="1">0.3*K7</f>
-        <v>26.355485759999997</v>
+        <f t="shared" ref="L7:L29" si="1">K7</f>
+        <v>87.851619199999988</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -3840,7 +3840,7 @@
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>26.001245359999999</v>
+        <v>86.670817866666667</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -3868,7 +3868,7 @@
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>25.717853039999998</v>
+        <v>85.72617679999999</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -3898,7 +3898,7 @@
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>21.509477087999997</v>
+        <v>71.698256959999995</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>25.859549199999996</v>
+        <v>86.198497333333322</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
@@ -3958,7 +3958,7 @@
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>32.30672448</v>
+        <v>107.68908160000001</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -3988,7 +3988,7 @@
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>39.674924799999992</v>
+        <v>132.24974933333331</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -4018,7 +4018,7 @@
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>44.988530799999999</v>
+        <v>149.96176933333334</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
@@ -4048,7 +4048,7 @@
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>43.217328799999997</v>
+        <v>144.05776266666666</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -4076,7 +4076,7 @@
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>41.871215279999987</v>
+        <v>139.57071759999997</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
@@ -4106,7 +4106,7 @@
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>39.745772880000004</v>
+        <v>132.48590960000001</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
@@ -4136,7 +4136,7 @@
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>39.037292079999993</v>
+        <v>130.12430693333332</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>38.541355519999996</v>
+        <v>128.47118506666666</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>41.021038320000009</v>
+        <v>136.73679440000004</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
@@ -4226,7 +4226,7 @@
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>43.146480719999985</v>
+        <v>143.82160239999996</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
@@ -4256,7 +4256,7 @@
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>45.342771199999994</v>
+        <v>151.14257066666664</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
@@ -4284,7 +4284,7 @@
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>49.239415599999994</v>
+        <v>164.13138533333333</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>47.043125119999992</v>
+        <v>156.81041706666664</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
@@ -4344,7 +4344,7 @@
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>42.579696079999998</v>
+        <v>141.93232026666666</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
@@ -4374,7 +4374,7 @@
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>39.533228639999997</v>
+        <v>131.7774288</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
@@ -4404,7 +4404,7 @@
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>34.857255359999996</v>
+        <v>116.19085119999998</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
@@ -4434,7 +4434,7 @@
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
-        <v>34.857255359999996</v>
+        <v>116.19085119999998</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
@@ -4464,7 +4464,7 @@
       </c>
       <c r="L29">
         <f t="shared" si="1"/>
-        <v>31.456547519999987</v>
+        <v>104.85515839999997</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">

--- a/Load dataset.xlsx
+++ b/Load dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Opti in modern power systems\code\optimization_code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marta\Desktop\Sustainable Energy\OMPS\Project\optimization_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1C5213-9D9F-4E84-BB7E-9A915FA647B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F361BD-D12A-495C-9FE0-2A2A1CEBC013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Load profile" sheetId="1" r:id="rId1"/>
@@ -922,13 +922,13 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.1796875" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -936,7 +936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -944,7 +944,7 @@
         <v>1775.835</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -952,7 +952,7 @@
         <v>1669.8150000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -960,7 +960,7 @@
         <v>1590.3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -968,7 +968,7 @@
         <v>1563.7950000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -976,7 +976,7 @@
         <v>1563.7950000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -984,7 +984,7 @@
         <v>1590.3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -992,7 +992,7 @@
         <v>1961.37</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>2279.4299999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>2517.9749999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>2544.48</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>2544.48</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>2517.9749999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>2517.9749999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>2517.9749999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>2464.9650000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>2464.9650000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>2623.9949999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>2650.5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>2650.5</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>2544.48</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>2411.9549999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>2199.915</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>1934.865</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1137,13 +1137,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE9AD59-411E-4291-875A-DE2F5FAB8CE2}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>26.851422320000001</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>26.355485759999997</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>26.001245359999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>25.717853039999998</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>21.509477087999997</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>25.859549199999996</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>32.30672448</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>39.674924799999992</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>44.988530799999999</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>43.217328799999997</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>41.871215279999987</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>39.745772880000004</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>39.037292079999993</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>38.541355519999996</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>41.021038320000009</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>43.146480719999985</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>45.342771199999994</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>49.239415599999994</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>47.043125119999992</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>42.579696079999998</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>39.533228639999997</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>34.857255359999996</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>34.857255359999996</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1350,18 +1350,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E7BCCE-5357-4236-B0ED-DE4B9006FBAE}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1482,81 +1482,158 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
         <v>13</v>
       </c>
-      <c r="C12">
+      <c r="C14">
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B15">
         <v>14</v>
       </c>
-      <c r="C13">
+      <c r="C15">
         <v>6.8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B16">
         <v>15</v>
       </c>
-      <c r="C14">
+      <c r="C16">
         <v>11.1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B17">
         <v>16</v>
       </c>
-      <c r="C15">
+      <c r="C17">
         <v>3.5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B19">
         <v>18</v>
       </c>
-      <c r="C16">
+      <c r="C19">
         <v>11.7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B20">
         <v>19</v>
       </c>
-      <c r="C17">
+      <c r="C20">
         <v>6.4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B21">
         <v>20</v>
       </c>
-      <c r="C18">
+      <c r="C21">
         <v>4.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1572,15 +1649,15 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="19.54296875" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1599,7 +1676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1613,7 +1690,7 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1627,7 +1704,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1641,7 +1718,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1655,7 +1732,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1669,7 +1746,7 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1683,7 +1760,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1697,7 +1774,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1711,7 +1788,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1725,7 +1802,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1739,7 +1816,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1753,7 +1830,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -1767,7 +1844,7 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -1781,7 +1858,7 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -1795,7 +1872,7 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
@@ -1809,7 +1886,7 @@
         <v>3.18</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
@@ -1823,7 +1900,7 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
@@ -1837,7 +1914,7 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
@@ -1851,7 +1928,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
@@ -1865,7 +1942,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
@@ -1879,7 +1956,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>30</v>
       </c>
@@ -1893,7 +1970,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>31</v>
       </c>
@@ -1907,7 +1984,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
@@ -1921,7 +1998,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>33</v>
       </c>
@@ -1935,7 +2012,7 @@
         <v>2.41</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
@@ -1949,7 +2026,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
@@ -1963,7 +2040,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>36</v>
       </c>
@@ -1977,7 +2054,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>37</v>
       </c>
@@ -1991,7 +2068,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>38</v>
       </c>
@@ -2005,7 +2082,7 @@
         <v>3.97</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>39</v>
       </c>
@@ -2019,7 +2096,7 @@
         <v>4.07</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>40</v>
       </c>
@@ -2033,7 +2110,7 @@
         <v>4.04</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>41</v>
       </c>
@@ -2047,7 +2124,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>42</v>
       </c>
@@ -2061,7 +2138,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>43</v>
       </c>
@@ -2075,7 +2152,7 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>44</v>
       </c>
@@ -2089,7 +2166,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>45</v>
       </c>
@@ -2103,7 +2180,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>46</v>
       </c>
@@ -2117,7 +2194,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>47</v>
       </c>
@@ -2131,7 +2208,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>48</v>
       </c>
@@ -2145,7 +2222,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>49</v>
       </c>
@@ -2159,7 +2236,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>50</v>
       </c>
@@ -2173,7 +2250,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>51</v>
       </c>
@@ -2187,7 +2264,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>52</v>
       </c>
@@ -2201,7 +2278,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>53</v>
       </c>
@@ -2215,7 +2292,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>54</v>
       </c>
@@ -2229,7 +2306,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>55</v>
       </c>
@@ -2243,7 +2320,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>56</v>
       </c>
@@ -2257,7 +2334,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>57</v>
       </c>
@@ -2271,7 +2348,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>58</v>
       </c>
@@ -2285,7 +2362,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>59</v>
       </c>
@@ -2299,7 +2376,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>60</v>
       </c>
@@ -2313,7 +2390,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>61</v>
       </c>
@@ -2327,7 +2404,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>62</v>
       </c>
@@ -2341,7 +2418,7 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>63</v>
       </c>
@@ -2355,7 +2432,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>64</v>
       </c>
@@ -2369,7 +2446,7 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>65</v>
       </c>
@@ -2383,7 +2460,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>66</v>
       </c>
@@ -2397,7 +2474,7 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>67</v>
       </c>
@@ -2411,7 +2488,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>68</v>
       </c>
@@ -2425,7 +2502,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>69</v>
       </c>
@@ -2439,7 +2516,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>70</v>
       </c>
@@ -2453,7 +2530,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>71</v>
       </c>
@@ -2467,7 +2544,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>72</v>
       </c>
@@ -2481,7 +2558,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>73</v>
       </c>
@@ -2495,7 +2572,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>74</v>
       </c>
@@ -2509,7 +2586,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>75</v>
       </c>
@@ -2523,7 +2600,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>76</v>
       </c>
@@ -2537,7 +2614,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>77</v>
       </c>
@@ -2551,7 +2628,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>78</v>
       </c>
@@ -2565,7 +2642,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>79</v>
       </c>
@@ -2579,7 +2656,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>80</v>
       </c>
@@ -2593,7 +2670,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>81</v>
       </c>
@@ -2607,7 +2684,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>82</v>
       </c>
@@ -2621,7 +2698,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>83</v>
       </c>
@@ -2635,7 +2712,7 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>84</v>
       </c>
@@ -2649,7 +2726,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>85</v>
       </c>
@@ -2663,7 +2740,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>86</v>
       </c>
@@ -2677,7 +2754,7 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>87</v>
       </c>
@@ -2691,7 +2768,7 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>88</v>
       </c>
@@ -2705,7 +2782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>89</v>
       </c>
@@ -2719,7 +2796,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>90</v>
       </c>
@@ -2733,7 +2810,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>91</v>
       </c>
@@ -2747,7 +2824,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>92</v>
       </c>
@@ -2761,7 +2838,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>93</v>
       </c>
@@ -2775,7 +2852,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>94</v>
       </c>
@@ -2789,7 +2866,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>95</v>
       </c>
@@ -2803,7 +2880,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>96</v>
       </c>
@@ -2817,7 +2894,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>97</v>
       </c>
@@ -2831,7 +2908,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>98</v>
       </c>
@@ -2845,7 +2922,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>99</v>
       </c>
@@ -2859,7 +2936,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>100</v>
       </c>
@@ -2873,7 +2950,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>101</v>
       </c>
@@ -2887,7 +2964,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>102</v>
       </c>
@@ -2901,7 +2978,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>103</v>
       </c>
@@ -2915,7 +2992,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>104</v>
       </c>
@@ -2929,7 +3006,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>105</v>
       </c>
@@ -2943,7 +3020,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>106</v>
       </c>
@@ -2957,7 +3034,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>107</v>
       </c>
@@ -2971,7 +3048,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>108</v>
       </c>
@@ -2985,7 +3062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>109</v>
       </c>
@@ -2999,7 +3076,7 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>110</v>
       </c>
@@ -3013,7 +3090,7 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>111</v>
       </c>
@@ -3027,7 +3104,7 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>112</v>
       </c>
@@ -3041,7 +3118,7 @@
         <v>3.49</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>113</v>
       </c>
@@ -3055,7 +3132,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>114</v>
       </c>
@@ -3069,7 +3146,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>115</v>
       </c>
@@ -3083,7 +3160,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>116</v>
       </c>
@@ -3097,7 +3174,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>117</v>
       </c>
@@ -3111,7 +3188,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>118</v>
       </c>
@@ -3125,7 +3202,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>119</v>
       </c>
@@ -3139,7 +3216,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>120</v>
       </c>
@@ -3153,7 +3230,7 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>121</v>
       </c>
@@ -3167,7 +3244,7 @@
         <v>3.07</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>122</v>
       </c>
@@ -3181,7 +3258,7 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>123</v>
       </c>
@@ -3195,7 +3272,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>124</v>
       </c>
@@ -3209,7 +3286,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>125</v>
       </c>
@@ -3223,7 +3300,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>126</v>
       </c>
@@ -3237,7 +3314,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>127</v>
       </c>
@@ -3251,7 +3328,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>128</v>
       </c>
@@ -3265,7 +3342,7 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>129</v>
       </c>
@@ -3279,7 +3356,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>130</v>
       </c>
@@ -3293,7 +3370,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>131</v>
       </c>
@@ -3307,7 +3384,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>132</v>
       </c>
@@ -3321,7 +3398,7 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>133</v>
       </c>
@@ -3335,7 +3412,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>134</v>
       </c>
@@ -3349,7 +3426,7 @@
         <v>3.94</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>135</v>
       </c>
@@ -3363,7 +3440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>136</v>
       </c>
@@ -3377,7 +3454,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>137</v>
       </c>
@@ -3391,7 +3468,7 @@
         <v>3.07</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>138</v>
       </c>
@@ -3405,7 +3482,7 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>139</v>
       </c>
@@ -3419,7 +3496,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>140</v>
       </c>
@@ -3433,7 +3510,7 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>141</v>
       </c>
@@ -3447,7 +3524,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>142</v>
       </c>
@@ -3461,7 +3538,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>143</v>
       </c>
@@ -3475,7 +3552,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>144</v>
       </c>
@@ -3489,7 +3566,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>145</v>
       </c>
@@ -3503,7 +3580,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>146</v>
       </c>
@@ -3517,7 +3594,7 @@
         <v>2.64</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>147</v>
       </c>
@@ -3531,7 +3608,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>148</v>
       </c>
@@ -3545,7 +3622,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>149</v>
       </c>
@@ -3559,7 +3636,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>150</v>
       </c>
@@ -3573,7 +3650,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>151</v>
       </c>
@@ -3587,7 +3664,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>152</v>
       </c>
@@ -3601,7 +3678,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>153</v>
       </c>
@@ -3615,31 +3692,31 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -3659,14 +3736,14 @@
       <selection activeCell="L6" sqref="L6:L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.54296875" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" customWidth="1"/>
-    <col min="10" max="10" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -3689,7 +3766,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
@@ -3708,7 +3785,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>57</v>
       </c>
@@ -3723,7 +3800,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>81</v>
       </c>
@@ -3750,7 +3827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>105</v>
       </c>
@@ -3780,7 +3857,7 @@
         <v>26.851422320000001</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>129</v>
       </c>
@@ -3810,7 +3887,7 @@
         <v>26.355485759999997</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>153</v>
       </c>
@@ -3840,7 +3917,7 @@
         <v>26.001245359999999</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f>AVERAGE(B3:B8)</f>
         <v>0.63166666666666671</v>
@@ -3868,7 +3945,7 @@
         <v>25.717853039999998</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
@@ -3898,7 +3975,7 @@
         <v>21.509477087999997</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>56</v>
       </c>
@@ -3928,7 +4005,7 @@
         <v>25.859549199999996</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>80</v>
       </c>
@@ -3958,7 +4035,7 @@
         <v>32.30672448</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>104</v>
       </c>
@@ -3988,7 +4065,7 @@
         <v>39.674924799999992</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>128</v>
       </c>
@@ -4018,7 +4095,7 @@
         <v>44.988530799999999</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>152</v>
       </c>
@@ -4048,7 +4125,7 @@
         <v>43.217328799999997</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f>AVERAGE(B10:B15)</f>
         <v>0.62</v>
@@ -4076,7 +4153,7 @@
         <v>41.871215279999987</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
@@ -4106,7 +4183,7 @@
         <v>39.745772880000004</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>55</v>
       </c>
@@ -4136,7 +4213,7 @@
         <v>39.037292079999993</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>79</v>
       </c>
@@ -4166,7 +4243,7 @@
         <v>38.541355519999996</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>103</v>
       </c>
@@ -4196,7 +4273,7 @@
         <v>41.021038320000009</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>127</v>
       </c>
@@ -4226,7 +4303,7 @@
         <v>43.146480719999985</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>151</v>
       </c>
@@ -4256,7 +4333,7 @@
         <v>45.342771199999994</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f>AVERAGE(B17:B22)</f>
         <v>0.61166666666666669</v>
@@ -4284,7 +4361,7 @@
         <v>49.239415599999994</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>30</v>
       </c>
@@ -4314,7 +4391,7 @@
         <v>47.043125119999992</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>54</v>
       </c>
@@ -4344,7 +4421,7 @@
         <v>42.579696079999998</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>78</v>
       </c>
@@ -4374,7 +4451,7 @@
         <v>39.533228639999997</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>102</v>
       </c>
@@ -4404,7 +4481,7 @@
         <v>34.857255359999996</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>126</v>
       </c>
@@ -4434,7 +4511,7 @@
         <v>34.857255359999996</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>150</v>
       </c>
@@ -4464,7 +4541,7 @@
         <v>31.456547519999987</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <f>AVERAGE(B24:B29)</f>
         <v>0.60499999999999998</v>
@@ -4477,7 +4554,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>53</v>
       </c>
@@ -4492,7 +4569,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>77</v>
       </c>
@@ -4507,7 +4584,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>101</v>
       </c>
@@ -4522,7 +4599,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>125</v>
       </c>
@@ -4537,7 +4614,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>149</v>
       </c>
@@ -4552,7 +4629,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
         <f>AVERAGE(B31:B35)</f>
         <v>0.50600000000000001</v>
@@ -4565,7 +4642,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>28</v>
       </c>
@@ -4580,7 +4657,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>52</v>
       </c>
@@ -4595,7 +4672,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>76</v>
       </c>
@@ -4610,7 +4687,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>100</v>
       </c>
@@ -4625,7 +4702,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>124</v>
       </c>
@@ -4640,7 +4717,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>148</v>
       </c>
@@ -4655,7 +4732,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B43" s="3">
         <f>AVERAGE(B37:B42)</f>
         <v>0.60833333333333328</v>
@@ -4668,7 +4745,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>27</v>
       </c>
@@ -4683,7 +4760,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>51</v>
       </c>
@@ -4698,7 +4775,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>75</v>
       </c>
@@ -4713,7 +4790,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>99</v>
       </c>
@@ -4728,7 +4805,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>123</v>
       </c>
@@ -4743,7 +4820,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>147</v>
       </c>
@@ -4758,7 +4835,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B50" s="3">
         <f>AVERAGE(B44:B49)</f>
         <v>0.76000000000000012</v>
@@ -4771,7 +4848,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>26</v>
       </c>
@@ -4786,7 +4863,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
@@ -4801,7 +4878,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>74</v>
       </c>
@@ -4816,7 +4893,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>98</v>
       </c>
@@ -4831,7 +4908,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>122</v>
       </c>
@@ -4846,7 +4923,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>146</v>
       </c>
@@ -4861,7 +4938,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
         <f>AVERAGE(B51:B56)</f>
         <v>0.93333333333333324</v>
@@ -4874,7 +4951,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>25</v>
       </c>
@@ -4889,7 +4966,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>49</v>
       </c>
@@ -4904,7 +4981,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>73</v>
       </c>
@@ -4919,7 +4996,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>97</v>
       </c>
@@ -4934,7 +5011,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>121</v>
       </c>
@@ -4949,7 +5026,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>145</v>
       </c>
@@ -4964,7 +5041,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B64" s="3">
         <f>AVERAGE(B58:B63)</f>
         <v>1.0583333333333333</v>
@@ -4977,7 +5054,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>24</v>
       </c>
@@ -4992,7 +5069,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>48</v>
       </c>
@@ -5007,7 +5084,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>72</v>
       </c>
@@ -5022,7 +5099,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>96</v>
       </c>
@@ -5037,7 +5114,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>120</v>
       </c>
@@ -5052,7 +5129,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>144</v>
       </c>
@@ -5067,7 +5144,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B71" s="3">
         <f>AVERAGE(B65:B70)</f>
         <v>1.0166666666666668</v>
@@ -5080,7 +5157,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>23</v>
       </c>
@@ -5095,7 +5172,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>47</v>
       </c>
@@ -5110,7 +5187,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>71</v>
       </c>
@@ -5125,7 +5202,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>95</v>
       </c>
@@ -5140,7 +5217,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>119</v>
       </c>
@@ -5155,7 +5232,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>143</v>
       </c>
@@ -5170,7 +5247,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B78" s="3">
         <f>AVERAGE(B72:B77)</f>
         <v>0.98499999999999999</v>
@@ -5183,7 +5260,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>22</v>
       </c>
@@ -5198,7 +5275,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>46</v>
       </c>
@@ -5213,7 +5290,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>70</v>
       </c>
@@ -5228,7 +5305,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>94</v>
       </c>
@@ -5243,7 +5320,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>118</v>
       </c>
@@ -5258,7 +5335,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>142</v>
       </c>
@@ -5273,7 +5350,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B85" s="3">
         <f>AVERAGE(B79:B84)</f>
         <v>0.93500000000000005</v>
@@ -5286,7 +5363,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>21</v>
       </c>
@@ -5301,7 +5378,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>45</v>
       </c>
@@ -5316,7 +5393,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>69</v>
       </c>
@@ -5331,7 +5408,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>93</v>
       </c>
@@ -5346,7 +5423,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>117</v>
       </c>
@@ -5361,7 +5438,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>141</v>
       </c>
@@ -5376,7 +5453,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B92" s="3">
         <f>AVERAGE(B86:B91)</f>
         <v>0.91833333333333333</v>
@@ -5389,7 +5466,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>20</v>
       </c>
@@ -5404,7 +5481,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>44</v>
       </c>
@@ -5419,7 +5496,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>68</v>
       </c>
@@ -5434,7 +5511,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>92</v>
       </c>
@@ -5449,7 +5526,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>116</v>
       </c>
@@ -5464,7 +5541,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>140</v>
       </c>
@@ -5479,7 +5556,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B99" s="3">
         <f>AVERAGE(B93:B98)</f>
         <v>0.90666666666666662</v>
@@ -5492,7 +5569,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>19</v>
       </c>
@@ -5507,7 +5584,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>43</v>
       </c>
@@ -5522,7 +5599,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>67</v>
       </c>
@@ -5537,7 +5614,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>91</v>
       </c>
@@ -5552,7 +5629,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>115</v>
       </c>
@@ -5567,7 +5644,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>139</v>
       </c>
@@ -5582,7 +5659,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B106" s="3">
         <f>AVERAGE(B100:B105)</f>
         <v>0.96500000000000019</v>
@@ -5595,7 +5672,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>18</v>
       </c>
@@ -5610,7 +5687,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>42</v>
       </c>
@@ -5625,7 +5702,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>66</v>
       </c>
@@ -5640,7 +5717,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>90</v>
       </c>
@@ -5655,7 +5732,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>114</v>
       </c>
@@ -5670,7 +5747,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>138</v>
       </c>
@@ -5685,7 +5762,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B113" s="3">
         <f>AVERAGE(B107:B112)</f>
         <v>1.0149999999999999</v>
@@ -5698,7 +5775,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>17</v>
       </c>
@@ -5713,7 +5790,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>41</v>
       </c>
@@ -5728,7 +5805,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>65</v>
       </c>
@@ -5743,7 +5820,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>89</v>
       </c>
@@ -5758,7 +5835,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>113</v>
       </c>
@@ -5773,7 +5850,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>137</v>
       </c>
@@ -5788,7 +5865,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B120" s="3">
         <f>AVERAGE(B114:B119)</f>
         <v>1.0666666666666667</v>
@@ -5801,7 +5878,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>16</v>
       </c>
@@ -5816,7 +5893,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>40</v>
       </c>
@@ -5831,7 +5908,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>64</v>
       </c>
@@ -5846,7 +5923,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>88</v>
       </c>
@@ -5861,7 +5938,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>112</v>
       </c>
@@ -5876,7 +5953,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>136</v>
       </c>
@@ -5891,7 +5968,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B127" s="3">
         <f>AVERAGE(B121:B126)</f>
         <v>1.1583333333333334</v>
@@ -5904,7 +5981,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>15</v>
       </c>
@@ -5919,7 +5996,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>39</v>
       </c>
@@ -5934,7 +6011,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>63</v>
       </c>
@@ -5949,7 +6026,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>87</v>
       </c>
@@ -5964,7 +6041,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>111</v>
       </c>
@@ -5979,7 +6056,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>135</v>
       </c>
@@ -5994,7 +6071,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B134" s="3">
         <f>AVERAGE(B128:B133)</f>
         <v>1.1066666666666667</v>
@@ -6007,7 +6084,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>14</v>
       </c>
@@ -6022,7 +6099,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>38</v>
       </c>
@@ -6037,7 +6114,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>62</v>
       </c>
@@ -6052,7 +6129,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>86</v>
       </c>
@@ -6067,7 +6144,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>110</v>
       </c>
@@ -6082,7 +6159,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>134</v>
       </c>
@@ -6097,7 +6174,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B141" s="3">
         <f>AVERAGE(B135:B140)</f>
         <v>1.0016666666666667</v>
@@ -6110,7 +6187,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>13</v>
       </c>
@@ -6125,7 +6202,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>37</v>
       </c>
@@ -6140,7 +6217,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>61</v>
       </c>
@@ -6155,7 +6232,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>85</v>
       </c>
@@ -6170,7 +6247,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>109</v>
       </c>
@@ -6185,7 +6262,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>133</v>
       </c>
@@ -6200,7 +6277,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B148" s="3">
         <f>AVERAGE(B142:B147)</f>
         <v>0.93</v>
@@ -6213,7 +6290,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>36</v>
       </c>
@@ -6228,7 +6305,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>60</v>
       </c>
@@ -6243,7 +6320,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>84</v>
       </c>
@@ -6258,7 +6335,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>108</v>
       </c>
@@ -6273,7 +6350,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>132</v>
       </c>
@@ -6288,7 +6365,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B154" s="3">
         <f>AVERAGE(B149:B153)</f>
         <v>0.82</v>
@@ -6301,7 +6378,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>11</v>
       </c>
@@ -6316,7 +6393,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>35</v>
       </c>
@@ -6331,7 +6408,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>59</v>
       </c>
@@ -6346,7 +6423,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>83</v>
       </c>
@@ -6361,7 +6438,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>107</v>
       </c>
@@ -6376,7 +6453,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>131</v>
       </c>
@@ -6391,7 +6468,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B161" s="3">
         <f>AVERAGE(B155:B160)</f>
         <v>0.82</v>
@@ -6404,7 +6481,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>10</v>
       </c>
@@ -6419,7 +6496,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>34</v>
       </c>
@@ -6434,7 +6511,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>58</v>
       </c>
@@ -6449,7 +6526,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>82</v>
       </c>
@@ -6464,7 +6541,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>106</v>
       </c>
@@ -6479,7 +6556,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>130</v>
       </c>
@@ -6494,7 +6571,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B168" s="3">
         <f>AVERAGE(B162:B167)</f>
         <v>0.73999999999999988</v>
@@ -6517,18 +6594,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6676,18 +6753,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B71B140-D529-43D3-80C5-DF1F266F3D83}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{540BE6A0-27F9-419F-8224-019FE94C5CBE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{540BE6A0-27F9-419F-8224-019FE94C5CBE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B71B140-D529-43D3-80C5-DF1F266F3D83}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Load dataset.xlsx
+++ b/Load dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marta\Desktop\Sustainable Energy\OMPS\Project\optimization_code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Opti in modern power systems\code\optimization_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F361BD-D12A-495C-9FE0-2A2A1CEBC013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4B5422-63CE-4CD4-B60A-CDA97764B5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Load profile" sheetId="1" r:id="rId1"/>
@@ -43,23 +43,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="159">
   <si>
     <t>Hour</t>
   </si>
   <si>
-    <t>System demand (MW)</t>
-  </si>
-  <si>
-    <t>Load #</t>
-  </si>
-  <si>
     <t>Node</t>
   </si>
   <si>
-    <t>% of system load</t>
-  </si>
-  <si>
     <t>$/MWh</t>
   </si>
   <si>
@@ -517,6 +508,18 @@
   </si>
   <si>
     <t>Dkk/kWh</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>Load</t>
+  </si>
+  <si>
+    <t>percent_sys_load</t>
+  </si>
+  <si>
+    <t>System_demand</t>
   </si>
 </sst>
 </file>
@@ -918,25 +921,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -944,7 +947,7 @@
         <v>1775.835</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -952,7 +955,7 @@
         <v>1669.8150000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -960,7 +963,7 @@
         <v>1590.3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -968,7 +971,7 @@
         <v>1563.7950000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -976,7 +979,7 @@
         <v>1563.7950000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -984,7 +987,7 @@
         <v>1590.3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -992,7 +995,7 @@
         <v>1961.37</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1000,7 +1003,7 @@
         <v>2279.4299999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1008,7 +1011,7 @@
         <v>2517.9749999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1016,7 +1019,7 @@
         <v>2544.48</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1024,7 +1027,7 @@
         <v>2544.48</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1032,7 +1035,7 @@
         <v>2517.9749999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1040,7 +1043,7 @@
         <v>2517.9749999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1048,7 +1051,7 @@
         <v>2517.9749999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1056,7 +1059,7 @@
         <v>2464.9650000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1064,7 +1067,7 @@
         <v>2464.9650000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1072,7 +1075,7 @@
         <v>2623.9949999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1080,7 +1083,7 @@
         <v>2650.5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1088,7 +1091,7 @@
         <v>2650.5</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1096,7 +1099,7 @@
         <v>2544.48</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1104,7 +1107,7 @@
         <v>2411.9549999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1112,7 +1115,7 @@
         <v>2199.915</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1120,7 +1123,7 @@
         <v>1934.865</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1137,210 +1140,210 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE9AD59-411E-4291-875A-DE2F5FAB8CE2}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>26.851422320000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>89.504741066666668</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>26.355485759999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>87.851619199999988</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>26.001245359999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>86.670817866666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>25.717853039999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>85.72617679999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>21.509477087999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>71.698256959999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>25.859549199999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>86.198497333333322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>32.30672448</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>107.68908160000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>39.674924799999992</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>132.24974933333331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>44.988530799999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>149.96176933333334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>43.217328799999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>144.05776266666666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>41.871215279999987</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>139.57071759999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>39.745772880000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>132.48590960000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>39.037292079999993</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>130.12430693333332</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>38.541355519999996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>128.47118506666666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>41.021038320000009</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>136.73679440000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>43.146480719999985</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>143.82160239999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>45.342771199999994</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>151.14257066666664</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>49.239415599999994</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>164.13138533333333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>47.043125119999992</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>156.81041706666664</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>42.579696079999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>141.93232026666666</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>39.533228639999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>131.7774288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>34.857255359999996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>116.19085119999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>34.857255359999996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>116.19085119999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>31.456547519999987</v>
+        <v>104.85515839999997</v>
       </c>
     </row>
   </sheetData>
@@ -1350,29 +1353,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E7BCCE-5357-4236-B0ED-DE4B9006FBAE}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1383,7 +1386,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1394,7 +1397,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1405,7 +1408,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1416,7 +1419,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1427,7 +1430,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1438,7 +1441,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1449,7 +1452,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1460,7 +1463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1471,7 +1474,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1482,158 +1485,81 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14">
-        <v>9.3000000000000007</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C15">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C16">
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C17">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>15</v>
-      </c>
-      <c r="B19">
-        <v>18</v>
-      </c>
-      <c r="C19">
-        <v>11.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>16</v>
-      </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
-      <c r="C20">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>17</v>
-      </c>
-      <c r="B21">
-        <v>20</v>
-      </c>
-      <c r="C21">
         <v>4.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>0</v>
-      </c>
-      <c r="B22">
-        <v>21</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <v>22</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>0</v>
-      </c>
-      <c r="B24">
-        <v>23</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>0</v>
-      </c>
-      <c r="B25">
-        <v>24</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1649,36 +1575,36 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="M1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -1690,9 +1616,9 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2">
         <v>1.1399999999999999</v>
@@ -1704,9 +1630,9 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2">
         <v>1.18</v>
@@ -1718,9 +1644,9 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2">
         <v>1.25</v>
@@ -1732,9 +1658,9 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2">
         <v>1.33</v>
@@ -1746,9 +1672,9 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2">
         <v>1.4</v>
@@ -1760,9 +1686,9 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2">
         <v>1.48</v>
@@ -1774,9 +1700,9 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2">
         <v>1.4</v>
@@ -1788,9 +1714,9 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2">
         <v>1.38</v>
@@ -1802,9 +1728,9 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2">
         <v>1.47</v>
@@ -1816,9 +1742,9 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2">
         <v>1.51</v>
@@ -1830,9 +1756,9 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2">
         <v>1.54</v>
@@ -1844,9 +1770,9 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2">
         <v>1.58</v>
@@ -1858,9 +1784,9 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2">
         <v>1.62</v>
@@ -1872,9 +1798,9 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B16" s="2">
         <v>1.64</v>
@@ -1886,9 +1812,9 @@
         <v>3.18</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2">
         <v>1.62</v>
@@ -1900,9 +1826,9 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2">
         <v>1.42</v>
@@ -1914,9 +1840,9 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B19" s="2">
         <v>1.26</v>
@@ -1928,9 +1854,9 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B20" s="2">
         <v>1.05</v>
@@ -1942,9 +1868,9 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B21" s="2">
         <v>1.05</v>
@@ -1956,9 +1882,9 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B22" s="2">
         <v>1.01</v>
@@ -1970,9 +1896,9 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B23" s="2">
         <v>1.05</v>
@@ -1984,9 +1910,9 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B24" s="2">
         <v>1.1000000000000001</v>
@@ -1998,9 +1924,9 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B25" s="2">
         <v>1.1599999999999999</v>
@@ -2012,9 +1938,9 @@
         <v>2.41</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B26" s="2">
         <v>1.17</v>
@@ -2026,9 +1952,9 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B27" s="2">
         <v>1.25</v>
@@ -2040,9 +1966,9 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B28" s="2">
         <v>1.26</v>
@@ -2054,9 +1980,9 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2">
         <v>1.35</v>
@@ -2068,9 +1994,9 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2">
         <v>1.57</v>
@@ -2082,9 +2008,9 @@
         <v>3.97</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B31" s="2">
         <v>1.67</v>
@@ -2096,9 +2022,9 @@
         <v>4.07</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B32" s="2">
         <v>1.64</v>
@@ -2110,9 +2036,9 @@
         <v>4.04</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B33" s="2">
         <v>1.38</v>
@@ -2124,9 +2050,9 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2">
         <v>1.22</v>
@@ -2138,9 +2064,9 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B35" s="2">
         <v>0.93</v>
@@ -2152,9 +2078,9 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B36" s="2">
         <v>0.81</v>
@@ -2166,9 +2092,9 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B37" s="2">
         <v>0.88</v>
@@ -2180,9 +2106,9 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B38" s="2">
         <v>0.92</v>
@@ -2194,9 +2120,9 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2">
         <v>0.96</v>
@@ -2208,9 +2134,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B40" s="2">
         <v>1.1100000000000001</v>
@@ -2222,9 +2148,9 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B41" s="2">
         <v>1.26</v>
@@ -2236,9 +2162,9 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B42" s="2">
         <v>1.0900000000000001</v>
@@ -2250,9 +2176,9 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B43" s="2">
         <v>0.74</v>
@@ -2264,9 +2190,9 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B44" s="2">
         <v>0.44</v>
@@ -2278,9 +2204,9 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B45" s="2">
         <v>0.4</v>
@@ -2292,9 +2218,9 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B46" s="2">
         <v>0.28999999999999998</v>
@@ -2306,9 +2232,9 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B47" s="2">
         <v>0.28999999999999998</v>
@@ -2320,9 +2246,9 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B48" s="2">
         <v>0.28000000000000003</v>
@@ -2334,9 +2260,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B49" s="2">
         <v>0.28000000000000003</v>
@@ -2348,9 +2274,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B50" s="2">
         <v>0.38</v>
@@ -2362,9 +2288,9 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B51" s="2">
         <v>0.45</v>
@@ -2376,9 +2302,9 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B52" s="2">
         <v>0.49</v>
@@ -2390,9 +2316,9 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B53" s="2">
         <v>0.5</v>
@@ -2404,9 +2330,9 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B54" s="2">
         <v>0.51</v>
@@ -2418,9 +2344,9 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B55" s="2">
         <v>0.52</v>
@@ -2432,9 +2358,9 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B56" s="2">
         <v>0.53</v>
@@ -2446,9 +2372,9 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B57" s="2">
         <v>0.52</v>
@@ -2460,9 +2386,9 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B58" s="2">
         <v>0.47</v>
@@ -2474,9 +2400,9 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B59" s="2">
         <v>0.51</v>
@@ -2488,9 +2414,9 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B60" s="2">
         <v>0.3</v>
@@ -2502,9 +2428,9 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B61" s="2">
         <v>0.34</v>
@@ -2516,9 +2442,9 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B62" s="2">
         <v>0.34</v>
@@ -2530,9 +2456,9 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B63" s="2">
         <v>0.38</v>
@@ -2544,9 +2470,9 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B64" s="2">
         <v>0.44</v>
@@ -2558,9 +2484,9 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B65" s="2">
         <v>0.43</v>
@@ -2572,9 +2498,9 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B66" s="2">
         <v>0.45</v>
@@ -2586,9 +2512,9 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B67" s="2">
         <v>0.41</v>
@@ -2600,9 +2526,9 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B68" s="2">
         <v>0.35</v>
@@ -2614,9 +2540,9 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B69" s="2">
         <v>0.39</v>
@@ -2628,9 +2554,9 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B70" s="2">
         <v>0.43</v>
@@ -2642,9 +2568,9 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B71" s="2">
         <v>0.44</v>
@@ -2656,9 +2582,9 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B72" s="2">
         <v>0.37</v>
@@ -2670,9 +2596,9 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B73" s="2">
         <v>0.31</v>
@@ -2684,9 +2610,9 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B74" s="2">
         <v>0.41</v>
@@ -2698,9 +2624,9 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B75" s="2">
         <v>0.47</v>
@@ -2712,9 +2638,9 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B76" s="2">
         <v>0.52</v>
@@ -2726,9 +2652,9 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B77" s="2">
         <v>0.5</v>
@@ -2740,9 +2666,9 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B78" s="2">
         <v>0.53</v>
@@ -2754,9 +2680,9 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B79" s="2">
         <v>0.57999999999999996</v>
@@ -2768,9 +2694,9 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B80" s="2">
         <v>0.6</v>
@@ -2782,9 +2708,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B81" s="2">
         <v>0.52</v>
@@ -2796,9 +2722,9 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B82" s="2">
         <v>0.5</v>
@@ -2810,9 +2736,9 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B83" s="2">
         <v>0.43</v>
@@ -2824,9 +2750,9 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B84" s="2">
         <v>0.41</v>
@@ -2838,9 +2764,9 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B85" s="2">
         <v>0.42</v>
@@ -2852,9 +2778,9 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B86" s="2">
         <v>0.41</v>
@@ -2866,9 +2792,9 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B87" s="2">
         <v>0.37</v>
@@ -2880,9 +2806,9 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B88" s="2">
         <v>0.27</v>
@@ -2894,9 +2820,9 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B89" s="2">
         <v>0.26</v>
@@ -2908,9 +2834,9 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B90" s="2">
         <v>0.19</v>
@@ -2922,9 +2848,9 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B91" s="2">
         <v>0.19</v>
@@ -2936,9 +2862,9 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B92" s="2">
         <v>0.19</v>
@@ -2950,9 +2876,9 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B93" s="2">
         <v>0.19</v>
@@ -2964,9 +2890,9 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B94" s="2">
         <v>0.19</v>
@@ -2978,9 +2904,9 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B95" s="2">
         <v>0.19</v>
@@ -2992,9 +2918,9 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B96" s="2">
         <v>0.25</v>
@@ -3006,9 +2932,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B97" s="2">
         <v>0.27</v>
@@ -3020,9 +2946,9 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B98" s="2">
         <v>0.27</v>
@@ -3034,9 +2960,9 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B99" s="2">
         <v>0.31</v>
@@ -3048,9 +2974,9 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B100" s="2">
         <v>0.46</v>
@@ -3062,9 +2988,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B101" s="2">
         <v>0.53</v>
@@ -3076,9 +3002,9 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B102" s="2">
         <v>0.53</v>
@@ -3090,9 +3016,9 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B103" s="2">
         <v>0.87</v>
@@ -3104,9 +3030,9 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B104" s="2">
         <v>1.0900000000000001</v>
@@ -3118,9 +3044,9 @@
         <v>3.49</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B105" s="2">
         <v>1.05</v>
@@ -3132,9 +3058,9 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B106" s="2">
         <v>1.04</v>
@@ -3146,9 +3072,9 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B107" s="2">
         <v>1.04</v>
@@ -3160,9 +3086,9 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B108" s="2">
         <v>1.06</v>
@@ -3174,9 +3100,9 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B109" s="2">
         <v>1.1100000000000001</v>
@@ -3188,9 +3114,9 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B110" s="2">
         <v>1.1599999999999999</v>
@@ -3202,9 +3128,9 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B111" s="2">
         <v>1.41</v>
@@ -3216,9 +3142,9 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B112" s="2">
         <v>1.44</v>
@@ -3230,9 +3156,9 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B113" s="2">
         <v>1.53</v>
@@ -3244,9 +3170,9 @@
         <v>3.07</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B114" s="2">
         <v>1.35</v>
@@ -3258,9 +3184,9 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B115" s="2">
         <v>1.04</v>
@@ -3272,9 +3198,9 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B116" s="2">
         <v>0.99</v>
@@ -3286,9 +3212,9 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B117" s="2">
         <v>0.99</v>
@@ -3300,9 +3226,9 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B118" s="2">
         <v>1.0900000000000001</v>
@@ -3314,9 +3240,9 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B119" s="2">
         <v>1.0900000000000001</v>
@@ -3328,9 +3254,9 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B120" s="2">
         <v>1.1100000000000001</v>
@@ -3342,9 +3268,9 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B121" s="2">
         <v>1.1299999999999999</v>
@@ -3356,9 +3282,9 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B122" s="2">
         <v>1.21</v>
@@ -3370,9 +3296,9 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B123" s="2">
         <v>1.3</v>
@@ -3384,9 +3310,9 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B124" s="2">
         <v>1.37</v>
@@ -3398,9 +3324,9 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B125" s="2">
         <v>1.45</v>
@@ -3412,9 +3338,9 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B126" s="2">
         <v>1.54</v>
@@ -3426,9 +3352,9 @@
         <v>3.94</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B127" s="2">
         <v>1.6</v>
@@ -3440,9 +3366,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B128" s="2">
         <v>1.61</v>
@@ -3454,9 +3380,9 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B129" s="2">
         <v>1.53</v>
@@ -3468,9 +3394,9 @@
         <v>3.07</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B130" s="2">
         <v>1.48</v>
@@ -3482,9 +3408,9 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B131" s="2">
         <v>1.41</v>
@@ -3496,9 +3422,9 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B132" s="2">
         <v>1.35</v>
@@ -3510,9 +3436,9 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B133" s="2">
         <v>1.22</v>
@@ -3524,9 +3450,9 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B134" s="2">
         <v>1.2</v>
@@ -3538,9 +3464,9 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B135" s="2">
         <v>1.17</v>
@@ -3552,9 +3478,9 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B136" s="2">
         <v>1.2</v>
@@ -3566,9 +3492,9 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B137" s="2">
         <v>1.25</v>
@@ -3580,9 +3506,9 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B138" s="2">
         <v>1.1000000000000001</v>
@@ -3594,9 +3520,9 @@
         <v>2.64</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B139" s="2">
         <v>0.92</v>
@@ -3608,9 +3534,9 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B140" s="2">
         <v>0.63</v>
@@ -3622,9 +3548,9 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B141" s="2">
         <v>0.56000000000000005</v>
@@ -3636,9 +3562,9 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B142" s="2">
         <v>0.62</v>
@@ -3650,9 +3576,9 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B143" s="2">
         <v>0.61</v>
@@ -3664,9 +3590,9 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B144" s="2">
         <v>0.61</v>
@@ -3678,9 +3604,9 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B145" s="2">
         <v>0.64</v>
@@ -3692,31 +3618,31 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -3732,43 +3658,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E378C839-089A-4F4A-A203-014E3B2188F1}">
   <dimension ref="A2:L168"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="L6" sqref="L6:L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.54296875" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" customWidth="1"/>
+    <col min="10" max="10" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="I2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J2">
         <v>0.14169615999999999</v>
       </c>
       <c r="K2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2">
         <v>1.1599999999999999</v>
@@ -3782,12 +3708,12 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2">
         <v>0.28000000000000003</v>
@@ -3800,9 +3726,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2">
         <v>0.31</v>
@@ -3818,18 +3744,18 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2">
         <v>0.27</v>
@@ -3853,13 +3779,13 @@
         <v>89.504741066666668</v>
       </c>
       <c r="L6">
-        <f>0.3*K6</f>
-        <v>26.851422320000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <f>K6</f>
+        <v>89.504741066666668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B7" s="2">
         <v>1.1299999999999999</v>
@@ -3883,13 +3809,13 @@
         <v>87.851619199999988</v>
       </c>
       <c r="L7">
-        <f t="shared" ref="L7:L29" si="1">0.3*K7</f>
-        <v>26.355485759999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" ref="L7:L29" si="1">K7</f>
+        <v>87.851619199999988</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B8" s="2">
         <v>0.64</v>
@@ -3914,10 +3840,10 @@
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>26.001245359999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>86.670817866666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
         <f>AVERAGE(B3:B8)</f>
         <v>0.63166666666666671</v>
@@ -3942,12 +3868,12 @@
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>25.717853039999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85.72617679999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B10" s="2">
         <v>1.1000000000000001</v>
@@ -3972,12 +3898,12 @@
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>21.509477087999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>71.698256959999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B11" s="2">
         <v>0.28000000000000003</v>
@@ -4002,12 +3928,12 @@
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>25.859549199999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>86.198497333333322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B12" s="2">
         <v>0.37</v>
@@ -4032,12 +3958,12 @@
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>32.30672448</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>107.68908160000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B13" s="2">
         <v>0.25</v>
@@ -4062,12 +3988,12 @@
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>39.674924799999992</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>132.24974933333331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B14" s="2">
         <v>1.1100000000000001</v>
@@ -4092,12 +4018,12 @@
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>44.988530799999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>149.96176933333334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B15" s="2">
         <v>0.61</v>
@@ -4122,10 +4048,10 @@
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>43.217328799999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>144.05776266666666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B16" s="3">
         <f>AVERAGE(B10:B15)</f>
         <v>0.62</v>
@@ -4150,12 +4076,12 @@
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>41.871215279999987</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>139.57071759999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2">
         <v>1.05</v>
@@ -4180,12 +4106,12 @@
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>39.745772880000004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>132.48590960000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B18" s="2">
         <v>0.28999999999999998</v>
@@ -4210,12 +4136,12 @@
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>39.037292079999993</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>130.12430693333332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B19" s="2">
         <v>0.44</v>
@@ -4240,12 +4166,12 @@
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>38.541355519999996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>128.47118506666666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B20" s="2">
         <v>0.19</v>
@@ -4270,12 +4196,12 @@
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>41.021038320000009</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>136.73679440000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B21" s="2">
         <v>1.0900000000000001</v>
@@ -4300,12 +4226,12 @@
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>43.146480719999985</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>143.82160239999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B22" s="2">
         <v>0.61</v>
@@ -4330,10 +4256,10 @@
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>45.342771199999994</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>151.14257066666664</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B23" s="3">
         <f>AVERAGE(B17:B22)</f>
         <v>0.61166666666666669</v>
@@ -4358,12 +4284,12 @@
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>49.239415599999994</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>164.13138533333333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B24" s="2">
         <v>1.01</v>
@@ -4388,12 +4314,12 @@
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>47.043125119999992</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>156.81041706666664</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B25" s="2">
         <v>0.28999999999999998</v>
@@ -4418,12 +4344,12 @@
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>42.579696079999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>141.93232026666666</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B26" s="2">
         <v>0.43</v>
@@ -4448,12 +4374,12 @@
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>39.533228639999997</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>131.7774288</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B27" s="2">
         <v>0.19</v>
@@ -4478,12 +4404,12 @@
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>34.857255359999996</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>116.19085119999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B28" s="2">
         <v>1.0900000000000001</v>
@@ -4508,12 +4434,12 @@
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
-        <v>34.857255359999996</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>116.19085119999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B29" s="2">
         <v>0.62</v>
@@ -4538,10 +4464,10 @@
       </c>
       <c r="L29">
         <f t="shared" si="1"/>
-        <v>31.456547519999987</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+        <v>104.85515839999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B30" s="3">
         <f>AVERAGE(B24:B29)</f>
         <v>0.60499999999999998</v>
@@ -4554,9 +4480,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B31" s="2">
         <v>0.4</v>
@@ -4569,9 +4495,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B32" s="2">
         <v>0.39</v>
@@ -4584,9 +4510,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B33" s="2">
         <v>0.19</v>
@@ -4599,9 +4525,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B34" s="2">
         <v>0.99</v>
@@ -4614,9 +4540,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B35" s="2">
         <v>0.56000000000000005</v>
@@ -4629,7 +4555,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B36" s="3">
         <f>AVERAGE(B31:B35)</f>
         <v>0.50600000000000001</v>
@@ -4642,9 +4568,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B37" s="2">
         <v>1.05</v>
@@ -4657,9 +4583,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B38" s="2">
         <v>0.44</v>
@@ -4672,9 +4598,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B39" s="2">
         <v>0.35</v>
@@ -4687,9 +4613,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B40" s="2">
         <v>0.19</v>
@@ -4702,9 +4628,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B41" s="2">
         <v>0.99</v>
@@ -4717,9 +4643,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B42" s="2">
         <v>0.63</v>
@@ -4732,7 +4658,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B43" s="3">
         <f>AVERAGE(B37:B42)</f>
         <v>0.60833333333333328</v>
@@ -4745,9 +4671,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B44" s="2">
         <v>1.26</v>
@@ -4760,9 +4686,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B45" s="2">
         <v>0.74</v>
@@ -4775,9 +4701,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B46" s="2">
         <v>0.41</v>
@@ -4790,9 +4716,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B47" s="2">
         <v>0.19</v>
@@ -4805,9 +4731,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B48" s="2">
         <v>1.04</v>
@@ -4820,9 +4746,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B49" s="2">
         <v>0.92</v>
@@ -4835,7 +4761,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B50" s="3">
         <f>AVERAGE(B44:B49)</f>
         <v>0.76000000000000012</v>
@@ -4848,9 +4774,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B51" s="2">
         <v>1.42</v>
@@ -4863,9 +4789,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B52" s="2">
         <v>1.0900000000000001</v>
@@ -4878,9 +4804,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B53" s="2">
         <v>0.45</v>
@@ -4893,9 +4819,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2">
         <v>0.19</v>
@@ -4908,9 +4834,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B55" s="2">
         <v>1.35</v>
@@ -4923,9 +4849,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B56" s="2">
         <v>1.1000000000000001</v>
@@ -4938,7 +4864,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B57" s="3">
         <f>AVERAGE(B51:B56)</f>
         <v>0.93333333333333324</v>
@@ -4951,9 +4877,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B58" s="2">
         <v>1.62</v>
@@ -4966,9 +4892,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B59" s="2">
         <v>1.26</v>
@@ -4981,9 +4907,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B60" s="2">
         <v>0.43</v>
@@ -4996,9 +4922,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2">
         <v>0.26</v>
@@ -5011,9 +4937,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B62" s="2">
         <v>1.53</v>
@@ -5026,9 +4952,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B63" s="2">
         <v>1.25</v>
@@ -5041,7 +4967,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B64" s="3">
         <f>AVERAGE(B58:B63)</f>
         <v>1.0583333333333333</v>
@@ -5054,9 +4980,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B65" s="2">
         <v>1.64</v>
@@ -5069,9 +4995,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B66" s="2">
         <v>1.1100000000000001</v>
@@ -5084,9 +5010,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B67" s="2">
         <v>0.44</v>
@@ -5099,9 +5025,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2">
         <v>0.27</v>
@@ -5114,9 +5040,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B69" s="2">
         <v>1.44</v>
@@ -5129,9 +5055,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B70" s="2">
         <v>1.2</v>
@@ -5144,7 +5070,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B71" s="3">
         <f>AVERAGE(B65:B70)</f>
         <v>1.0166666666666668</v>
@@ -5157,9 +5083,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B72" s="2">
         <v>1.62</v>
@@ -5172,9 +5098,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B73" s="2">
         <v>0.96</v>
@@ -5187,9 +5113,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B74" s="2">
         <v>0.38</v>
@@ -5202,9 +5128,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B75" s="2">
         <v>0.37</v>
@@ -5217,9 +5143,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B76" s="2">
         <v>1.41</v>
@@ -5232,9 +5158,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B77" s="2">
         <v>1.17</v>
@@ -5247,7 +5173,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B78" s="3">
         <f>AVERAGE(B72:B77)</f>
         <v>0.98499999999999999</v>
@@ -5260,9 +5186,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B79" s="2">
         <v>1.58</v>
@@ -5275,9 +5201,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B80" s="2">
         <v>0.92</v>
@@ -5290,9 +5216,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B81" s="2">
         <v>0.34</v>
@@ -5305,9 +5231,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B82" s="2">
         <v>0.41</v>
@@ -5320,9 +5246,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B83" s="2">
         <v>1.1599999999999999</v>
@@ -5335,9 +5261,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B84" s="2">
         <v>1.2</v>
@@ -5350,7 +5276,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B85" s="3">
         <f>AVERAGE(B79:B84)</f>
         <v>0.93500000000000005</v>
@@ -5363,9 +5289,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B86" s="2">
         <v>1.54</v>
@@ -5378,9 +5304,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B87" s="2">
         <v>0.88</v>
@@ -5393,9 +5319,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B88" s="2">
         <v>0.34</v>
@@ -5408,9 +5334,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B89" s="2">
         <v>0.42</v>
@@ -5423,9 +5349,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B90" s="2">
         <v>1.1100000000000001</v>
@@ -5438,9 +5364,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B91" s="2">
         <v>1.22</v>
@@ -5453,7 +5379,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B92" s="3">
         <f>AVERAGE(B86:B91)</f>
         <v>0.91833333333333333</v>
@@ -5466,9 +5392,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B93" s="2">
         <v>1.51</v>
@@ -5481,9 +5407,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B94" s="2">
         <v>0.81</v>
@@ -5496,9 +5422,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B95" s="2">
         <v>0.3</v>
@@ -5511,9 +5437,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B96" s="2">
         <v>0.41</v>
@@ -5526,9 +5452,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B97" s="2">
         <v>1.06</v>
@@ -5541,9 +5467,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B98" s="2">
         <v>1.35</v>
@@ -5556,7 +5482,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B99" s="3">
         <f>AVERAGE(B93:B98)</f>
         <v>0.90666666666666662</v>
@@ -5569,9 +5495,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B100" s="2">
         <v>1.47</v>
@@ -5584,9 +5510,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B101" s="2">
         <v>0.93</v>
@@ -5599,9 +5525,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B102" s="2">
         <v>0.51</v>
@@ -5614,9 +5540,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B103" s="2">
         <v>0.43</v>
@@ -5629,9 +5555,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B104" s="2">
         <v>1.04</v>
@@ -5644,9 +5570,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B105" s="2">
         <v>1.41</v>
@@ -5659,7 +5585,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B106" s="3">
         <f>AVERAGE(B100:B105)</f>
         <v>0.96500000000000019</v>
@@ -5672,9 +5598,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B107" s="2">
         <v>1.38</v>
@@ -5687,9 +5613,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B108" s="2">
         <v>1.22</v>
@@ -5702,9 +5628,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B109" s="2">
         <v>0.47</v>
@@ -5717,9 +5643,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B110" s="2">
         <v>0.5</v>
@@ -5732,9 +5658,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B111" s="2">
         <v>1.04</v>
@@ -5747,9 +5673,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B112" s="2">
         <v>1.48</v>
@@ -5762,7 +5688,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B113" s="3">
         <f>AVERAGE(B107:B112)</f>
         <v>1.0149999999999999</v>
@@ -5775,9 +5701,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B114" s="2">
         <v>1.4</v>
@@ -5790,9 +5716,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B115" s="2">
         <v>1.38</v>
@@ -5805,9 +5731,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B116" s="2">
         <v>0.52</v>
@@ -5820,9 +5746,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B117" s="2">
         <v>0.52</v>
@@ -5835,9 +5761,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B118" s="2">
         <v>1.05</v>
@@ -5850,9 +5776,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B119" s="2">
         <v>1.53</v>
@@ -5865,7 +5791,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B120" s="3">
         <f>AVERAGE(B114:B119)</f>
         <v>1.0666666666666667</v>
@@ -5878,9 +5804,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B121" s="2">
         <v>1.48</v>
@@ -5893,9 +5819,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B122" s="2">
         <v>1.64</v>
@@ -5908,9 +5834,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B123" s="2">
         <v>0.53</v>
@@ -5923,9 +5849,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B124" s="2">
         <v>0.6</v>
@@ -5938,9 +5864,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B125" s="2">
         <v>1.0900000000000001</v>
@@ -5953,9 +5879,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B126" s="2">
         <v>1.61</v>
@@ -5968,7 +5894,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B127" s="3">
         <f>AVERAGE(B121:B126)</f>
         <v>1.1583333333333334</v>
@@ -5981,9 +5907,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B128" s="2">
         <v>1.4</v>
@@ -5996,9 +5922,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B129" s="2">
         <v>1.67</v>
@@ -6011,9 +5937,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B130" s="2">
         <v>0.52</v>
@@ -6026,9 +5952,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B131" s="2">
         <v>0.57999999999999996</v>
@@ -6041,9 +5967,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B132" s="2">
         <v>0.87</v>
@@ -6056,9 +5982,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B133" s="2">
         <v>1.6</v>
@@ -6071,7 +5997,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B134" s="3">
         <f>AVERAGE(B128:B133)</f>
         <v>1.1066666666666667</v>
@@ -6084,9 +6010,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B135" s="2">
         <v>1.33</v>
@@ -6099,9 +6025,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B136" s="2">
         <v>1.57</v>
@@ -6114,9 +6040,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B137" s="2">
         <v>0.51</v>
@@ -6129,9 +6055,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B138" s="2">
         <v>0.53</v>
@@ -6144,9 +6070,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B139" s="2">
         <v>0.53</v>
@@ -6159,9 +6085,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B140" s="2">
         <v>1.54</v>
@@ -6174,7 +6100,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B141" s="3">
         <f>AVERAGE(B135:B140)</f>
         <v>1.0016666666666667</v>
@@ -6187,9 +6113,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B142" s="2">
         <v>1.25</v>
@@ -6202,9 +6128,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B143" s="2">
         <v>1.35</v>
@@ -6217,9 +6143,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B144" s="2">
         <v>0.5</v>
@@ -6232,9 +6158,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B145" s="2">
         <v>0.5</v>
@@ -6247,9 +6173,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B146" s="2">
         <v>0.53</v>
@@ -6262,9 +6188,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B147" s="2">
         <v>1.45</v>
@@ -6277,7 +6203,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B148" s="3">
         <f>AVERAGE(B142:B147)</f>
         <v>0.93</v>
@@ -6290,9 +6216,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B149" s="2">
         <v>1.26</v>
@@ -6305,9 +6231,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B150" s="2">
         <v>0.49</v>
@@ -6320,9 +6246,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B151" s="2">
         <v>0.52</v>
@@ -6335,9 +6261,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B152" s="2">
         <v>0.46</v>
@@ -6350,9 +6276,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B153" s="2">
         <v>1.37</v>
@@ -6365,7 +6291,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B154" s="3">
         <f>AVERAGE(B149:B153)</f>
         <v>0.82</v>
@@ -6378,9 +6304,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B155" s="2">
         <v>1.1399999999999999</v>
@@ -6393,9 +6319,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B156" s="2">
         <v>1.25</v>
@@ -6408,9 +6334,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B157" s="2">
         <v>0.45</v>
@@ -6423,9 +6349,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B158" s="2">
         <v>0.47</v>
@@ -6438,9 +6364,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B159" s="2">
         <v>0.31</v>
@@ -6453,9 +6379,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B160" s="2">
         <v>1.3</v>
@@ -6468,7 +6394,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B161" s="3">
         <f>AVERAGE(B155:B160)</f>
         <v>0.82</v>
@@ -6481,9 +6407,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B162" s="2">
         <v>1</v>
@@ -6496,9 +6422,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B163" s="2">
         <v>1.17</v>
@@ -6511,9 +6437,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B164" s="2">
         <v>0.38</v>
@@ -6526,9 +6452,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B165" s="2">
         <v>0.41</v>
@@ -6541,9 +6467,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B166" s="2">
         <v>0.27</v>
@@ -6556,9 +6482,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B167" s="2">
         <v>1.21</v>
@@ -6571,7 +6497,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B168" s="3">
         <f>AVERAGE(B162:B167)</f>
         <v>0.73999999999999988</v>
@@ -6594,21 +6520,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100AEDD2C58C424B74499DE9AAA38D1F837" ma:contentTypeVersion="4" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="702f087d0813d5dfa38d019e1cfe3dbe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="59a1f2c9-9aa0-4700-bb29-973d29195b9e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f1c68433e2c2319791049a96af9fb53" ns2:_="">
     <xsd:import namespace="59a1f2c9-9aa0-4700-bb29-973d29195b9e"/>
@@ -6752,24 +6663,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{540BE6A0-27F9-419F-8224-019FE94C5CBE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B71B140-D529-43D3-80C5-DF1F266F3D83}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80DA1591-5D0E-493F-827A-BF7F96FE3311}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6785,4 +6694,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{540BE6A0-27F9-419F-8224-019FE94C5CBE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B71B140-D529-43D3-80C5-DF1F266F3D83}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>